--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25703"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukehzg/手游项目/项目管理/进度计划/Demo-里程碑1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="2" r:id="rId1"/>
@@ -13,9 +18,9 @@
     <sheet name="参考" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$M$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$M$85</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="364">
   <si>
     <t>Demo目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -976,18 +981,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美术资源需求列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术替代资源需求列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>开发工具</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1052,10 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>结算功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1072,15 +1061,382 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>内容项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统（服务器计算？对局内操作？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo初版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  可以体验核心战斗玩法，包括小怪和boss两种模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  可以释放大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  可以换宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  可以使用照妖镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本功能（随机场景时间预估）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动战斗和非自动战斗的差异性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机副本制作难度，工作量和成本收益考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机场景探索+回合制是否适合手游？目前市面上好像没有这类游戏，随机场景探索一般都是即时战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导表工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物，怪物AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流程-创建角色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源需求模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发规范和约定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个带着3个宠物的女道士可以打一个副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本构成：2波怪1boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心玩法可玩性验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体现亮点和差异性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个带着3个宠物的女道士可以打一个副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序需要用到的先做，后期再详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗，技能相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础框架，简单类型技能：1个法术，1个物理，1个大招（选一种大招操作制作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部内容，包括换宠、照妖镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单地图搭建，初版可以不考虑随机地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI布局，可以不做实际结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流程框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园（城镇）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时场景即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选副本UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar逻辑文档完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1名，女性，Avatar组成：头部、身体两部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本：1组可构成基础地图的模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落：简易构建一个可以跑动的平面，有副本入口标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI（临时即可）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本场景UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选关UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算界面UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo美术资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正式资源还是替代资源？如果两种方式都考虑的话如何分配，比例如何？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作正式资源需要时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找合适的替代资源需要的时间是？谁负责找替代资源？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物 *1 到3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色-女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本基础地图模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落（临时？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3只（1攻击，1防御，1治疗）数值固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>核心战斗-伤害公式计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容项</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个Boss对局（Boss模式）</t>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物（属性，进化）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源加载管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器网络调通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构和协议定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角属性，账号基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景，宠物过多是否内存足够？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1088,343 +1444,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宠物（属性，技能）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo初版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  可以体验核心战斗玩法，包括小怪和boss两种模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  可以释放大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  可以换宠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  可以使用照妖镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本功能（随机场景时间预估）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动战斗和非自动战斗的差异性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机副本制作难度，工作量和成本收益考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QA测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>核心战斗流程（进程，战斗，AI）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体关卡设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础AI跟关卡设计一起出（考虑是否可以用简单的脚本实现，让策划自己编辑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档设计，美术资源提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>QA测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机场景探索+回合制是否适合手游？目前市面上好像没有这类游戏，随机场景探索一般都是即时战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导表工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物，怪物AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个普通对局（小怪模式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流程-创建角色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色-avatar，账号角色基础数据存储</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源需求模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发规范和约定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个带着3个宠物的女道士可以打一个副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本构成：2波怪1boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心玩法可玩性验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体现亮点和差异性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个带着3个宠物的女道士可以打一个副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序需要用到的先做，后期再详细设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗，技能相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础框架，简单类型技能：1个法术，1个物理，1个大招（选一种大招操作制作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础AI（考虑是否可以用简单的脚本实现，让策划自己编辑）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部内容，包括换宠、照妖镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单地图搭建，初版可以不考虑随机地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI布局，可以不做实际结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流程框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家园（城镇）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时场景即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选副本UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avatar逻辑文档完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1名，女性，Avatar组成：头部、身体两部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本：1组可构成基础地图的模组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落：简易构建一个可以跑动的平面，有副本入口标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI（临时即可）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗界面UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本场景UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选关UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算界面UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo美术资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用正式资源还是替代资源？如果两种方式都考虑的话如何分配，比例如何？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作正式资源需要时间？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找合适的替代资源需要的时间是？谁负责找替代资源？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物 *1 到3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色-女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本基础地图模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落（临时？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3只（1攻击，1防御，1治疗）数值固定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1513,6 +1572,12 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1564,7 +1629,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="104">
+  <cellStyleXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1671,8 +1736,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1850,61 +1973,23 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="104">
+  <cellStyles count="162">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="7"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1956,8 +2041,299 @@
     <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2298,25 +2674,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
@@ -2344,6 +2701,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2712,13 +3074,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
@@ -2732,53 +3098,53 @@
     <col min="14" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="16">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="2:13" ht="16">
+    <row r="5" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H5" s="59"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2786,7 +3152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2794,7 +3160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2802,7 +3168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2810,10 +3176,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -2851,7 +3217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -2877,533 +3243,558 @@
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="12">
+        <v>262</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="9"/>
+        <v>344</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="B18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="12">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="11" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" s="9"/>
+        <v>345</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="B19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="12">
+    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="12">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H20" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="H20" s="60"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="J20" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="12">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="17">
         <v>1</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="I21" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" s="33">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="17">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="33">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="12">
         <v>1</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>283</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G23" s="11"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="17">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="12">
         <v>1</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>281</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="J24" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="L24" s="60"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="30">
-      <c r="B25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="17">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="12">
         <v>1</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>281</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="J25" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="L25" s="60"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="30">
-      <c r="B26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="17">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="12">
         <v>1</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="G26" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="J26" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="D27" s="12">
         <v>2</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>294</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" s="2" customFormat="1">
-      <c r="B28" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="D28" s="22">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="33">
         <v>2</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="20"/>
+        <v>272</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="32" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D29" s="33">
-        <v>2</v>
+      <c r="C29" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="12">
+        <v>3</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="11" t="s">
+        <v>283</v>
+      </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="B30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="27">
-        <v>2</v>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="12">
+        <v>3</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="60" t="s">
+        <v>360</v>
+      </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="33">
-        <v>2</v>
+        <v>256</v>
+      </c>
+      <c r="D31" s="12">
+        <v>3</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="64" t="s">
+        <v>361</v>
+      </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="12">
+        <v>3</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="64"/>
+      <c r="H32" s="60" t="s">
+        <v>360</v>
+      </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="27">
-        <v>1</v>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="12">
+        <v>3</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="15"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="B34" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="27">
-        <v>1</v>
-      </c>
+      <c r="F33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="63"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="G34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="1:17">
-      <c r="B35" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="D35" s="33">
-        <v>1</v>
-      </c>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="5"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="41"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="B36" s="31" t="s">
-        <v>246</v>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="D36" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="11"/>
+      <c r="F36" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="5"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="D37" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="28" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="G37" s="28"/>
-      <c r="H37" s="11"/>
+      <c r="H37" s="28" t="s">
+        <v>348</v>
+      </c>
       <c r="I37" s="11"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="1:17">
-      <c r="B38" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="27">
-        <v>2</v>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="33">
+        <v>1</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="28" t="s">
-        <v>279</v>
+      <c r="F38" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="5"/>
       <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
+      <c r="L38" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="20" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="D39" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="50" t="s">
@@ -3412,25 +3803,26 @@
       <c r="G39" s="28"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="5"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
+      <c r="L39" s="62" t="s">
+        <v>351</v>
+      </c>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="30"/>
-      <c r="B40" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>243</v>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>281</v>
       </c>
       <c r="D40" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="50" t="s">
-        <v>235</v>
+      <c r="F40" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="11"/>
@@ -3439,21 +3831,24 @@
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
       <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="30"/>
-      <c r="B41" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="33">
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="41"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="27">
         <v>2</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="50" t="s">
-        <v>235</v>
+      <c r="F41" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="11"/>
@@ -3463,19 +3858,19 @@
       <c r="L41" s="28"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="1:17" s="42" customFormat="1">
-      <c r="B42" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D42" s="51">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="27">
         <v>2</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="13" t="s">
-        <v>279</v>
+      <c r="F42" s="28" t="s">
+        <v>272</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="11"/>
@@ -3485,12 +3880,20 @@
       <c r="L42" s="28"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:17">
-      <c r="B43" s="15"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="33"/>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="27">
+        <v>3</v>
+      </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="28" t="s">
+        <v>272</v>
+      </c>
       <c r="G43" s="28"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3499,22 +3902,20 @@
       <c r="L43" s="28"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44" s="27">
-        <v>1</v>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="33">
+        <v>3</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="13" t="s">
-        <v>279</v>
+      <c r="F44" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="11"/>
@@ -3524,19 +3925,19 @@
       <c r="L44" s="28"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:17">
-      <c r="B45" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="D45" s="27">
-        <v>1</v>
+    <row r="45" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="51">
+        <v>3</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="13" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="11"/>
@@ -3546,20 +3947,12 @@
       <c r="L45" s="28"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:17">
-      <c r="B46" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" s="33">
-        <v>1</v>
-      </c>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="13" t="s">
-        <v>279</v>
-      </c>
+      <c r="F46" s="13"/>
       <c r="G46" s="28"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3568,11 +3961,14 @@
       <c r="L46" s="28"/>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="B47" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D47" s="27">
@@ -3580,9 +3976,11 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="G47" s="28"/>
+        <v>272</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>362</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="5"/>
@@ -3590,74 +3988,117 @@
       <c r="L47" s="28"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D48" s="27">
         <v>1</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="G48" s="28"/>
+        <v>272</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="J48" s="5"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13">
-      <c r="B49" s="15"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="33"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="33">
+        <v>1</v>
+      </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="28"/>
+      <c r="F49" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="5"/>
+      <c r="I49" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="J49" s="65" t="s">
+        <v>363</v>
+      </c>
       <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="27">
+        <v>1</v>
+      </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="H50" s="11"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="28"/>
+      <c r="I50" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" s="65" t="s">
+        <v>363</v>
+      </c>
       <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="1:13" s="42" customFormat="1">
-      <c r="B51" s="11"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="12"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="27">
+        <v>1</v>
+      </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="F51" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="I51" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="J51" s="5"/>
       <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="53"/>
       <c r="D52" s="33"/>
@@ -3671,29 +4112,29 @@
       <c r="L52" s="28"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13">
-      <c r="B53" s="15"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="33"/>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="28"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="15"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
-      <c r="C54" s="55"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="12"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -3702,52 +4143,52 @@
       <c r="L54" s="28"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13">
-      <c r="B55" s="11"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="12"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="12"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="J56" s="5"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B57" s="11"/>
-      <c r="C57" s="26"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="12"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="J57" s="5"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="C58" s="26"/>
       <c r="D58" s="12"/>
@@ -3761,21 +4202,24 @@
       <c r="L58" s="11"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B59" s="11"/>
-      <c r="C59" s="26"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="12"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
       <c r="C60" s="26"/>
       <c r="D60" s="12"/>
@@ -3783,17 +4227,17 @@
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
       <c r="C61" s="26"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="11"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="11"/>
@@ -3803,41 +4247,41 @@
       <c r="L61" s="11"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
-      <c r="C62" s="57"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="11"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="11"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
-      <c r="C63" s="55"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="11"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
-      <c r="C64" s="55"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="12"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
@@ -3845,13 +4289,13 @@
       <c r="L64" s="11"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
-      <c r="C65" s="55"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="12"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
@@ -3859,13 +4303,13 @@
       <c r="L65" s="11"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
       <c r="C66" s="55"/>
       <c r="D66" s="12"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -3873,7 +4317,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
       <c r="C67" s="55"/>
       <c r="D67" s="12"/>
@@ -3887,10 +4331,10 @@
       <c r="L67" s="11"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="2:13">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="46"/>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="12"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -3899,9 +4343,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
-      <c r="M68" s="58"/>
-    </row>
-    <row r="69" spans="2:13">
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
       <c r="C69" s="55"/>
       <c r="D69" s="12"/>
@@ -3915,13 +4359,13 @@
       <c r="L69" s="11"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13">
-      <c r="B70" s="14"/>
-      <c r="C70" s="26"/>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="C70" s="55"/>
       <c r="D70" s="12"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
@@ -3929,23 +4373,23 @@
       <c r="L70" s="11"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="2:13">
-      <c r="B71" s="11"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="12"/>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
-      <c r="M71" s="14"/>
-    </row>
-    <row r="72" spans="2:13">
+      <c r="M71" s="58"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
-      <c r="C72" s="14"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="12"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -3957,13 +4401,13 @@
       <c r="L72" s="11"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="2:13">
-      <c r="B73" s="11"/>
-      <c r="C73" s="14"/>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="14"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="12"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
@@ -3971,8 +4415,8 @@
       <c r="L73" s="11"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="2:13">
-      <c r="B74" s="14"/>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
       <c r="C74" s="26"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
@@ -3985,9 +4429,9 @@
       <c r="L74" s="11"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
-      <c r="C75" s="55"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="12"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -3999,7 +4443,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
       <c r="C76" s="14"/>
       <c r="D76" s="12"/>
@@ -4013,8 +4457,8 @@
       <c r="L76" s="11"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="2:13">
-      <c r="B77" s="11"/>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="14"/>
       <c r="C77" s="26"/>
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
@@ -4027,13 +4471,13 @@
       <c r="L77" s="11"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
-      <c r="C78" s="26"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="12"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -4041,9 +4485,9 @@
       <c r="L78" s="11"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="12"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -4055,13 +4499,13 @@
       <c r="L79" s="11"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="12"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -4069,13 +4513,13 @@
       <c r="L80" s="11"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="12"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
@@ -4083,9 +4527,9 @@
       <c r="L81" s="11"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="12"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -4097,109 +4541,204 @@
       <c r="L82" s="11"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="2:13">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="2:13">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="86" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="14"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="14"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="14"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
     </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B15:M82"/>
+  <autoFilter ref="B15:M85"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N35:Q35 B44:B48 C45:C48 B49:M115 D44:M48 B15:M43">
-    <cfRule type="cellIs" dxfId="41" priority="30" operator="equal">
+  <conditionalFormatting sqref="N40:Q40 B47:B51 C48:C51 B52:M118 I21:M21 K38:M38 B15:M16 B18:B22 D47:M47 B38:I38 B39:M46 B23:K23 C19:H19 G21 G22:H22 G20:M20 C20:F22 C18:G18 B17:G17 I17:M18 J22:M22 J19:M19 B37:M37 B36:G36 I36:M36 B26:M26 B24:J25 L24:M25 B28:M35 B27:K27 M27 M23 D48:J48 D51:K51 M51 D49:I50 M48:M49 L50:M50 K49">
+    <cfRule type="cellIs" dxfId="65" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28 E30 E33:E60">
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+  <conditionalFormatting sqref="E30 E32 E34:E63">
+    <cfRule type="cellIs" dxfId="64" priority="41" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
+    <cfRule type="containsText" dxfId="63" priority="42" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34 E37:E38">
-    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="61" priority="37" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="60" priority="38" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="32" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="24" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="35" priority="22" operator="equal">
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
+    <cfRule type="containsText" dxfId="54" priority="22" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E56)))</formula>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="cellIs" dxfId="53" priority="14" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E33)))</formula>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E36)))</formula>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F71"/>
+  <dimension ref="A3:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4207,271 +4746,271 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" t="s">
+      <c r="F15" t="s">
         <v>300</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
+      <c r="F16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="D11" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>303</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F17" t="s">
         <v>304</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="E12" t="s">
+      <c r="E19" t="s">
         <v>306</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="E13" t="s">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>308</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="E14" t="s">
-        <v>287</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" t="s">
+      <c r="E22" t="s">
         <v>311</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" t="s">
+      <c r="E24" t="s">
         <v>313</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
-      <c r="E17" t="s">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>315</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
-      <c r="D19" t="s">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>317</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E30" t="s">
         <v>318</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="E20" t="s">
+      <c r="E32" t="s">
         <v>320</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="D22" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>322</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E35" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
-      <c r="D24" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
         <v>324</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
-      <c r="C26" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
-      <c r="D27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E27" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="E28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="D30" t="s">
-        <v>329</v>
-      </c>
-      <c r="E30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="D32" t="s">
-        <v>331</v>
-      </c>
-      <c r="E32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="E33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="D35" t="s">
-        <v>334</v>
-      </c>
-      <c r="E35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="E36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="E37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="E38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D45" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -4482,64 +5021,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="61"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C67" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" t="s">
+      <c r="C73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C76" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="C71" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4547,11 +5094,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4559,13 +5101,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B68:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
@@ -4576,7 +5118,7 @@
       <c r="I68" s="59"/>
       <c r="J68" s="59"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -4587,7 +5129,7 @@
       <c r="I69" s="59"/>
       <c r="J69" s="59"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
@@ -4598,7 +5140,7 @@
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
@@ -4609,7 +5151,7 @@
       <c r="I71" s="59"/>
       <c r="J71" s="59"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
@@ -4620,7 +5162,7 @@
       <c r="I72" s="59"/>
       <c r="J72" s="59"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -4631,7 +5173,7 @@
       <c r="I73" s="59"/>
       <c r="J73" s="59"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
@@ -4642,7 +5184,7 @@
       <c r="I74" s="59"/>
       <c r="J74" s="59"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
@@ -4653,7 +5195,7 @@
       <c r="I75" s="59"/>
       <c r="J75" s="59"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
@@ -4664,7 +5206,7 @@
       <c r="I76" s="59"/>
       <c r="J76" s="59"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -4675,7 +5217,7 @@
       <c r="I77" s="59"/>
       <c r="J77" s="59"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -4686,7 +5228,7 @@
       <c r="I78" s="59"/>
       <c r="J78" s="59"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -4697,7 +5239,7 @@
       <c r="I79" s="59"/>
       <c r="J79" s="59"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -4708,7 +5250,7 @@
       <c r="I80" s="59"/>
       <c r="J80" s="59"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -4719,7 +5261,7 @@
       <c r="I81" s="59"/>
       <c r="J81" s="59"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
@@ -4730,7 +5272,7 @@
       <c r="I82" s="59"/>
       <c r="J82" s="59"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
@@ -4741,7 +5283,7 @@
       <c r="I83" s="59"/>
       <c r="J83" s="59"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
@@ -4752,7 +5294,7 @@
       <c r="I84" s="59"/>
       <c r="J84" s="59"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -4763,7 +5305,7 @@
       <c r="I85" s="59"/>
       <c r="J85" s="59"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
@@ -4774,7 +5316,7 @@
       <c r="I86" s="59"/>
       <c r="J86" s="59"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
@@ -4785,7 +5327,7 @@
       <c r="I87" s="59"/>
       <c r="J87" s="59"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
@@ -4796,7 +5338,7 @@
       <c r="I88" s="59"/>
       <c r="J88" s="59"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
@@ -4807,7 +5349,7 @@
       <c r="I89" s="59"/>
       <c r="J89" s="59"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
@@ -4818,7 +5360,7 @@
       <c r="I90" s="59"/>
       <c r="J90" s="59"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
@@ -4829,7 +5371,7 @@
       <c r="I91" s="59"/>
       <c r="J91" s="59"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
@@ -4840,7 +5382,7 @@
       <c r="I92" s="59"/>
       <c r="J92" s="59"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
@@ -4851,7 +5393,7 @@
       <c r="I93" s="59"/>
       <c r="J93" s="59"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
@@ -4862,7 +5404,7 @@
       <c r="I94" s="59"/>
       <c r="J94" s="59"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
@@ -4873,7 +5415,7 @@
       <c r="I95" s="59"/>
       <c r="J95" s="59"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
@@ -4884,7 +5426,7 @@
       <c r="I96" s="59"/>
       <c r="J96" s="59"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
@@ -4895,7 +5437,7 @@
       <c r="I97" s="59"/>
       <c r="J97" s="59"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
@@ -4906,7 +5448,7 @@
       <c r="I98" s="59"/>
       <c r="J98" s="59"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
       <c r="D99" s="59"/>
@@ -4917,7 +5459,7 @@
       <c r="I99" s="59"/>
       <c r="J99" s="59"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
       <c r="D100" s="59"/>
@@ -4928,7 +5470,7 @@
       <c r="I100" s="59"/>
       <c r="J100" s="59"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
@@ -4939,7 +5481,7 @@
       <c r="I101" s="59"/>
       <c r="J101" s="59"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
       <c r="D102" s="59"/>
@@ -4950,7 +5492,7 @@
       <c r="I102" s="59"/>
       <c r="J102" s="59"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
       <c r="D103" s="59"/>
@@ -4966,11 +5508,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4978,11 +5515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
@@ -4996,7 +5533,7 @@
     <col min="14" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5004,13 +5541,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5018,7 +5555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5026,7 +5563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5034,7 +5571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5042,10 +5579,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -5083,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -5109,7 +5646,7 @@
       </c>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -5123,7 +5660,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -5149,7 +5686,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="30">
+    <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
@@ -5179,7 +5716,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
@@ -5211,7 +5748,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="30">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
@@ -5239,7 +5776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
@@ -5269,7 +5806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>56</v>
@@ -5304,7 +5841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30">
+    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>64</v>
@@ -5329,7 +5866,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
         <v>51</v>
@@ -5358,7 +5895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>70</v>
@@ -5389,7 +5926,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -5404,7 +5941,7 @@
       <c r="L25" s="40"/>
       <c r="M25" s="41"/>
     </row>
-    <row r="27" spans="1:13" ht="30">
+    <row r="27" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -5437,7 +5974,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>82</v>
       </c>
@@ -5469,7 +6006,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>51</v>
       </c>
@@ -5499,7 +6036,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" s="42" customFormat="1">
+    <row r="30" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
@@ -5527,7 +6064,7 @@
       </c>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1">
+    <row r="31" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>95</v>
       </c>
@@ -5561,7 +6098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1">
+    <row r="32" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>95</v>
       </c>
@@ -5594,7 +6131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="45" customFormat="1" ht="45">
+    <row r="33" spans="1:17" s="45" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
@@ -5626,7 +6163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="45" customFormat="1" ht="45">
+    <row r="34" spans="1:17" s="45" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>95</v>
       </c>
@@ -5658,7 +6195,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="45" customFormat="1">
+    <row r="35" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>95</v>
       </c>
@@ -5690,7 +6227,7 @@
       <c r="L35" s="48"/>
       <c r="M35" s="49"/>
     </row>
-    <row r="36" spans="1:17" s="42" customFormat="1">
+    <row r="36" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="43"/>
       <c r="D36" s="12"/>
@@ -5704,7 +6241,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
@@ -5737,7 +6274,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>51</v>
       </c>
@@ -5767,7 +6304,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="20" t="s">
         <v>33</v>
@@ -5804,7 +6341,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="20" t="s">
         <v>127</v>
@@ -5837,7 +6374,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="42" customFormat="1">
+    <row r="41" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="50" t="s">
         <v>51</v>
       </c>
@@ -5867,7 +6404,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="52"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="31" t="s">
         <v>51</v>
       </c>
@@ -5895,7 +6432,7 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
         <v>33</v>
       </c>
@@ -5923,7 +6460,7 @@
       <c r="L43" s="28"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
         <v>33</v>
       </c>
@@ -5951,7 +6488,7 @@
       </c>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>51</v>
       </c>
@@ -5979,7 +6516,7 @@
       </c>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="50" t="s">
         <v>51</v>
       </c>
@@ -6007,7 +6544,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="20"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="50" t="s">
         <v>51</v>
       </c>
@@ -6035,7 +6572,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="20"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="50" t="s">
         <v>51</v>
       </c>
@@ -6063,7 +6600,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="20"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B49" s="50" t="s">
         <v>154</v>
       </c>
@@ -6091,7 +6628,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="20"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B50" s="50" t="s">
         <v>51</v>
       </c>
@@ -6119,7 +6656,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="20"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51" s="50" t="s">
         <v>51</v>
       </c>
@@ -6147,7 +6684,7 @@
       <c r="P51" s="39"/>
       <c r="Q51" s="41"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B52" s="50" t="s">
         <v>51</v>
       </c>
@@ -6175,7 +6712,7 @@
       <c r="P52" s="39"/>
       <c r="Q52" s="41"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -6189,7 +6726,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -6218,7 +6755,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>166</v>
       </c>
@@ -6244,7 +6781,7 @@
       <c r="L55" s="11"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
         <v>168</v>
       </c>
@@ -6270,7 +6807,7 @@
       <c r="L56" s="11"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>168</v>
       </c>
@@ -6296,7 +6833,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>168</v>
       </c>
@@ -6322,7 +6859,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
         <v>168</v>
       </c>
@@ -6348,7 +6885,7 @@
       <c r="L59" s="11"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>168</v>
       </c>
@@ -6374,7 +6911,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>168</v>
       </c>
@@ -6400,7 +6937,7 @@
       <c r="L61" s="11"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
       <c r="C62" s="55"/>
       <c r="D62" s="12"/>
@@ -6414,7 +6951,7 @@
       <c r="L62" s="11"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>176</v>
       </c>
@@ -6439,7 +6976,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>179</v>
       </c>
@@ -6464,7 +7001,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" ht="30">
+    <row r="65" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>181</v>
       </c>
@@ -6495,7 +7032,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -6526,7 +7063,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -6557,7 +7094,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -6588,7 +7125,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>196</v>
       </c>
@@ -6619,7 +7156,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" s="2" customFormat="1">
+    <row r="70" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>198</v>
       </c>
@@ -6652,7 +7189,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1">
+    <row r="71" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>200</v>
       </c>
@@ -6685,7 +7222,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1">
+    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>202</v>
       </c>
@@ -6716,7 +7253,7 @@
       <c r="L72" s="11"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
@@ -6730,7 +7267,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>204</v>
       </c>
@@ -6758,7 +7295,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
       <c r="C75" s="43" t="s">
         <v>210</v>
@@ -6782,7 +7319,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
       <c r="C76" s="43"/>
       <c r="D76" s="12"/>
@@ -6796,7 +7333,7 @@
       <c r="L76" s="11"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
         <v>213</v>
       </c>
@@ -6826,7 +7363,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
       <c r="C78" s="26"/>
       <c r="D78" s="12"/>
@@ -6840,7 +7377,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>216</v>
       </c>
@@ -6867,7 +7404,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
       <c r="C80" s="26"/>
       <c r="D80" s="12"/>
@@ -6881,7 +7418,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
         <v>219</v>
@@ -6901,7 +7438,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
       <c r="C82" s="26" t="s">
         <v>222</v>
@@ -6921,7 +7458,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
       <c r="C83" s="26" t="s">
         <v>224</v>
@@ -6943,7 +7480,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="12"/>
@@ -6957,7 +7494,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
       <c r="C85" s="57"/>
       <c r="D85" s="12"/>
@@ -6971,7 +7508,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
       <c r="C86" s="55"/>
       <c r="D86" s="12"/>
@@ -6985,7 +7522,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
       <c r="C87" s="55"/>
       <c r="D87" s="12"/>
@@ -6999,7 +7536,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
       <c r="C88" s="55"/>
       <c r="D88" s="12"/>
@@ -7013,7 +7550,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
       <c r="C89" s="55"/>
       <c r="D89" s="12"/>
@@ -7027,7 +7564,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
       <c r="C90" s="55"/>
       <c r="D90" s="12"/>
@@ -7041,7 +7578,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="46"/>
@@ -7055,7 +7592,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="58"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
       <c r="C92" s="55"/>
       <c r="D92" s="12"/>
@@ -7069,7 +7606,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
       <c r="C93" s="26"/>
       <c r="D93" s="12"/>
@@ -7083,7 +7620,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
       <c r="C94" s="26"/>
       <c r="D94" s="12"/>
@@ -7097,7 +7634,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
       <c r="C95" s="14"/>
       <c r="D95" s="12"/>
@@ -7111,7 +7648,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
       <c r="C96" s="14"/>
       <c r="D96" s="12"/>
@@ -7125,7 +7662,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="14"/>
       <c r="C97" s="26"/>
       <c r="D97" s="12"/>
@@ -7139,7 +7676,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
       <c r="C98" s="55"/>
       <c r="D98" s="12"/>
@@ -7153,7 +7690,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
       <c r="C99" s="14"/>
       <c r="D99" s="12"/>
@@ -7167,7 +7704,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
       <c r="C100" s="26"/>
       <c r="D100" s="12"/>
@@ -7181,7 +7718,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
       <c r="C101" s="26"/>
       <c r="D101" s="12"/>
@@ -7195,7 +7732,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="12"/>
@@ -7209,7 +7746,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="11"/>
       <c r="C103" s="14"/>
       <c r="D103" s="12"/>
@@ -7223,7 +7760,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="11"/>
       <c r="C104" s="14"/>
       <c r="D104" s="12"/>
@@ -7237,7 +7774,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="11"/>
       <c r="C105" s="14"/>
       <c r="D105" s="12"/>
@@ -7251,136 +7788,131 @@
       <c r="L105" s="11"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H39 H36:L38 H29:I30 B20:M20 I28:L28 I31:I32 M29:M39 K39:L41 H40:J40 J21:M22 J39 J19:L19 J29:K29 J31:K35 L29:L31 I22 H27:M27 B19:H19 B21:H22 B46:Q52 B41:J41 B23:M25 B27:G40 B42:M45 B53:M138 B13:M18">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E52">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="46" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="42" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25703"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukehzg/手游项目/项目管理/进度计划/Demo-里程碑1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="4160" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="参考" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$M$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$M$86</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="366">
   <si>
     <t>Demo目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1381,10 +1376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物（属性，进化）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1436,10 +1427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美术资源提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1476,14 +1463,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>提交资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落基础（角色移动，副本入口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>QA测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备接口预留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1572,12 +1576,6 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1629,7 +1627,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="162">
+  <cellStyleXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1794,8 +1792,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1977,19 +1977,91 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="162">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="164">
     <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2070,270 +2142,9 @@
     <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill>
@@ -2573,6 +2384,97 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3074,21 +2976,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
@@ -3098,7 +3000,7 @@
     <col min="14" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3106,45 +3008,45 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="C2" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="C3" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="17">
       <c r="C4" s="2" t="s">
         <v>264</v>
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="2:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="17">
       <c r="C5" s="2" t="s">
         <v>265</v>
       </c>
       <c r="H5" s="59"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="C6" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="C7" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3152,7 +3054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3160,7 +3062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3168,7 +3070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -3176,10 +3078,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -3217,7 +3119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -3243,7 +3145,7 @@
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
         <v>262</v>
       </c>
@@ -3251,7 +3153,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
@@ -3261,10 +3163,10 @@
         <v>272</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -3272,12 +3174,12 @@
       <c r="L17" s="9"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
@@ -3287,10 +3189,10 @@
         <v>271</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -3298,7 +3200,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="32">
       <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
@@ -3316,22 +3218,22 @@
         <v>104</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -3346,18 +3248,18 @@
       <c r="H20" s="60"/>
       <c r="I20" s="9"/>
       <c r="J20" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
@@ -3368,19 +3270,19 @@
       </c>
       <c r="G21" s="11"/>
       <c r="I21" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
@@ -3391,74 +3293,72 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="12">
+    <row r="23" spans="1:13">
+      <c r="B23" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="17">
         <v>1</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="11" t="s">
-        <v>235</v>
+        <v>364</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="60"/>
-      <c r="K23" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>355</v>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60" t="s">
+        <v>343</v>
       </c>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="B24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="11" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="L24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -3471,20 +3371,20 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="60" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L25" s="60"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
@@ -3493,101 +3393,101 @@
       <c r="F26" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>359</v>
-      </c>
+      <c r="G26" s="11"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="K26" s="60"/>
+      <c r="J26" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="L26" s="60"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>356</v>
+        <v>254</v>
       </c>
       <c r="D27" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>357</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="J27" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="D28" s="33">
+    <row r="28" spans="1:13">
+      <c r="B28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D28" s="12">
         <v>2</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>274</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G28" s="11"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
+      <c r="K28" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" s="12">
-        <v>3</v>
+    <row r="29" spans="1:13">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="33">
+        <v>2</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="11" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
-      <c r="M29" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>280</v>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D30" s="12">
         <v>3</v>
@@ -3596,23 +3496,24 @@
       <c r="F30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="60" t="s">
-        <v>360</v>
-      </c>
+      <c r="G30" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="60"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>256</v>
+      <c r="M30" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1">
+      <c r="B31" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>280</v>
       </c>
       <c r="D31" s="12">
         <v>3</v>
@@ -3621,22 +3522,23 @@
       <c r="F31" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="H31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="60" t="s">
+        <v>358</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="60"/>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>234</v>
+    <row r="32" spans="1:13">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
@@ -3645,23 +3547,22 @@
       <c r="F32" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="60" t="s">
-        <v>360</v>
-      </c>
+      <c r="G32" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="60"/>
       <c r="K32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>279</v>
+    <row r="33" spans="1:17">
+      <c r="B33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>234</v>
       </c>
       <c r="D33" s="12">
         <v>3</v>
@@ -3670,33 +3571,44 @@
       <c r="F33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60" t="s">
-        <v>360</v>
-      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="I33" s="9"/>
       <c r="J33" s="60"/>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
+    <row r="34" spans="1:17">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="12">
+        <v>3</v>
+      </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="B35" s="11"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="27"/>
       <c r="E35" s="5"/>
       <c r="F35" s="28"/>
@@ -3708,52 +3620,42 @@
       <c r="L35" s="28"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D36" s="27">
-        <v>1</v>
-      </c>
+    <row r="36" spans="1:17">
+      <c r="B36" s="11"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B37" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D37" s="27">
         <v>1</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28" t="s">
-        <v>348</v>
+        <v>353</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>353</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -3761,37 +3663,37 @@
       <c r="L37" s="28"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="33">
+    <row r="38" spans="1:17">
+      <c r="B38" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38" s="27">
         <v>1</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="50" t="s">
-        <v>235</v>
+      <c r="F38" s="28" t="s">
+        <v>353</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="28" t="s">
+        <v>347</v>
+      </c>
       <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="28"/>
-      <c r="L38" s="11" t="s">
-        <v>346</v>
-      </c>
+      <c r="L38" s="28"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="30"/>
       <c r="B39" s="20" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="D39" s="33">
         <v>1</v>
@@ -3803,51 +3705,49 @@
       <c r="G39" s="28"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
       <c r="K39" s="28"/>
-      <c r="L39" s="62" t="s">
-        <v>351</v>
+      <c r="L39" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>281</v>
+    <row r="40" spans="1:17">
+      <c r="A40" s="30"/>
+      <c r="B40" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>276</v>
       </c>
       <c r="D40" s="33">
         <v>1</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="13" t="s">
-        <v>257</v>
+      <c r="F40" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="5"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
+      <c r="L40" s="62" t="s">
+        <v>350</v>
+      </c>
       <c r="M40" s="15"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="41"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D41" s="27">
-        <v>2</v>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="B41" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="33">
+        <v>1</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="13" t="s">
         <v>257</v>
       </c>
       <c r="G41" s="28"/>
@@ -3857,20 +3757,24 @@
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
       <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
-        <v>238</v>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="41"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="B42" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="D42" s="27">
         <v>2</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="28" t="s">
-        <v>272</v>
+      <c r="F42" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="11"/>
@@ -3880,15 +3784,15 @@
       <c r="L42" s="28"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="B43" s="11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D43" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="28" t="s">
@@ -3902,20 +3806,19 @@
       <c r="L43" s="28"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" s="33">
+    <row r="44" spans="1:17">
+      <c r="B44" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="27">
         <v>3</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="50" t="s">
-        <v>235</v>
+      <c r="F44" s="28" t="s">
+        <v>272</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="11"/>
@@ -3925,19 +3828,20 @@
       <c r="L44" s="28"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
+      <c r="A45" s="30"/>
       <c r="B45" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D45" s="51">
+      <c r="C45" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="33">
         <v>3</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="13" t="s">
-        <v>272</v>
+      <c r="F45" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="11"/>
@@ -3947,12 +3851,20 @@
       <c r="L45" s="28"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="33"/>
+    <row r="46" spans="1:17" s="42" customFormat="1">
+      <c r="B46" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="51">
+        <v>3</v>
+      </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="G46" s="28"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3961,26 +3873,13 @@
       <c r="L46" s="28"/>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="27">
-        <v>1</v>
-      </c>
+    <row r="47" spans="1:17">
+      <c r="B47" s="15"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>362</v>
-      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="5"/>
@@ -3988,167 +3887,164 @@
       <c r="L47" s="28"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="B48" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C48" s="53" t="s">
-        <v>251</v>
+      <c r="C48" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="D48" s="27">
         <v>1</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>274</v>
+      <c r="F48" s="13"/>
+      <c r="G48" s="28" t="s">
+        <v>360</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
-        <v>353</v>
-      </c>
+      <c r="I48" s="11"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="B49" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="33">
+        <v>251</v>
+      </c>
+      <c r="D49" s="27">
         <v>1</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="13" t="s">
-        <v>272</v>
-      </c>
+      <c r="F49" s="13"/>
       <c r="G49" s="11" t="s">
         <v>274</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="J49" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="K49" s="28"/>
+        <v>361</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="B50" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" s="27">
+        <v>248</v>
+      </c>
+      <c r="D50" s="33">
         <v>1</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="13" t="s">
-        <v>272</v>
-      </c>
+      <c r="F50" s="13"/>
       <c r="G50" s="11" t="s">
         <v>274</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="J50" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="28"/>
+        <v>361</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="11"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="B51" s="15" t="s">
         <v>273</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D51" s="27">
         <v>1</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="13" t="s">
-        <v>272</v>
-      </c>
+      <c r="F51" s="13"/>
       <c r="G51" s="11" t="s">
         <v>274</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J51" s="5"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="28"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="33"/>
+    <row r="52" spans="1:13">
+      <c r="B52" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="27">
+        <v>1</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="28"/>
+      <c r="G52" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="I52" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="J52" s="5"/>
       <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:13">
+      <c r="B53" s="15"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="12"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="15"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="33"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" s="42" customFormat="1">
+      <c r="B55" s="11"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="13"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="28"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -4157,7 +4053,7 @@
       <c r="L55" s="28"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="B56" s="15"/>
       <c r="C56" s="53"/>
       <c r="D56" s="33"/>
@@ -4171,15 +4067,12 @@
       <c r="L56" s="28"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="12"/>
+    <row r="57" spans="1:13">
+      <c r="B57" s="15"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="11"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="28"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -4188,30 +4081,30 @@
       <c r="L57" s="28"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B58" s="11"/>
-      <c r="C58" s="26"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="12"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="14"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="B59" s="11"/>
-      <c r="C59" s="55"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="12"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -4219,13 +4112,16 @@
       <c r="L59" s="11"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="26"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="12"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
@@ -4233,7 +4129,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="B61" s="11"/>
       <c r="C61" s="26"/>
       <c r="D61" s="12"/>
@@ -4247,51 +4143,51 @@
       <c r="L61" s="11"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="B62" s="11"/>
       <c r="C62" s="26"/>
       <c r="D62" s="12"/>
       <c r="E62" s="5"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
+      <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="B63" s="11"/>
       <c r="C63" s="26"/>
       <c r="D63" s="12"/>
       <c r="E63" s="5"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="B64" s="11"/>
       <c r="C64" s="26"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="11"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13">
       <c r="B65" s="11"/>
-      <c r="C65" s="57"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="12"/>
       <c r="E65" s="11"/>
       <c r="F65" s="19"/>
@@ -4303,9 +4199,9 @@
       <c r="L65" s="11"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13">
       <c r="B66" s="11"/>
-      <c r="C66" s="55"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="12"/>
       <c r="E66" s="11"/>
       <c r="F66" s="19"/>
@@ -4317,13 +4213,13 @@
       <c r="L66" s="11"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13">
       <c r="B67" s="11"/>
       <c r="C67" s="55"/>
       <c r="D67" s="12"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
@@ -4331,7 +4227,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13">
       <c r="B68" s="11"/>
       <c r="C68" s="55"/>
       <c r="D68" s="12"/>
@@ -4345,7 +4241,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13">
       <c r="B69" s="11"/>
       <c r="C69" s="55"/>
       <c r="D69" s="12"/>
@@ -4359,7 +4255,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13">
       <c r="B70" s="11"/>
       <c r="C70" s="55"/>
       <c r="D70" s="12"/>
@@ -4373,10 +4269,10 @@
       <c r="L70" s="11"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="46"/>
+    <row r="71" spans="2:13">
+      <c r="B71" s="11"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -4385,12 +4281,12 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
-      <c r="M71" s="58"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="11"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="12"/>
+      <c r="M71" s="14"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="46"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
@@ -4399,15 +4295,15 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
-      <c r="M72" s="14"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="14"/>
-      <c r="C73" s="26"/>
+      <c r="M72" s="58"/>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="11"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="12"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
@@ -4415,8 +4311,8 @@
       <c r="L73" s="11"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="11"/>
+    <row r="74" spans="2:13">
+      <c r="B74" s="14"/>
       <c r="C74" s="26"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
@@ -4429,13 +4325,13 @@
       <c r="L74" s="11"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13">
       <c r="B75" s="11"/>
-      <c r="C75" s="14"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="12"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -4443,7 +4339,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13">
       <c r="B76" s="11"/>
       <c r="C76" s="14"/>
       <c r="D76" s="12"/>
@@ -4457,13 +4353,13 @@
       <c r="L76" s="11"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="14"/>
-      <c r="C77" s="26"/>
+    <row r="77" spans="2:13">
+      <c r="B77" s="11"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -4471,13 +4367,13 @@
       <c r="L77" s="11"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="11"/>
-      <c r="C78" s="55"/>
+    <row r="78" spans="2:13">
+      <c r="B78" s="14"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="12"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -4485,9 +4381,9 @@
       <c r="L78" s="11"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13">
       <c r="B79" s="11"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="12"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -4499,13 +4395,13 @@
       <c r="L79" s="11"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13">
       <c r="B80" s="11"/>
-      <c r="C80" s="26"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="12"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -4513,7 +4409,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13">
       <c r="B81" s="11"/>
       <c r="C81" s="26"/>
       <c r="D81" s="12"/>
@@ -4527,13 +4423,13 @@
       <c r="L81" s="11"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13">
       <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="12"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
@@ -4541,9 +4437,9 @@
       <c r="L82" s="11"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13">
       <c r="B83" s="11"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="12"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -4555,7 +4451,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13">
       <c r="B84" s="11"/>
       <c r="C84" s="14"/>
       <c r="D84" s="12"/>
@@ -4569,7 +4465,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13">
       <c r="B85" s="11"/>
       <c r="C85" s="14"/>
       <c r="D85" s="12"/>
@@ -4583,143 +4479,162 @@
       <c r="L85" s="11"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13">
+      <c r="B86" s="11"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="14"/>
+    </row>
+    <row r="87" spans="2:13">
       <c r="C87" s="1"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="90" spans="2:13">
       <c r="C90" s="1"/>
     </row>
+    <row r="91" spans="2:13">
+      <c r="C91" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B15:M85"/>
+  <autoFilter ref="B15:M86"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N40:Q40 B47:B51 C48:C51 B52:M118 I21:M21 K38:M38 B15:M16 B18:B22 D47:M47 B38:I38 B39:M46 B23:K23 C19:H19 G21 G22:H22 G20:M20 C20:F22 C18:G18 B17:G17 I17:M18 J22:M22 J19:M19 B37:M37 B36:G36 I36:M36 B26:M26 B24:J25 L24:M25 B28:M35 B27:K27 M27 M23 D48:J48 D51:K51 M51 D49:I50 M48:M49 L50:M50 K49">
-    <cfRule type="cellIs" dxfId="65" priority="43" operator="equal">
+  <conditionalFormatting sqref="N41:Q41 B48:B52 C49:C52 B53:M119 I21:M21 K39:M39 B15:M16 B18:B23 D48:M48 B39:I39 B40:M47 B24:K24 C19:H19 G21 G22:H23 G20:M20 C20:F23 C18:G18 B17:G17 I17:M18 J22:M23 J19:M19 B38:M38 B37:G37 I37:M37 B27:M27 B25:J26 L25:M26 B28:K28 M28 M24 D49:J49 M52 M49:M50 L51:M51 K50 B29:M36 J52:K52 D50:I52 J50:J51">
+    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30 E32 E34:E63">
-    <cfRule type="cellIs" dxfId="64" priority="41" operator="equal">
+  <conditionalFormatting sqref="E31 E33 E35:E64">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="42" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="62" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="61" priority="37" operator="equal">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="38" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="32" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E59)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="24" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="22" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="cellIs" dxfId="53" priority="14" operator="equal">
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+  <conditionalFormatting sqref="I22:I23">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+  <conditionalFormatting sqref="K26">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+  <conditionalFormatting sqref="L28">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="L52">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4731,14 +4646,14 @@
       <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4749,12 +4664,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4762,7 +4677,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" t="s">
         <v>289</v>
       </c>
@@ -4770,17 +4685,17 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="D8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="D11" t="s">
         <v>292</v>
       </c>
@@ -4791,7 +4706,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="E12" t="s">
         <v>295</v>
       </c>
@@ -4799,7 +4714,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="E13" t="s">
         <v>297</v>
       </c>
@@ -4807,15 +4722,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="E14" t="s">
         <v>278</v>
       </c>
       <c r="F14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="E15" t="s">
         <v>299</v>
       </c>
@@ -4823,7 +4738,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="E16" t="s">
         <v>301</v>
       </c>
@@ -4831,7 +4746,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="E17" t="s">
         <v>303</v>
       </c>
@@ -4839,7 +4754,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6">
       <c r="D19" t="s">
         <v>305</v>
       </c>
@@ -4850,7 +4765,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6">
       <c r="E20" t="s">
         <v>308</v>
       </c>
@@ -4858,7 +4773,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6">
       <c r="D22" t="s">
         <v>310</v>
       </c>
@@ -4866,7 +4781,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6">
       <c r="D24" t="s">
         <v>312</v>
       </c>
@@ -4874,12 +4789,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6">
       <c r="C26" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6">
       <c r="D27" t="s">
         <v>315</v>
       </c>
@@ -4887,12 +4802,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6">
       <c r="E28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6">
       <c r="D30" t="s">
         <v>317</v>
       </c>
@@ -4900,7 +4815,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6">
       <c r="D32" t="s">
         <v>319</v>
       </c>
@@ -4908,12 +4823,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="E33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="D35" t="s">
         <v>322</v>
       </c>
@@ -4921,22 +4836,22 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="E36" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="E37" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="E38" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4944,22 +4859,22 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="C41" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="C42" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="C43" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="C45" t="s">
         <v>331</v>
       </c>
@@ -4967,27 +4882,27 @@
         <v>332</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="D46" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="D47" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="D48" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="D49" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="D50" t="s">
         <v>322</v>
       </c>
@@ -4995,22 +4910,22 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="E51" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="E52" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="E53" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>4</v>
       </c>
@@ -5021,55 +4936,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="C56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="C57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="C59" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="C60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="C61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="C62" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="C63" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="C64" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="C65" s="61"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="C66" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" t="s">
         <v>6</v>
       </c>
@@ -5077,7 +4992,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76" t="s">
         <v>7</v>
       </c>
@@ -5085,7 +5000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -5094,6 +5009,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5105,9 +5025,9 @@
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
@@ -5118,7 +5038,7 @@
       <c r="I68" s="59"/>
       <c r="J68" s="59"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -5129,7 +5049,7 @@
       <c r="I69" s="59"/>
       <c r="J69" s="59"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
@@ -5140,7 +5060,7 @@
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
@@ -5151,7 +5071,7 @@
       <c r="I71" s="59"/>
       <c r="J71" s="59"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
@@ -5162,7 +5082,7 @@
       <c r="I72" s="59"/>
       <c r="J72" s="59"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -5173,7 +5093,7 @@
       <c r="I73" s="59"/>
       <c r="J73" s="59"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
@@ -5184,7 +5104,7 @@
       <c r="I74" s="59"/>
       <c r="J74" s="59"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
@@ -5195,7 +5115,7 @@
       <c r="I75" s="59"/>
       <c r="J75" s="59"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
@@ -5206,7 +5126,7 @@
       <c r="I76" s="59"/>
       <c r="J76" s="59"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -5217,7 +5137,7 @@
       <c r="I77" s="59"/>
       <c r="J77" s="59"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -5228,7 +5148,7 @@
       <c r="I78" s="59"/>
       <c r="J78" s="59"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -5239,7 +5159,7 @@
       <c r="I79" s="59"/>
       <c r="J79" s="59"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -5250,7 +5170,7 @@
       <c r="I80" s="59"/>
       <c r="J80" s="59"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -5261,7 +5181,7 @@
       <c r="I81" s="59"/>
       <c r="J81" s="59"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
@@ -5272,7 +5192,7 @@
       <c r="I82" s="59"/>
       <c r="J82" s="59"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
@@ -5283,7 +5203,7 @@
       <c r="I83" s="59"/>
       <c r="J83" s="59"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
@@ -5294,7 +5214,7 @@
       <c r="I84" s="59"/>
       <c r="J84" s="59"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -5305,7 +5225,7 @@
       <c r="I85" s="59"/>
       <c r="J85" s="59"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
@@ -5316,7 +5236,7 @@
       <c r="I86" s="59"/>
       <c r="J86" s="59"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
@@ -5327,7 +5247,7 @@
       <c r="I87" s="59"/>
       <c r="J87" s="59"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
@@ -5338,7 +5258,7 @@
       <c r="I88" s="59"/>
       <c r="J88" s="59"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
@@ -5349,7 +5269,7 @@
       <c r="I89" s="59"/>
       <c r="J89" s="59"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
@@ -5360,7 +5280,7 @@
       <c r="I90" s="59"/>
       <c r="J90" s="59"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
@@ -5371,7 +5291,7 @@
       <c r="I91" s="59"/>
       <c r="J91" s="59"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
@@ -5382,7 +5302,7 @@
       <c r="I92" s="59"/>
       <c r="J92" s="59"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
@@ -5393,7 +5313,7 @@
       <c r="I93" s="59"/>
       <c r="J93" s="59"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
@@ -5404,7 +5324,7 @@
       <c r="I94" s="59"/>
       <c r="J94" s="59"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
@@ -5415,7 +5335,7 @@
       <c r="I95" s="59"/>
       <c r="J95" s="59"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
@@ -5426,7 +5346,7 @@
       <c r="I96" s="59"/>
       <c r="J96" s="59"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
@@ -5437,7 +5357,7 @@
       <c r="I97" s="59"/>
       <c r="J97" s="59"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10">
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
@@ -5448,7 +5368,7 @@
       <c r="I98" s="59"/>
       <c r="J98" s="59"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10">
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
       <c r="D99" s="59"/>
@@ -5459,7 +5379,7 @@
       <c r="I99" s="59"/>
       <c r="J99" s="59"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10">
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
       <c r="D100" s="59"/>
@@ -5470,7 +5390,7 @@
       <c r="I100" s="59"/>
       <c r="J100" s="59"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10">
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
@@ -5481,7 +5401,7 @@
       <c r="I101" s="59"/>
       <c r="J101" s="59"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10">
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
       <c r="D102" s="59"/>
@@ -5492,7 +5412,7 @@
       <c r="I102" s="59"/>
       <c r="J102" s="59"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10">
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
       <c r="D103" s="59"/>
@@ -5508,6 +5428,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5519,7 +5444,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
@@ -5533,7 +5458,7 @@
     <col min="14" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5541,13 +5466,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5555,7 +5480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5563,7 +5488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5571,7 +5496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5579,10 +5504,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -5620,7 +5545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -5646,7 +5571,7 @@
       </c>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -5660,7 +5585,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -5686,7 +5611,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="32">
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
@@ -5716,7 +5641,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
@@ -5748,7 +5673,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="32">
       <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
@@ -5776,7 +5701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
@@ -5806,7 +5731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>56</v>
@@ -5841,7 +5766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="32">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>64</v>
@@ -5866,7 +5791,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
         <v>51</v>
@@ -5895,7 +5820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>70</v>
@@ -5926,7 +5851,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="30"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -5941,7 +5866,7 @@
       <c r="L25" s="40"/>
       <c r="M25" s="41"/>
     </row>
-    <row r="27" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="32">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -5974,7 +5899,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="B28" s="31" t="s">
         <v>82</v>
       </c>
@@ -6006,7 +5931,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="B29" s="31" t="s">
         <v>51</v>
       </c>
@@ -6036,7 +5961,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="42" customFormat="1">
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
@@ -6064,7 +5989,7 @@
       </c>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="45" customFormat="1">
       <c r="B31" s="31" t="s">
         <v>95</v>
       </c>
@@ -6098,7 +6023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="45" customFormat="1">
       <c r="B32" s="14" t="s">
         <v>95</v>
       </c>
@@ -6131,7 +6056,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="45" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="45" customFormat="1" ht="48">
       <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
@@ -6163,7 +6088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="45" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="45" customFormat="1" ht="48">
       <c r="B34" s="14" t="s">
         <v>95</v>
       </c>
@@ -6195,7 +6120,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="45" customFormat="1">
       <c r="B35" s="14" t="s">
         <v>95</v>
       </c>
@@ -6227,7 +6152,7 @@
       <c r="L35" s="48"/>
       <c r="M35" s="49"/>
     </row>
-    <row r="36" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="42" customFormat="1">
       <c r="B36" s="11"/>
       <c r="C36" s="43"/>
       <c r="D36" s="12"/>
@@ -6241,7 +6166,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
@@ -6274,7 +6199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="B38" s="11" t="s">
         <v>51</v>
       </c>
@@ -6304,7 +6229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="30"/>
       <c r="B39" s="20" t="s">
         <v>33</v>
@@ -6341,7 +6266,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="30"/>
       <c r="B40" s="20" t="s">
         <v>127</v>
@@ -6374,7 +6299,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="42" customFormat="1">
       <c r="B41" s="50" t="s">
         <v>51</v>
       </c>
@@ -6404,7 +6329,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="52"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="B42" s="31" t="s">
         <v>51</v>
       </c>
@@ -6432,7 +6357,7 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="B43" s="15" t="s">
         <v>33</v>
       </c>
@@ -6460,7 +6385,7 @@
       <c r="L43" s="28"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="B44" s="15" t="s">
         <v>33</v>
       </c>
@@ -6488,7 +6413,7 @@
       </c>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="B45" s="15" t="s">
         <v>51</v>
       </c>
@@ -6516,7 +6441,7 @@
       </c>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="B46" s="50" t="s">
         <v>51</v>
       </c>
@@ -6544,7 +6469,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="20"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="B47" s="50" t="s">
         <v>51</v>
       </c>
@@ -6572,7 +6497,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="20"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="B48" s="50" t="s">
         <v>51</v>
       </c>
@@ -6600,7 +6525,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="20"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="B49" s="50" t="s">
         <v>154</v>
       </c>
@@ -6628,7 +6553,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="20"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="B50" s="50" t="s">
         <v>51</v>
       </c>
@@ -6656,7 +6581,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="20"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="B51" s="50" t="s">
         <v>51</v>
       </c>
@@ -6684,7 +6609,7 @@
       <c r="P51" s="39"/>
       <c r="Q51" s="41"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="B52" s="50" t="s">
         <v>51</v>
       </c>
@@ -6712,7 +6637,7 @@
       <c r="P52" s="39"/>
       <c r="Q52" s="41"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="B53" s="11"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -6726,7 +6651,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -6755,7 +6680,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="B55" s="11" t="s">
         <v>166</v>
       </c>
@@ -6781,7 +6706,7 @@
       <c r="L55" s="11"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="B56" s="11" t="s">
         <v>168</v>
       </c>
@@ -6807,7 +6732,7 @@
       <c r="L56" s="11"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="B57" s="11" t="s">
         <v>168</v>
       </c>
@@ -6833,7 +6758,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="B58" s="11" t="s">
         <v>168</v>
       </c>
@@ -6859,7 +6784,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="B59" s="11" t="s">
         <v>168</v>
       </c>
@@ -6885,7 +6810,7 @@
       <c r="L59" s="11"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="B60" s="11" t="s">
         <v>168</v>
       </c>
@@ -6911,7 +6836,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="B61" s="11" t="s">
         <v>168</v>
       </c>
@@ -6937,7 +6862,7 @@
       <c r="L61" s="11"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="B62" s="11"/>
       <c r="C62" s="55"/>
       <c r="D62" s="12"/>
@@ -6951,7 +6876,7 @@
       <c r="L62" s="11"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>176</v>
       </c>
@@ -6976,7 +6901,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>179</v>
       </c>
@@ -7001,7 +6926,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" ht="32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="32">
       <c r="A65" s="2" t="s">
         <v>181</v>
       </c>
@@ -7032,7 +6957,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -7063,7 +6988,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -7094,7 +7019,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -7125,7 +7050,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
         <v>196</v>
       </c>
@@ -7156,7 +7081,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="2" customFormat="1">
       <c r="A70" s="2" t="s">
         <v>198</v>
       </c>
@@ -7189,7 +7114,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="2" customFormat="1">
       <c r="A71" s="2" t="s">
         <v>200</v>
       </c>
@@ -7222,7 +7147,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="2" customFormat="1">
       <c r="A72" s="2" t="s">
         <v>202</v>
       </c>
@@ -7253,7 +7178,7 @@
       <c r="L72" s="11"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
@@ -7267,7 +7192,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="B74" s="11" t="s">
         <v>204</v>
       </c>
@@ -7295,7 +7220,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="B75" s="11"/>
       <c r="C75" s="43" t="s">
         <v>210</v>
@@ -7319,7 +7244,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="B76" s="11"/>
       <c r="C76" s="43"/>
       <c r="D76" s="12"/>
@@ -7333,7 +7258,7 @@
       <c r="L76" s="11"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="B77" s="11" t="s">
         <v>213</v>
       </c>
@@ -7363,7 +7288,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="B78" s="11"/>
       <c r="C78" s="26"/>
       <c r="D78" s="12"/>
@@ -7377,7 +7302,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>216</v>
       </c>
@@ -7404,7 +7329,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="B80" s="11"/>
       <c r="C80" s="26"/>
       <c r="D80" s="12"/>
@@ -7418,7 +7343,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13">
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
         <v>219</v>
@@ -7438,7 +7363,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13">
       <c r="B82" s="11"/>
       <c r="C82" s="26" t="s">
         <v>222</v>
@@ -7458,7 +7383,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13">
       <c r="B83" s="11"/>
       <c r="C83" s="26" t="s">
         <v>224</v>
@@ -7480,7 +7405,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13">
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="12"/>
@@ -7494,7 +7419,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13">
       <c r="B85" s="11"/>
       <c r="C85" s="57"/>
       <c r="D85" s="12"/>
@@ -7508,7 +7433,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13">
       <c r="B86" s="11"/>
       <c r="C86" s="55"/>
       <c r="D86" s="12"/>
@@ -7522,7 +7447,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13">
       <c r="B87" s="11"/>
       <c r="C87" s="55"/>
       <c r="D87" s="12"/>
@@ -7536,7 +7461,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13">
       <c r="B88" s="11"/>
       <c r="C88" s="55"/>
       <c r="D88" s="12"/>
@@ -7550,7 +7475,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13">
       <c r="B89" s="11"/>
       <c r="C89" s="55"/>
       <c r="D89" s="12"/>
@@ -7564,7 +7489,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13">
       <c r="B90" s="11"/>
       <c r="C90" s="55"/>
       <c r="D90" s="12"/>
@@ -7578,7 +7503,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="46"/>
@@ -7592,7 +7517,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="58"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13">
       <c r="B92" s="11"/>
       <c r="C92" s="55"/>
       <c r="D92" s="12"/>
@@ -7606,7 +7531,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13">
       <c r="B93" s="14"/>
       <c r="C93" s="26"/>
       <c r="D93" s="12"/>
@@ -7620,7 +7545,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13">
       <c r="B94" s="11"/>
       <c r="C94" s="26"/>
       <c r="D94" s="12"/>
@@ -7634,7 +7559,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13">
       <c r="B95" s="11"/>
       <c r="C95" s="14"/>
       <c r="D95" s="12"/>
@@ -7648,7 +7573,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13">
       <c r="B96" s="11"/>
       <c r="C96" s="14"/>
       <c r="D96" s="12"/>
@@ -7662,7 +7587,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13">
       <c r="B97" s="14"/>
       <c r="C97" s="26"/>
       <c r="D97" s="12"/>
@@ -7676,7 +7601,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13">
       <c r="B98" s="11"/>
       <c r="C98" s="55"/>
       <c r="D98" s="12"/>
@@ -7690,7 +7615,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13">
       <c r="B99" s="11"/>
       <c r="C99" s="14"/>
       <c r="D99" s="12"/>
@@ -7704,7 +7629,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13">
       <c r="B100" s="11"/>
       <c r="C100" s="26"/>
       <c r="D100" s="12"/>
@@ -7718,7 +7643,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13">
       <c r="B101" s="11"/>
       <c r="C101" s="26"/>
       <c r="D101" s="12"/>
@@ -7732,7 +7657,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="12"/>
@@ -7746,7 +7671,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13">
       <c r="B103" s="11"/>
       <c r="C103" s="14"/>
       <c r="D103" s="12"/>
@@ -7760,7 +7685,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13">
       <c r="B104" s="11"/>
       <c r="C104" s="14"/>
       <c r="D104" s="12"/>
@@ -7774,7 +7699,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13">
       <c r="B105" s="11"/>
       <c r="C105" s="14"/>
       <c r="D105" s="12"/>
@@ -7788,131 +7713,136 @@
       <c r="L105" s="11"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13">
       <c r="C107" s="1"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13">
       <c r="C110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H39 H36:L38 H29:I30 B20:M20 I28:L28 I31:I32 M29:M39 K39:L41 H40:J40 J21:M22 J39 J19:L19 J29:K29 J31:K35 L29:L31 I22 H27:M27 B19:H19 B21:H22 B46:Q52 B41:J41 B23:M25 B27:G40 B42:M45 B53:M138 B13:M18">
-    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E52">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2760" yWindow="260" windowWidth="24340" windowHeight="19100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="2" r:id="rId1"/>
     <sheet name="问题" sheetId="1" r:id="rId2"/>
     <sheet name="项目内容" sheetId="4" r:id="rId3"/>
     <sheet name="参考" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$M$86</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="366">
   <si>
     <t>Demo目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1577,7 +1578,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1599,6 +1600,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,7 +1634,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="164">
+  <cellStyleXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1794,8 +1801,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1977,8 +1986,9 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="164">
+  <cellStyles count="166">
     <cellStyle name="常规 2" xfId="7"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -2062,6 +2072,7 @@
     <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2143,8 +2154,16 @@
     <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2611,6 +2630,6202 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10300"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst/>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{AB7F76D3-ADE7-624F-A732-277004208952}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1" loCatId="" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple4" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful3" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>辅助项</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C3988DB-0CD8-E544-BA41-D5801445A48B}" type="parTrans" cxnId="{D8CE82A8-0991-6641-A6AF-C71DCE557E6E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3985A0EE-B25C-FC4B-866E-D39A093F1126}" type="sibTrans" cxnId="{D8CE82A8-0991-6641-A6AF-C71DCE557E6E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B9D0067B-2CC1-0B4F-BD2D-458F3576FFB7}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>宠物</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C77C7E23-3196-594C-9C4F-A034515E8DB3}" type="parTrans" cxnId="{7178E4F9-B3C0-5C4E-94FB-8B1044B643EE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A73D5ADF-1FB8-9344-96B0-C9286AB1AD6F}" type="sibTrans" cxnId="{7178E4F9-B3C0-5C4E-94FB-8B1044B643EE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B21D3BDB-10B1-3945-8948-21FBC7561210}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>核心战斗</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8D8A0690-1AAC-FB48-9AF5-23C6582B71BF}" type="parTrans" cxnId="{E41DAFAB-E985-944C-8E82-2FF1B886D3B0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CE0BF6C7-A3DF-EC42-BB13-00EA46EF9FE7}" type="sibTrans" cxnId="{E41DAFAB-E985-944C-8E82-2FF1B886D3B0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>主角属性</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{10B1022F-7E49-404C-80FC-E3772F8AAE9A}" type="parTrans" cxnId="{E27269C4-E73A-1045-9474-4BF8283C92EB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{56B26955-1616-E942-B781-6F3E2DC8CF3E}" type="sibTrans" cxnId="{E27269C4-E73A-1045-9474-4BF8283C92EB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{528824D3-FE60-7541-A033-D35D79BE846D}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>具体关卡</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0B45681A-0D67-1A4A-A1C6-CB4D5E66BDC9}" type="parTrans" cxnId="{81EAA991-23D7-C541-B7A1-08B8A62EA03E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{48FEEBEE-D805-BA40-A024-6BB0F2275FAA}" type="sibTrans" cxnId="{81EAA991-23D7-C541-B7A1-08B8A62EA03E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BA9953A4-1412-3044-8A59-10B427D56D83}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>服务器网络调通</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AFB84F6B-8879-6F44-964F-88A8176289B5}" type="parTrans" cxnId="{2414176D-5942-B74D-8FE7-67BB269E6948}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F75B30E8-E586-384F-B872-3957A36492C7}" type="sibTrans" cxnId="{2414176D-5942-B74D-8FE7-67BB269E6948}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8DE9E40D-E1CD-5A42-8A36-A7572249489F}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数据结构和协议定义</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{84DB6F8B-2837-2247-9606-6ADE8899999E}" type="parTrans" cxnId="{1E601C1C-9478-054A-8BFB-933D3FBE536C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AD8F3B67-0889-6847-882E-512EB898FB00}" type="sibTrans" cxnId="{1E601C1C-9478-054A-8BFB-933D3FBE536C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{78001AAE-24CF-9342-9FFF-66065DA823AD}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>导表工具</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4783C76E-DBE1-C542-A735-70D69E206D73}" type="parTrans" cxnId="{48BCD4EB-532D-9D40-B562-A260F03D2BB7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5854FC0A-F4F8-BD49-8163-E3C6C81DD71B}" type="sibTrans" cxnId="{48BCD4EB-532D-9D40-B562-A260F03D2BB7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{640762D7-7BB0-6348-8B7D-B453AAEA8954}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>美术资源需求模板</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{74F2E197-ACB1-084C-AC45-E996DC63B43A}" type="parTrans" cxnId="{AA6FA03F-D65E-964B-BD90-36F2179DA790}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1237B2B7-FDE3-FF4A-A26A-CC1DEE3314D3}" type="sibTrans" cxnId="{AA6FA03F-D65E-964B-BD90-36F2179DA790}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5087D7EA-F4C3-094C-AE07-47CF1452F2DF}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>账号基础数据存储</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{269204D8-304F-9A43-B31B-ABF90E2D9EF6}" type="parTrans" cxnId="{07B58CC3-9535-E747-92EC-4330472AB041}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{26ED1035-4389-CB46-B27D-11A6B93E99D3}" type="sibTrans" cxnId="{07B58CC3-9535-E747-92EC-4330472AB041}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2E03D02D-0BAB-3441-84A2-3E7110CD26C2}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>角色携带宠物</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EEBCAE90-B729-3042-92F0-FE98DF3811E2}" type="parTrans" cxnId="{9D4B6C58-C414-0740-AFAE-6B0E49B73162}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F6545E10-89E6-2C46-9083-1E977E8D5E60}" type="sibTrans" cxnId="{9D4B6C58-C414-0740-AFAE-6B0E49B73162}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{58397750-CA66-2E4F-94BB-4CC4A7CA91CA}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>主角形象</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6566FDBB-A3B7-524D-B45A-1EBF2499AC69}" type="parTrans" cxnId="{E0BF2AD4-4301-A449-8B20-4E645D0093E7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4ED1A7F6-1E4D-9346-AF55-CE14A4CB1323}" type="sibTrans" cxnId="{E0BF2AD4-4301-A449-8B20-4E645D0093E7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DA5A0364-E614-C547-A615-08139A572D00}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B582B6B0-CB97-9441-B465-D1CAFFD62F1A}" type="parTrans" cxnId="{8BE73E41-F750-044E-97E7-120434C8E11E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1DC18C3C-30E1-804D-BB68-C6BAD080EBC6}" type="sibTrans" cxnId="{8BE73E41-F750-044E-97E7-120434C8E11E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FDA2734A-9EFA-A246-873E-D1A1FEA4DC28}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>具体宠物设计</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F289FFA7-8EAC-7B42-8F7B-D0443B9F4F77}" type="parTrans" cxnId="{0AF0D8D3-C6CE-1249-B123-57617242BD80}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C8196AB5-F185-2F44-88CA-713A54F5DE22}" type="sibTrans" cxnId="{0AF0D8D3-C6CE-1249-B123-57617242BD80}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D6E83A1D-EAB7-3A45-8858-4BAC89187F0E}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6372B2EF-5E73-B549-972F-BB9385CAAE8F}" type="parTrans" cxnId="{C9DF24F4-6BD0-3044-9EA1-942E28C53597}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9648B1E8-C4FA-AA42-B648-8958FB3226D1}" type="sibTrans" cxnId="{C9DF24F4-6BD0-3044-9EA1-942E28C53597}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A990B488-FA04-CA4D-AFA3-9629B17A869C}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EFB619CA-B082-5D4C-9801-75B8EE20C1F6}" type="parTrans" cxnId="{332B54E9-547F-B649-B775-E2889C996820}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{873F66F5-2D87-6646-A151-F92FD0C88C72}" type="sibTrans" cxnId="{332B54E9-547F-B649-B775-E2889C996820}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{16FCC7DF-85FA-8245-9885-A4330B6ABA6A}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数值</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6C64ED27-34BB-9A4D-AFD3-48D40C327BCE}" type="parTrans" cxnId="{2D63CE0C-1B48-1343-9269-55C95B614E59}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A4C83F86-CEE6-FF48-9770-2D7E5EB24306}" type="sibTrans" cxnId="{2D63CE0C-1B48-1343-9269-55C95B614E59}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F236B4CA-CA1C-404D-807C-F382173BDD41}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>形象</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{74AF9342-F337-494F-9406-D0A824A9AD5F}" type="parTrans" cxnId="{AF9B7B2F-2641-1842-AABE-80CD4D60886E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{09D86662-D140-FC41-84E6-AF6A35646580}" type="sibTrans" cxnId="{AF9B7B2F-2641-1842-AABE-80CD4D60886E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4C2DFC3D-FCC3-814B-A864-F7057A465861}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>资源加载管理模块</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FF3AE92D-9A5A-EF45-AF00-407234EF0A2A}" type="parTrans" cxnId="{DAEE577A-ECD9-824F-95C7-37504BA8ECDC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F573BD4D-2D5C-B74E-AF90-1518D7B5338F}" type="sibTrans" cxnId="{DAEE577A-ECD9-824F-95C7-37504BA8ECDC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5493426C-1A3F-AB41-BED1-3E97F0A34662}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>伤害公式</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5B207AA4-7EE5-C34E-9A5F-48585B69D7A3}" type="parTrans" cxnId="{9FE95D70-C984-724D-BF9E-1F5CE755D18A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{45E71808-DF4A-1C4B-A189-10A3D8A64BC6}" type="sibTrans" cxnId="{9FE95D70-C984-724D-BF9E-1F5CE755D18A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{52A8EE85-DA54-A346-A389-E4D69E998904}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1B1A1E44-ED2E-3648-9D82-8EA86961E234}" type="parTrans" cxnId="{E82729B9-9F1B-5F40-9403-CE581CC450CB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A261DA66-77C6-6E47-B643-6CB5BBBCFD81}" type="sibTrans" cxnId="{E82729B9-9F1B-5F40-9403-CE581CC450CB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7791A1EE-ED48-6247-A4AA-52D11CC41CBB}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>对局表现（需要等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>xw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>测试，时间未知）</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C6E68A32-9E6D-934E-9C60-FA1D5882DE65}" type="parTrans" cxnId="{040CE427-9BB9-6447-ACD7-240196A474C8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{188FC9F1-648F-ED45-AF36-21CE1681DB5E}" type="sibTrans" cxnId="{040CE427-9BB9-6447-ACD7-240196A474C8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3BE13758-CB69-444F-A6F7-D2BF12222263}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>怪物站位</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DBDEED80-029D-5644-B6F1-C900620C2187}" type="parTrans" cxnId="{AC3F67FB-DBEC-EB4B-A43F-07C13CF5AAC6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{17A1D01D-2637-C440-BDBB-9127BFB55A03}" type="sibTrans" cxnId="{AC3F67FB-DBEC-EB4B-A43F-07C13CF5AAC6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DDB378AF-638E-2243-BB61-65ABB08DFED0}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>镜头</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AFE681B5-0DD3-724B-B8CA-33B4F1724263}" type="parTrans" cxnId="{131D2C29-E864-514C-B7C3-51CBF573F70E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{695DB0E1-5819-8143-B04C-146E10D20538}" type="sibTrans" cxnId="{131D2C29-E864-514C-B7C3-51CBF573F70E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{07EC381B-BA2E-E945-9213-5D896DE0EFD2}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>基础</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{42EE3337-4183-DD4E-9047-D4F04AEABF36}" type="parTrans" cxnId="{5A2B9CA6-7444-2045-8972-C2CA75AAB747}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CF777146-7CAB-5C40-A61E-387005247F5C}" type="sibTrans" cxnId="{5A2B9CA6-7444-2045-8972-C2CA75AAB747}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{23EA1912-A0F9-854D-ACC4-8FE7704A2063}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>换宠</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{47334375-F8A5-4343-8937-F207DE2DE32F}" type="parTrans" cxnId="{1C55601B-5EF0-624A-88E9-988E951A6CF1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C60CB660-A5BE-0949-A9E1-6B2C16C6EB2A}" type="sibTrans" cxnId="{1C55601B-5EF0-624A-88E9-988E951A6CF1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C5977B4D-FDD2-6B41-B180-BD3E71030A8F}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>照妖镜</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E7A1FC6-C814-7B44-B415-42F0DDE47D56}" type="parTrans" cxnId="{BDCC242A-FDC8-ED45-808C-59C3D28E0A65}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{402EC8B4-E141-DA48-85ED-37DAE4AF1556}" type="sibTrans" cxnId="{BDCC242A-FDC8-ED45-808C-59C3D28E0A65}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A38FAAC9-0B92-3C44-B212-0DD319017402}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗流程</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{72F22C5B-DC4D-1E48-90EE-A78E270C2FA1}" type="parTrans" cxnId="{3C2DD258-73CF-8B40-83AA-5897D75D9F65}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{543C905C-442B-284B-838E-20FD0677079E}" type="sibTrans" cxnId="{3C2DD258-73CF-8B40-83AA-5897D75D9F65}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A808A73A-60C8-C448-9315-AE72656673EA}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>进程</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D42DDB03-1F89-3048-95F0-CD66B915A05D}" type="parTrans" cxnId="{E8F42FB7-C941-8746-80EA-3A050704E4F7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{79E5C604-684A-3047-A7F4-ABB94448E125}" type="sibTrans" cxnId="{E8F42FB7-C941-8746-80EA-3A050704E4F7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1F699243-EBC4-FD4C-82EA-6263122A44FB}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4A38F0B1-C958-4648-A6DC-5313E01B0338}" type="parTrans" cxnId="{D6E81C12-4FF1-9543-84E1-B2D5A1E5C3F6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A8CBD85E-2F17-A14D-B68E-F4FF3859C2C8}" type="sibTrans" cxnId="{D6E81C12-4FF1-9543-84E1-B2D5A1E5C3F6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C406E83-EF9A-5C4A-B118-D3D5B46DC6FE}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{89EC16D8-52CB-DC4A-A9CB-CC14D402DE1A}" type="parTrans" cxnId="{F66ADA7D-C6E8-4742-8A41-05D9921167D3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E4A18796-74E7-3C41-8679-2CDBECDCB599}" type="sibTrans" cxnId="{F66ADA7D-C6E8-4742-8A41-05D9921167D3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0AE11C6A-8C94-C642-B9CB-95D2154CF58D}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>玩法设计</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{90BDD1AA-F697-CB41-B4C8-689764BB39DC}" type="parTrans" cxnId="{6D08C644-A5D4-2849-9E90-A1443A90AF07}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{744AF2F5-4F59-6643-8629-B8AEC25DBA5F}" type="sibTrans" cxnId="{6D08C644-A5D4-2849-9E90-A1443A90AF07}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C1867944-596F-0049-835E-017E7D5B83E8}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>怪物</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F8CFA4E8-75B3-4A4F-8ABB-A17DA70025F2}" type="parTrans" cxnId="{FF06B0CA-083A-4342-90BE-79814BC229F6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AAAB68AF-EAFB-944D-8141-8230523F5B21}" type="sibTrans" cxnId="{FF06B0CA-083A-4342-90BE-79814BC229F6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{55355EA8-985B-924C-B426-CCDA86C23201}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{220A399A-D044-064D-8456-7552EDE6D562}" type="parTrans" cxnId="{D32B097F-94E1-0E47-B0D7-D48C34C27B55}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C387FFCB-5479-B246-8F95-0538F100C5CB}" type="sibTrans" cxnId="{D32B097F-94E1-0E47-B0D7-D48C34C27B55}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FC8D8E4E-BA41-574B-81DE-405F42112544}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{068F015A-F2CF-C640-9C7D-0909047EDC8D}" type="parTrans" cxnId="{0ABA318F-FCD6-624B-B431-CE2037A7662F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D13CDBF3-9113-C042-95DA-60D16253D33F}" type="sibTrans" cxnId="{0ABA318F-FCD6-624B-B431-CE2037A7662F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{18DC6004-DA42-A54A-BD1D-603FFD188012}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数值</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4D854F7-0141-C64A-9744-1EF274B85384}" type="parTrans" cxnId="{E9E11635-4EF8-984C-8E2A-6149367C5AE2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{37AED411-1264-A943-8310-BB38D15B1DED}" type="sibTrans" cxnId="{E9E11635-4EF8-984C-8E2A-6149367C5AE2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CBE7B06E-0607-384B-B54F-725F2ACB0244}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>形象</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AD4A63EB-8786-9C4C-8A67-C30567CBFE9D}" type="parTrans" cxnId="{82A9C4FF-9AB4-8B40-8BC0-AED4D624F53D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D9D839FA-2713-FB4C-B904-EB3BD399C24E}" type="sibTrans" cxnId="{82A9C4FF-9AB4-8B40-8BC0-AED4D624F53D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{53669BFA-F7AB-9048-B7E4-69878596F41C}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>对局</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7DDEB695-DC92-9F46-A4CB-EE5079FA09FB}" type="parTrans" cxnId="{0034CEBC-701C-4A4C-BEF1-6249A86D582F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{525A87B6-9B7B-4543-BF45-1692F628C60B}" type="sibTrans" cxnId="{0034CEBC-701C-4A4C-BEF1-6249A86D582F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{00D4AA77-6EAF-3047-AC4D-E796CC65540C}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗场景</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2DE6A123-6794-CA40-8AED-F10A0E5E656C}" type="parTrans" cxnId="{1A973BDB-124B-B84C-89C9-6E91AE218B32}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9987B170-2DD1-4A43-AE93-FEE1182EECAF}" type="sibTrans" cxnId="{1A973BDB-124B-B84C-89C9-6E91AE218B32}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E9623A8D-7BD5-3E4A-9AF1-D9F5CBDAA65B}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>进程刷怪</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{35CF04AD-AAB1-FF47-8444-26D479BE444E}" type="parTrans" cxnId="{EF098D28-979A-2244-838D-DC0F3CD41899}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3C21B100-761E-A945-A2EE-459BF81744E0}" type="sibTrans" cxnId="{EF098D28-979A-2244-838D-DC0F3CD41899}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8BDD0C6F-5343-D245-9902-EB1000CA0B91}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>结束条件</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3CAF2C13-CE27-2747-A5E4-A8BDF5E33F7C}" type="parTrans" cxnId="{7596DAAF-8099-704C-AA95-0F3E595524F0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{84FC6F82-872F-B346-9C9F-60C510EC0CE9}" type="sibTrans" cxnId="{7596DAAF-8099-704C-AA95-0F3E595524F0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5441DA10-6BEF-3448-809B-BB37572D56F7}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>副本</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0A5F5602-1604-214A-A59D-BA313177FBF9}" type="parTrans" cxnId="{50D471ED-CF59-9A4C-A64A-E71633F1AA6B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{44BEE911-5BCB-4048-93B4-7ABB096B8154}" type="sibTrans" cxnId="{50D471ED-CF59-9A4C-A64A-E71633F1AA6B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F485A01A-8CFA-D44D-A339-B53BEE676F7B}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>美术资源</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{93B21FAA-C0A5-3742-A377-42E1E6AC6007}" type="parTrans" cxnId="{F1C21685-27AE-8943-A957-87BF25E8FF24}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B537E0D9-F1E2-D348-BA5E-75DF3C328065}" type="sibTrans" cxnId="{F1C21685-27AE-8943-A957-87BF25E8FF24}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F2F16BC6-78D3-5A44-9EDD-E0890410D0F3}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>3D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>角色</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F95F29C4-93CA-344D-A6AA-6FFE9E1DB712}" type="parTrans" cxnId="{69A4D80F-A953-0142-ACC1-FED132B7113C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C606A808-A39E-C846-AD2C-B02C2AAE0837}" type="sibTrans" cxnId="{69A4D80F-A953-0142-ACC1-FED132B7113C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3730F666-8988-1A42-B57E-903343D7B56C}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>3D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>场景</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C9F97C1-5A96-5742-BDFA-55D233F57AD7}" type="parTrans" cxnId="{7C427426-F6C6-DB41-92E5-37D091788D63}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CA460DDD-21A5-D24F-9263-0F005C678BCD}" type="sibTrans" cxnId="{7C427426-F6C6-DB41-92E5-37D091788D63}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{23268D88-E470-7A40-95B4-637EFD050593}">
+      <dgm:prSet phldrT="[文本]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>动作，特效</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{125ED2DB-AFAD-DC41-AB31-7CCA9CAE9E97}" type="parTrans" cxnId="{1B8FB3CB-EA90-6343-A3D1-33278B534A86}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{12797012-AE60-BC42-B249-08860EC85E75}" type="sibTrans" cxnId="{1B8FB3CB-EA90-6343-A3D1-33278B534A86}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{23727E75-74B1-5440-9973-89F7797E2CED}" type="pres">
+      <dgm:prSet presAssocID="{AB7F76D3-ADE7-624F-A732-277004208952}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{95D614A0-A82A-8749-B93F-560EB420C129}" type="pres">
+      <dgm:prSet presAssocID="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F3987FD7-0363-8349-8E23-CADABABBCC9F}" type="pres">
+      <dgm:prSet presAssocID="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" presName="parTx" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}" type="pres">
+      <dgm:prSet presAssocID="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" presName="desTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B6EF8F1C-1F88-E041-8862-E4EDEA737E9A}" type="pres">
+      <dgm:prSet presAssocID="{3985A0EE-B25C-FC4B-866E-D39A093F1126}" presName="space" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9AE75C1D-27F4-4A49-981C-DAE286DCBFED}" type="pres">
+      <dgm:prSet presAssocID="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7C1B4582-0BDC-2843-AB16-5B8D68C36170}" type="pres">
+      <dgm:prSet presAssocID="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}" presName="parTx" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}" type="pres">
+      <dgm:prSet presAssocID="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}" presName="desTx" presStyleLbl="revTx" presStyleIdx="1" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{477E11EB-5ACF-7947-B1E8-94B706F7B7DC}" type="pres">
+      <dgm:prSet presAssocID="{56B26955-1616-E942-B781-6F3E2DC8CF3E}" presName="space" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8509B802-0041-3345-BA52-F5A734A2E2F9}" type="pres">
+      <dgm:prSet presAssocID="{B9D0067B-2CC1-0B4F-BD2D-458F3576FFB7}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ACE6A4F1-B196-7849-9682-3583839A5888}" type="pres">
+      <dgm:prSet presAssocID="{B9D0067B-2CC1-0B4F-BD2D-458F3576FFB7}" presName="parTx" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F190ED85-3748-ED49-BAF9-06793D9C2452}" type="pres">
+      <dgm:prSet presAssocID="{B9D0067B-2CC1-0B4F-BD2D-458F3576FFB7}" presName="desTx" presStyleLbl="revTx" presStyleIdx="2" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F9AF65B6-B3F8-8349-8D87-755E6506B537}" type="pres">
+      <dgm:prSet presAssocID="{A73D5ADF-1FB8-9344-96B0-C9286AB1AD6F}" presName="space" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FB120AC4-EAF7-C346-A6F8-0446422471BB}" type="pres">
+      <dgm:prSet presAssocID="{B21D3BDB-10B1-3945-8948-21FBC7561210}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{499707EF-AEF3-D049-929E-A6C1AD4B2E97}" type="pres">
+      <dgm:prSet presAssocID="{B21D3BDB-10B1-3945-8948-21FBC7561210}" presName="parTx" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" type="pres">
+      <dgm:prSet presAssocID="{B21D3BDB-10B1-3945-8948-21FBC7561210}" presName="desTx" presStyleLbl="revTx" presStyleIdx="3" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1D149015-D1A3-AA4E-934F-0248D800C259}" type="pres">
+      <dgm:prSet presAssocID="{CE0BF6C7-A3DF-EC42-BB13-00EA46EF9FE7}" presName="space" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6A7F04B1-C564-2847-8C66-397E29BA96D9}" type="pres">
+      <dgm:prSet presAssocID="{528824D3-FE60-7541-A033-D35D79BE846D}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{977D602D-F673-7E49-B164-FAB3DC03A678}" type="pres">
+      <dgm:prSet presAssocID="{528824D3-FE60-7541-A033-D35D79BE846D}" presName="parTx" presStyleLbl="node1" presStyleIdx="4" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" type="pres">
+      <dgm:prSet presAssocID="{528824D3-FE60-7541-A033-D35D79BE846D}" presName="desTx" presStyleLbl="revTx" presStyleIdx="4" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{1C55601B-5EF0-624A-88E9-988E951A6CF1}" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{23EA1912-A0F9-854D-ACC4-8FE7704A2063}" srcOrd="5" destOrd="0" parTransId="{47334375-F8A5-4343-8937-F207DE2DE32F}" sibTransId="{C60CB660-A5BE-0949-A9E1-6B2C16C6EB2A}"/>
+    <dgm:cxn modelId="{82A9C4FF-9AB4-8B40-8BC0-AED4D624F53D}" srcId="{C1867944-596F-0049-835E-017E7D5B83E8}" destId="{CBE7B06E-0607-384B-B54F-725F2ACB0244}" srcOrd="3" destOrd="0" parTransId="{AD4A63EB-8786-9C4C-8A67-C30567CBFE9D}" sibTransId="{D9D839FA-2713-FB4C-B904-EB3BD399C24E}"/>
+    <dgm:cxn modelId="{92F6BB66-CCB6-4D40-B5B1-F24221471C30}" type="presOf" srcId="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" destId="{F3987FD7-0363-8349-8E23-CADABABBCC9F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{9D4B6C58-C414-0740-AFAE-6B0E49B73162}" srcId="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}" destId="{2E03D02D-0BAB-3441-84A2-3E7110CD26C2}" srcOrd="1" destOrd="0" parTransId="{EEBCAE90-B729-3042-92F0-FE98DF3811E2}" sibTransId="{F6545E10-89E6-2C46-9083-1E977E8D5E60}"/>
+    <dgm:cxn modelId="{44E1FAF6-3B36-8646-9028-DEB51B848257}" type="presOf" srcId="{23EA1912-A0F9-854D-ACC4-8FE7704A2063}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="7" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E55CE6D6-DF0C-204E-BA80-B8B51F17B430}" type="presOf" srcId="{7791A1EE-ED48-6247-A4AA-52D11CC41CBB}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{2414176D-5942-B74D-8FE7-67BB269E6948}" srcId="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" destId="{BA9953A4-1412-3044-8A59-10B427D56D83}" srcOrd="0" destOrd="0" parTransId="{AFB84F6B-8879-6F44-964F-88A8176289B5}" sibTransId="{F75B30E8-E586-384F-B872-3957A36492C7}"/>
+    <dgm:cxn modelId="{7E8AB935-1492-4A4D-AC80-331617190129}" type="presOf" srcId="{7C406E83-EF9A-5C4A-B118-D3D5B46DC6FE}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="12" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{239C6D4F-16AD-1840-B2FD-2369C7F50E4E}" type="presOf" srcId="{3BE13758-CB69-444F-A6F7-D2BF12222263}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{6DD548EF-CA95-4248-B206-F1D6A5474A17}" type="presOf" srcId="{A38FAAC9-0B92-3C44-B212-0DD319017402}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="9" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{EB5D57EA-F440-ED4C-AC6B-B582F215745F}" type="presOf" srcId="{F2F16BC6-78D3-5A44-9EDD-E0890410D0F3}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="12" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{343B2D6C-4C96-3040-8D70-EB88189571AF}" type="presOf" srcId="{BA9953A4-1412-3044-8A59-10B427D56D83}" destId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{D32B097F-94E1-0E47-B0D7-D48C34C27B55}" srcId="{C1867944-596F-0049-835E-017E7D5B83E8}" destId="{55355EA8-985B-924C-B426-CCDA86C23201}" srcOrd="0" destOrd="0" parTransId="{220A399A-D044-064D-8456-7552EDE6D562}" sibTransId="{C387FFCB-5479-B246-8F95-0538F100C5CB}"/>
+    <dgm:cxn modelId="{A4AEE83D-4565-6841-A705-33D85E88551E}" type="presOf" srcId="{1F699243-EBC4-FD4C-82EA-6263122A44FB}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="11" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{EA582285-50D1-324D-BC3C-A26BAB8788C5}" type="presOf" srcId="{00D4AA77-6EAF-3047-AC4D-E796CC65540C}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="7" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E27269C4-E73A-1045-9474-4BF8283C92EB}" srcId="{AB7F76D3-ADE7-624F-A732-277004208952}" destId="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}" srcOrd="1" destOrd="0" parTransId="{10B1022F-7E49-404C-80FC-E3772F8AAE9A}" sibTransId="{56B26955-1616-E942-B781-6F3E2DC8CF3E}"/>
+    <dgm:cxn modelId="{C9DF24F4-6BD0-3044-9EA1-942E28C53597}" srcId="{FDA2734A-9EFA-A246-873E-D1A1FEA4DC28}" destId="{D6E83A1D-EAB7-3A45-8858-4BAC89187F0E}" srcOrd="0" destOrd="0" parTransId="{6372B2EF-5E73-B549-972F-BB9385CAAE8F}" sibTransId="{9648B1E8-C4FA-AA42-B648-8958FB3226D1}"/>
+    <dgm:cxn modelId="{0034CEBC-701C-4A4C-BEF1-6249A86D582F}" srcId="{528824D3-FE60-7541-A033-D35D79BE846D}" destId="{53669BFA-F7AB-9048-B7E4-69878596F41C}" srcOrd="2" destOrd="0" parTransId="{7DDEB695-DC92-9F46-A4CB-EE5079FA09FB}" sibTransId="{525A87B6-9B7B-4543-BF45-1692F628C60B}"/>
+    <dgm:cxn modelId="{50D471ED-CF59-9A4C-A64A-E71633F1AA6B}" srcId="{528824D3-FE60-7541-A033-D35D79BE846D}" destId="{5441DA10-6BEF-3448-809B-BB37572D56F7}" srcOrd="3" destOrd="0" parTransId="{0A5F5602-1604-214A-A59D-BA313177FBF9}" sibTransId="{44BEE911-5BCB-4048-93B4-7ABB096B8154}"/>
+    <dgm:cxn modelId="{2D63CE0C-1B48-1343-9269-55C95B614E59}" srcId="{FDA2734A-9EFA-A246-873E-D1A1FEA4DC28}" destId="{16FCC7DF-85FA-8245-9885-A4330B6ABA6A}" srcOrd="2" destOrd="0" parTransId="{6C64ED27-34BB-9A4D-AFD3-48D40C327BCE}" sibTransId="{A4C83F86-CEE6-FF48-9770-2D7E5EB24306}"/>
+    <dgm:cxn modelId="{F51EA536-7550-364F-9890-F198D1660553}" type="presOf" srcId="{3730F666-8988-1A42-B57E-903343D7B56C}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="13" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{52D0AF71-982A-D446-83B0-A220967528CB}" type="presOf" srcId="{16FCC7DF-85FA-8245-9885-A4330B6ABA6A}" destId="{F190ED85-3748-ED49-BAF9-06793D9C2452}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{C38BC100-7B08-7348-BBF9-FD0737699B90}" type="presOf" srcId="{4C2DFC3D-FCC3-814B-A864-F7057A465861}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{7C427426-F6C6-DB41-92E5-37D091788D63}" srcId="{F485A01A-8CFA-D44D-A339-B53BEE676F7B}" destId="{3730F666-8988-1A42-B57E-903343D7B56C}" srcOrd="1" destOrd="0" parTransId="{7C9F97C1-5A96-5742-BDFA-55D233F57AD7}" sibTransId="{CA460DDD-21A5-D24F-9263-0F005C678BCD}"/>
+    <dgm:cxn modelId="{96C58260-91DA-DF43-B49A-5B7A65D0EF4E}" type="presOf" srcId="{07EC381B-BA2E-E945-9213-5D896DE0EFD2}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="6" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{1B8FB3CB-EA90-6343-A3D1-33278B534A86}" srcId="{F485A01A-8CFA-D44D-A339-B53BEE676F7B}" destId="{23268D88-E470-7A40-95B4-637EFD050593}" srcOrd="2" destOrd="0" parTransId="{125ED2DB-AFAD-DC41-AB31-7CCA9CAE9E97}" sibTransId="{12797012-AE60-BC42-B249-08860EC85E75}"/>
+    <dgm:cxn modelId="{AF9B7B2F-2641-1842-AABE-80CD4D60886E}" srcId="{FDA2734A-9EFA-A246-873E-D1A1FEA4DC28}" destId="{F236B4CA-CA1C-404D-807C-F382173BDD41}" srcOrd="3" destOrd="0" parTransId="{74AF9342-F337-494F-9406-D0A824A9AD5F}" sibTransId="{09D86662-D140-FC41-84E6-AF6A35646580}"/>
+    <dgm:cxn modelId="{D6E81C12-4FF1-9543-84E1-B2D5A1E5C3F6}" srcId="{A38FAAC9-0B92-3C44-B212-0DD319017402}" destId="{1F699243-EBC4-FD4C-82EA-6263122A44FB}" srcOrd="1" destOrd="0" parTransId="{4A38F0B1-C958-4648-A6DC-5313E01B0338}" sibTransId="{A8CBD85E-2F17-A14D-B68E-F4FF3859C2C8}"/>
+    <dgm:cxn modelId="{9ECB9E97-C1F3-044A-9A87-127C05C306E2}" type="presOf" srcId="{FDA2734A-9EFA-A246-873E-D1A1FEA4DC28}" destId="{F190ED85-3748-ED49-BAF9-06793D9C2452}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E41DAFAB-E985-944C-8E82-2FF1B886D3B0}" srcId="{AB7F76D3-ADE7-624F-A732-277004208952}" destId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" srcOrd="3" destOrd="0" parTransId="{8D8A0690-1AAC-FB48-9AF5-23C6582B71BF}" sibTransId="{CE0BF6C7-A3DF-EC42-BB13-00EA46EF9FE7}"/>
+    <dgm:cxn modelId="{5A2B9CA6-7444-2045-8972-C2CA75AAB747}" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{07EC381B-BA2E-E945-9213-5D896DE0EFD2}" srcOrd="4" destOrd="0" parTransId="{42EE3337-4183-DD4E-9047-D4F04AEABF36}" sibTransId="{CF777146-7CAB-5C40-A61E-387005247F5C}"/>
+    <dgm:cxn modelId="{AC3F67FB-DBEC-EB4B-A43F-07C13CF5AAC6}" srcId="{7791A1EE-ED48-6247-A4AA-52D11CC41CBB}" destId="{3BE13758-CB69-444F-A6F7-D2BF12222263}" srcOrd="0" destOrd="0" parTransId="{DBDEED80-029D-5644-B6F1-C900620C2187}" sibTransId="{17A1D01D-2637-C440-BDBB-9127BFB55A03}"/>
+    <dgm:cxn modelId="{C08833A0-2A91-EA42-8A15-BCEC90EA8B84}" type="presOf" srcId="{0AE11C6A-8C94-C642-B9CB-95D2154CF58D}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{FE480DA9-F4FC-204E-A2D6-41ED59D78C8B}" type="presOf" srcId="{F236B4CA-CA1C-404D-807C-F382173BDD41}" destId="{F190ED85-3748-ED49-BAF9-06793D9C2452}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{0ABA318F-FCD6-624B-B431-CE2037A7662F}" srcId="{C1867944-596F-0049-835E-017E7D5B83E8}" destId="{FC8D8E4E-BA41-574B-81DE-405F42112544}" srcOrd="1" destOrd="0" parTransId="{068F015A-F2CF-C640-9C7D-0909047EDC8D}" sibTransId="{D13CDBF3-9113-C042-95DA-60D16253D33F}"/>
+    <dgm:cxn modelId="{04D247FD-E9D7-284A-AF03-05FC7EE14624}" type="presOf" srcId="{8DE9E40D-E1CD-5A42-8A36-A7572249489F}" destId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{FF06B0CA-083A-4342-90BE-79814BC229F6}" srcId="{528824D3-FE60-7541-A033-D35D79BE846D}" destId="{C1867944-596F-0049-835E-017E7D5B83E8}" srcOrd="1" destOrd="0" parTransId="{F8CFA4E8-75B3-4A4F-8ABB-A17DA70025F2}" sibTransId="{AAAB68AF-EAFB-944D-8141-8230523F5B21}"/>
+    <dgm:cxn modelId="{332B54E9-547F-B649-B775-E2889C996820}" srcId="{FDA2734A-9EFA-A246-873E-D1A1FEA4DC28}" destId="{A990B488-FA04-CA4D-AFA3-9629B17A869C}" srcOrd="1" destOrd="0" parTransId="{EFB619CA-B082-5D4C-9801-75B8EE20C1F6}" sibTransId="{873F66F5-2D87-6646-A151-F92FD0C88C72}"/>
+    <dgm:cxn modelId="{7596DAAF-8099-704C-AA95-0F3E595524F0}" srcId="{53669BFA-F7AB-9048-B7E4-69878596F41C}" destId="{8BDD0C6F-5343-D245-9902-EB1000CA0B91}" srcOrd="2" destOrd="0" parTransId="{3CAF2C13-CE27-2747-A5E4-A8BDF5E33F7C}" sibTransId="{84FC6F82-872F-B346-9C9F-60C510EC0CE9}"/>
+    <dgm:cxn modelId="{466FF8B6-4400-8A43-A30F-C3EA8F69F3FB}" type="presOf" srcId="{78001AAE-24CF-9342-9FFF-66065DA823AD}" destId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{5B0B415A-4A0C-D54E-989A-248C0AD81489}" type="presOf" srcId="{FC8D8E4E-BA41-574B-81DE-405F42112544}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{69A4D80F-A953-0142-ACC1-FED132B7113C}" srcId="{F485A01A-8CFA-D44D-A339-B53BEE676F7B}" destId="{F2F16BC6-78D3-5A44-9EDD-E0890410D0F3}" srcOrd="0" destOrd="0" parTransId="{F95F29C4-93CA-344D-A6AA-6FFE9E1DB712}" sibTransId="{C606A808-A39E-C846-AD2C-B02C2AAE0837}"/>
+    <dgm:cxn modelId="{8A653797-EC52-804A-B6B0-8A68618DB662}" type="presOf" srcId="{5441DA10-6BEF-3448-809B-BB37572D56F7}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="10" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{2CD8A56C-2776-4D4A-BFDF-1A6E449F354E}" type="presOf" srcId="{23268D88-E470-7A40-95B4-637EFD050593}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="14" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{040CE427-9BB9-6447-ACD7-240196A474C8}" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{7791A1EE-ED48-6247-A4AA-52D11CC41CBB}" srcOrd="3" destOrd="0" parTransId="{C6E68A32-9E6D-934E-9C60-FA1D5882DE65}" sibTransId="{188FC9F1-648F-ED45-AF36-21CE1681DB5E}"/>
+    <dgm:cxn modelId="{2E753CC3-FC56-2F45-A3EA-6F5B30C55891}" type="presOf" srcId="{5087D7EA-F4C3-094C-AE07-47CF1452F2DF}" destId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{9200E071-F3F8-E245-A548-3D11692F35B0}" type="presOf" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{499707EF-AEF3-D049-929E-A6C1AD4B2E97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{AA6FA03F-D65E-964B-BD90-36F2179DA790}" srcId="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" destId="{640762D7-7BB0-6348-8B7D-B453AAEA8954}" srcOrd="3" destOrd="0" parTransId="{74F2E197-ACB1-084C-AC45-E996DC63B43A}" sibTransId="{1237B2B7-FDE3-FF4A-A26A-CC1DEE3314D3}"/>
+    <dgm:cxn modelId="{1E8978F2-E86E-1F49-9977-1F84F5E47D39}" type="presOf" srcId="{D6E83A1D-EAB7-3A45-8858-4BAC89187F0E}" destId="{F190ED85-3748-ED49-BAF9-06793D9C2452}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{3385ACC3-5AF0-4348-A2E5-97E5AE16BCED}" type="presOf" srcId="{C1867944-596F-0049-835E-017E7D5B83E8}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{48BCD4EB-532D-9D40-B562-A260F03D2BB7}" srcId="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" destId="{78001AAE-24CF-9342-9FFF-66065DA823AD}" srcOrd="2" destOrd="0" parTransId="{4783C76E-DBE1-C542-A735-70D69E206D73}" sibTransId="{5854FC0A-F4F8-BD49-8163-E3C6C81DD71B}"/>
+    <dgm:cxn modelId="{9FE95D70-C984-724D-BF9E-1F5CE755D18A}" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{5493426C-1A3F-AB41-BED1-3E97F0A34662}" srcOrd="1" destOrd="0" parTransId="{5B207AA4-7EE5-C34E-9A5F-48585B69D7A3}" sibTransId="{45E71808-DF4A-1C4B-A189-10A3D8A64BC6}"/>
+    <dgm:cxn modelId="{1A973BDB-124B-B84C-89C9-6E91AE218B32}" srcId="{53669BFA-F7AB-9048-B7E4-69878596F41C}" destId="{00D4AA77-6EAF-3047-AC4D-E796CC65540C}" srcOrd="0" destOrd="0" parTransId="{2DE6A123-6794-CA40-8AED-F10A0E5E656C}" sibTransId="{9987B170-2DD1-4A43-AE93-FEE1182EECAF}"/>
+    <dgm:cxn modelId="{DAEE577A-ECD9-824F-95C7-37504BA8ECDC}" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{4C2DFC3D-FCC3-814B-A864-F7057A465861}" srcOrd="0" destOrd="0" parTransId="{FF3AE92D-9A5A-EF45-AF00-407234EF0A2A}" sibTransId="{F573BD4D-2D5C-B74E-AF90-1518D7B5338F}"/>
+    <dgm:cxn modelId="{778AC36C-1F05-A549-9793-2358B0B3D51B}" type="presOf" srcId="{8BDD0C6F-5343-D245-9902-EB1000CA0B91}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="9" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{D8CE82A8-0991-6641-A6AF-C71DCE557E6E}" srcId="{AB7F76D3-ADE7-624F-A732-277004208952}" destId="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" srcOrd="0" destOrd="0" parTransId="{7C3988DB-0CD8-E544-BA41-D5801445A48B}" sibTransId="{3985A0EE-B25C-FC4B-866E-D39A093F1126}"/>
+    <dgm:cxn modelId="{91CE90AA-8802-9248-AA91-BF896BE69F02}" type="presOf" srcId="{528824D3-FE60-7541-A033-D35D79BE846D}" destId="{977D602D-F673-7E49-B164-FAB3DC03A678}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{1E601C1C-9478-054A-8BFB-933D3FBE536C}" srcId="{6F7AD4BB-71C7-374B-B65B-EACC8DD49E85}" destId="{8DE9E40D-E1CD-5A42-8A36-A7572249489F}" srcOrd="1" destOrd="0" parTransId="{84DB6F8B-2837-2247-9606-6ADE8899999E}" sibTransId="{AD8F3B67-0889-6847-882E-512EB898FB00}"/>
+    <dgm:cxn modelId="{3C2DD258-73CF-8B40-83AA-5897D75D9F65}" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{A38FAAC9-0B92-3C44-B212-0DD319017402}" srcOrd="7" destOrd="0" parTransId="{72F22C5B-DC4D-1E48-90EE-A78E270C2FA1}" sibTransId="{543C905C-442B-284B-838E-20FD0677079E}"/>
+    <dgm:cxn modelId="{164B97A0-0064-6243-9FA9-1955FACC2718}" type="presOf" srcId="{A990B488-FA04-CA4D-AFA3-9629B17A869C}" destId="{F190ED85-3748-ED49-BAF9-06793D9C2452}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E0BF2AD4-4301-A449-8B20-4E645D0093E7}" srcId="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}" destId="{58397750-CA66-2E4F-94BB-4CC4A7CA91CA}" srcOrd="2" destOrd="0" parTransId="{6566FDBB-A3B7-524D-B45A-1EBF2499AC69}" sibTransId="{4ED1A7F6-1E4D-9346-AF55-CE14A4CB1323}"/>
+    <dgm:cxn modelId="{E9E11635-4EF8-984C-8E2A-6149367C5AE2}" srcId="{C1867944-596F-0049-835E-017E7D5B83E8}" destId="{18DC6004-DA42-A54A-BD1D-603FFD188012}" srcOrd="2" destOrd="0" parTransId="{D4D854F7-0141-C64A-9744-1EF274B85384}" sibTransId="{37AED411-1264-A943-8310-BB38D15B1DED}"/>
+    <dgm:cxn modelId="{9FBDD880-AF89-314E-9DD7-0545F8143096}" type="presOf" srcId="{55355EA8-985B-924C-B426-CCDA86C23201}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{131D2C29-E864-514C-B7C3-51CBF573F70E}" srcId="{7791A1EE-ED48-6247-A4AA-52D11CC41CBB}" destId="{DDB378AF-638E-2243-BB61-65ABB08DFED0}" srcOrd="1" destOrd="0" parTransId="{AFE681B5-0DD3-724B-B8CA-33B4F1724263}" sibTransId="{695DB0E1-5819-8143-B04C-146E10D20538}"/>
+    <dgm:cxn modelId="{0AF0D8D3-C6CE-1249-B123-57617242BD80}" srcId="{B9D0067B-2CC1-0B4F-BD2D-458F3576FFB7}" destId="{FDA2734A-9EFA-A246-873E-D1A1FEA4DC28}" srcOrd="1" destOrd="0" parTransId="{F289FFA7-8EAC-7B42-8F7B-D0443B9F4F77}" sibTransId="{C8196AB5-F185-2F44-88CA-713A54F5DE22}"/>
+    <dgm:cxn modelId="{F47C2597-B8FF-DC4F-852F-DA6B1FD31E70}" type="presOf" srcId="{C5977B4D-FDD2-6B41-B180-BD3E71030A8F}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="8" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{F52A9ACB-7EE5-284A-B561-DE5D11A6C845}" type="presOf" srcId="{52A8EE85-DA54-A346-A389-E4D69E998904}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{C98CFCA6-7889-E14C-8A7D-BB5BC055BBFB}" type="presOf" srcId="{58397750-CA66-2E4F-94BB-4CC4A7CA91CA}" destId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{2E1FA726-05E5-EA45-8937-8EF879278801}" type="presOf" srcId="{B9D0067B-2CC1-0B4F-BD2D-458F3576FFB7}" destId="{ACE6A4F1-B196-7849-9682-3583839A5888}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E8F42FB7-C941-8746-80EA-3A050704E4F7}" srcId="{A38FAAC9-0B92-3C44-B212-0DD319017402}" destId="{A808A73A-60C8-C448-9315-AE72656673EA}" srcOrd="0" destOrd="0" parTransId="{D42DDB03-1F89-3048-95F0-CD66B915A05D}" sibTransId="{79E5C604-684A-3047-A7F4-ABB94448E125}"/>
+    <dgm:cxn modelId="{07B58CC3-9535-E747-92EC-4330472AB041}" srcId="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}" destId="{5087D7EA-F4C3-094C-AE07-47CF1452F2DF}" srcOrd="0" destOrd="0" parTransId="{269204D8-304F-9A43-B31B-ABF90E2D9EF6}" sibTransId="{26ED1035-4389-CB46-B27D-11A6B93E99D3}"/>
+    <dgm:cxn modelId="{B5B9BEE3-4D1C-244C-9192-8CD26AAE0DF5}" type="presOf" srcId="{CBE7B06E-0607-384B-B54F-725F2ACB0244}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{27631AB2-EF52-E542-80EE-51A53059C957}" type="presOf" srcId="{F485A01A-8CFA-D44D-A339-B53BEE676F7B}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="11" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{EF098D28-979A-2244-838D-DC0F3CD41899}" srcId="{53669BFA-F7AB-9048-B7E4-69878596F41C}" destId="{E9623A8D-7BD5-3E4A-9AF1-D9F5CBDAA65B}" srcOrd="1" destOrd="0" parTransId="{35CF04AD-AAB1-FF47-8444-26D479BE444E}" sibTransId="{3C21B100-761E-A945-A2EE-459BF81744E0}"/>
+    <dgm:cxn modelId="{6D08C644-A5D4-2849-9E90-A1443A90AF07}" srcId="{528824D3-FE60-7541-A033-D35D79BE846D}" destId="{0AE11C6A-8C94-C642-B9CB-95D2154CF58D}" srcOrd="0" destOrd="0" parTransId="{90BDD1AA-F697-CB41-B4C8-689764BB39DC}" sibTransId="{744AF2F5-4F59-6643-8629-B8AEC25DBA5F}"/>
+    <dgm:cxn modelId="{BDCC242A-FDC8-ED45-808C-59C3D28E0A65}" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{C5977B4D-FDD2-6B41-B180-BD3E71030A8F}" srcOrd="6" destOrd="0" parTransId="{7E7A1FC6-C814-7B44-B415-42F0DDE47D56}" sibTransId="{402EC8B4-E141-DA48-85ED-37DAE4AF1556}"/>
+    <dgm:cxn modelId="{1CBFDB12-C06D-B84D-B899-DD1BA6DD3DF5}" type="presOf" srcId="{640762D7-7BB0-6348-8B7D-B453AAEA8954}" destId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{B8814B13-8688-CF44-B5B1-A08E5A62590E}" type="presOf" srcId="{53669BFA-F7AB-9048-B7E4-69878596F41C}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="6" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E82729B9-9F1B-5F40-9403-CE581CC450CB}" srcId="{B21D3BDB-10B1-3945-8948-21FBC7561210}" destId="{52A8EE85-DA54-A346-A389-E4D69E998904}" srcOrd="2" destOrd="0" parTransId="{1B1A1E44-ED2E-3648-9D82-8EA86961E234}" sibTransId="{A261DA66-77C6-6E47-B643-6CB5BBBCFD81}"/>
+    <dgm:cxn modelId="{F1C21685-27AE-8943-A957-87BF25E8FF24}" srcId="{528824D3-FE60-7541-A033-D35D79BE846D}" destId="{F485A01A-8CFA-D44D-A339-B53BEE676F7B}" srcOrd="4" destOrd="0" parTransId="{93B21FAA-C0A5-3742-A377-42E1E6AC6007}" sibTransId="{B537E0D9-F1E2-D348-BA5E-75DF3C328065}"/>
+    <dgm:cxn modelId="{8BE73E41-F750-044E-97E7-120434C8E11E}" srcId="{B9D0067B-2CC1-0B4F-BD2D-458F3576FFB7}" destId="{DA5A0364-E614-C547-A615-08139A572D00}" srcOrd="0" destOrd="0" parTransId="{B582B6B0-CB97-9441-B465-D1CAFFD62F1A}" sibTransId="{1DC18C3C-30E1-804D-BB68-C6BAD080EBC6}"/>
+    <dgm:cxn modelId="{61495462-7E25-7B44-9C23-B60A52FBD916}" type="presOf" srcId="{AB7F76D3-ADE7-624F-A732-277004208952}" destId="{23727E75-74B1-5440-9973-89F7797E2CED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{A16054CA-E3C0-FC49-9F5F-238C2B8AD29A}" type="presOf" srcId="{2E03D02D-0BAB-3441-84A2-3E7110CD26C2}" destId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{0B4AA0D3-708C-3B46-B8B0-EAF087B0BE74}" type="presOf" srcId="{5493426C-1A3F-AB41-BED1-3E97F0A34662}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{7178E4F9-B3C0-5C4E-94FB-8B1044B643EE}" srcId="{AB7F76D3-ADE7-624F-A732-277004208952}" destId="{B9D0067B-2CC1-0B4F-BD2D-458F3576FFB7}" srcOrd="2" destOrd="0" parTransId="{C77C7E23-3196-594C-9C4F-A034515E8DB3}" sibTransId="{A73D5ADF-1FB8-9344-96B0-C9286AB1AD6F}"/>
+    <dgm:cxn modelId="{138D1470-809B-424F-A700-37D59CBE9F63}" type="presOf" srcId="{65F15983-A2BE-DE4F-BD21-B42FDCFC3E9E}" destId="{7C1B4582-0BDC-2843-AB16-5B8D68C36170}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{F66ADA7D-C6E8-4742-8A41-05D9921167D3}" srcId="{A38FAAC9-0B92-3C44-B212-0DD319017402}" destId="{7C406E83-EF9A-5C4A-B118-D3D5B46DC6FE}" srcOrd="2" destOrd="0" parTransId="{89EC16D8-52CB-DC4A-A9CB-CC14D402DE1A}" sibTransId="{E4A18796-74E7-3C41-8679-2CDBECDCB599}"/>
+    <dgm:cxn modelId="{2A883AD4-E586-B649-87B4-1EEAB35D56A9}" type="presOf" srcId="{A808A73A-60C8-C448-9315-AE72656673EA}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="10" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{3F18446E-0A30-F84E-A3AA-8BEE5C56FC6F}" type="presOf" srcId="{DDB378AF-638E-2243-BB61-65ABB08DFED0}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="0" destOrd="5" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E82FC0B2-9742-D046-B231-B543EADC7918}" type="presOf" srcId="{18DC6004-DA42-A54A-BD1D-603FFD188012}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{599CEB6B-FAC1-6C4D-AA0B-537C95EA8496}" type="presOf" srcId="{E9623A8D-7BD5-3E4A-9AF1-D9F5CBDAA65B}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="0" destOrd="8" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{81EAA991-23D7-C541-B7A1-08B8A62EA03E}" srcId="{AB7F76D3-ADE7-624F-A732-277004208952}" destId="{528824D3-FE60-7541-A033-D35D79BE846D}" srcOrd="4" destOrd="0" parTransId="{0B45681A-0D67-1A4A-A1C6-CB4D5E66BDC9}" sibTransId="{48FEEBEE-D805-BA40-A024-6BB0F2275FAA}"/>
+    <dgm:cxn modelId="{554B4611-2DA2-D744-B2C8-4BFEF63F95EB}" type="presOf" srcId="{DA5A0364-E614-C547-A615-08139A572D00}" destId="{F190ED85-3748-ED49-BAF9-06793D9C2452}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{1F7BA468-61BB-924B-A221-2233107CBEBC}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{95D614A0-A82A-8749-B93F-560EB420C129}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{5AB0A14E-92A5-AB49-9315-C030D43277C3}" type="presParOf" srcId="{95D614A0-A82A-8749-B93F-560EB420C129}" destId="{F3987FD7-0363-8349-8E23-CADABABBCC9F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{66088485-C05A-2A4C-AE79-676DF9971E94}" type="presParOf" srcId="{95D614A0-A82A-8749-B93F-560EB420C129}" destId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{AB3E3270-040D-5243-9AD7-FC660B356EC8}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{B6EF8F1C-1F88-E041-8862-E4EDEA737E9A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{931D4A66-6C89-1D44-AFD7-9D6F24EB9578}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{9AE75C1D-27F4-4A49-981C-DAE286DCBFED}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{A81578EB-C4A6-5349-A351-7248BCC3FDA3}" type="presParOf" srcId="{9AE75C1D-27F4-4A49-981C-DAE286DCBFED}" destId="{7C1B4582-0BDC-2843-AB16-5B8D68C36170}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{AAF9D4BC-6F40-034D-81F5-8630E6DF5C26}" type="presParOf" srcId="{9AE75C1D-27F4-4A49-981C-DAE286DCBFED}" destId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E5186836-AE37-6444-905E-737A9D4CB9CA}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{477E11EB-5ACF-7947-B1E8-94B706F7B7DC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{06A1051A-576B-5E45-B368-10AF7E4B4688}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{8509B802-0041-3345-BA52-F5A734A2E2F9}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{483B3A1A-F833-3447-BB72-3DE3AA7A37EF}" type="presParOf" srcId="{8509B802-0041-3345-BA52-F5A734A2E2F9}" destId="{ACE6A4F1-B196-7849-9682-3583839A5888}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{DCBFE549-947D-5A4F-B68F-48CAD4221424}" type="presParOf" srcId="{8509B802-0041-3345-BA52-F5A734A2E2F9}" destId="{F190ED85-3748-ED49-BAF9-06793D9C2452}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{DF2D0F99-6585-484B-AB1C-290AC3A1D77B}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{F9AF65B6-B3F8-8349-8D87-755E6506B537}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{0122BAA7-716E-AC40-B023-AFE352341565}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{FB120AC4-EAF7-C346-A6F8-0446422471BB}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{E36EB704-BB6A-BA43-A3A8-E551535C55E6}" type="presParOf" srcId="{FB120AC4-EAF7-C346-A6F8-0446422471BB}" destId="{499707EF-AEF3-D049-929E-A6C1AD4B2E97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{56DE02C0-9D33-3C48-9DBE-01EF131628F9}" type="presParOf" srcId="{FB120AC4-EAF7-C346-A6F8-0446422471BB}" destId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{4E315A81-528C-0B49-A3B1-2DE7164F779A}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{1D149015-D1A3-AA4E-934F-0248D800C259}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{084E0062-40BC-8146-AF9B-A0409B2BE822}" type="presParOf" srcId="{23727E75-74B1-5440-9973-89F7797E2CED}" destId="{6A7F04B1-C564-2847-8C66-397E29BA96D9}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{B89ADAFC-CDA6-6046-A692-0A89C8BB2B4B}" type="presParOf" srcId="{6A7F04B1-C564-2847-8C66-397E29BA96D9}" destId="{977D602D-F673-7E49-B164-FAB3DC03A678}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+    <dgm:cxn modelId="{8D808D8E-6F09-5A47-89C0-50FFF96A7F55}" type="presParOf" srcId="{6A7F04B1-C564-2847-8C66-397E29BA96D9}" destId="{C6F93011-D594-7449-AAF3-CE818BCA503B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{F3987FD7-0363-8349-8E23-CADABABBCC9F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="755" y="607365"/>
+          <a:ext cx="2320067" cy="928027"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>辅助项</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="464769" y="607365"/>
+        <a:ext cx="1392040" cy="928027"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="755" y="1651395"/>
+          <a:ext cx="1856054" cy="3811838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>服务器网络调通</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数据结构和协议定义</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>导表工具</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>美术资源需求模板</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="755" y="1651395"/>
+        <a:ext cx="1856054" cy="3811838"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7C1B4582-0BDC-2843-AB16-5B8D68C36170}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2104823" y="607365"/>
+          <a:ext cx="2320067" cy="928027"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="2812566"/>
+                <a:satOff val="-4220"/>
+                <a:lumOff val="-686"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="2812566"/>
+                <a:satOff val="-4220"/>
+                <a:lumOff val="-686"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>主角属性</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2568837" y="607365"/>
+        <a:ext cx="1392040" cy="928027"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2104823" y="1651395"/>
+          <a:ext cx="1856054" cy="3811838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>账号基础数据存储</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>角色携带宠物</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>主角形象</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2104823" y="1651395"/>
+        <a:ext cx="1856054" cy="3811838"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{ACE6A4F1-B196-7849-9682-3583839A5888}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4208891" y="607365"/>
+          <a:ext cx="2320067" cy="928027"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="5625133"/>
+                <a:satOff val="-8440"/>
+                <a:lumOff val="-1373"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="5625133"/>
+                <a:satOff val="-8440"/>
+                <a:lumOff val="-1373"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>宠物</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4672905" y="607365"/>
+        <a:ext cx="1392040" cy="928027"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F190ED85-3748-ED49-BAF9-06793D9C2452}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4208891" y="1651395"/>
+          <a:ext cx="1856054" cy="3811838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>具体宠物设计</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数值</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>形象</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4208891" y="1651395"/>
+        <a:ext cx="1856054" cy="3811838"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{499707EF-AEF3-D049-929E-A6C1AD4B2E97}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6312958" y="607365"/>
+          <a:ext cx="2320067" cy="928027"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="8437700"/>
+                <a:satOff val="-12660"/>
+                <a:lumOff val="-2059"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="8437700"/>
+                <a:satOff val="-12660"/>
+                <a:lumOff val="-2059"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>核心战斗</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6776972" y="607365"/>
+        <a:ext cx="1392040" cy="928027"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6312958" y="1651395"/>
+          <a:ext cx="1856054" cy="3811838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>资源加载管理模块</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>伤害公式</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>对局表现（需要等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>xw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>测试，时间未知）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>怪物站位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>镜头</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>基础</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>换宠</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>照妖镜</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗流程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>进程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6312958" y="1651395"/>
+        <a:ext cx="1856054" cy="3811838"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{977D602D-F673-7E49-B164-FAB3DC03A678}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8417026" y="607365"/>
+          <a:ext cx="2320067" cy="928027"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="11250266"/>
+                <a:satOff val="-16880"/>
+                <a:lumOff val="-2745"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="11250266"/>
+                <a:satOff val="-16880"/>
+                <a:lumOff val="-2745"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>具体关卡</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8881040" y="607365"/>
+        <a:ext cx="1392040" cy="928027"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C6F93011-D594-7449-AAF3-CE818BCA503B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8417026" y="1651395"/>
+          <a:ext cx="1856054" cy="3811838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>玩法设计</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>怪物</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数值</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>形象</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>对局</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗场景</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>进程刷怪</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>结束条件</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>副本</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>美术资源</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>3D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>角色</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>3D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>场景</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>动作，特效</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8417026" y="1651395"/>
+        <a:ext cx="1856054" cy="3811838"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/chevron1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="9000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name4">
+      <dgm:if name="Name5" axis="des" func="maxDepth" op="gte" val="2">
+        <dgm:constrLst>
+          <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+          <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+          <dgm:constr type="w" for="des" forName="parTx"/>
+          <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+          <dgm:constr type="w" for="des" forName="desTx"/>
+          <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+          <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+          <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+          <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.5"/>
+          <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.5"/>
+          <dgm:constr type="w" for="ch" forName="space" op="equ" val="-6"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+          <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:forEach name="Name6" axis="ch" ptType="node">
+          <dgm:layoutNode name="composite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:choose name="Name7">
+              <dgm:if name="Name8" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="parTx"/>
+                  <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="parTx"/>
+                  <dgm:constr type="l" for="ch" forName="desTx"/>
+                  <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx" fact="0.8"/>
+                  <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx" fact="1.125"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name9">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="parTx"/>
+                  <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="parTx"/>
+                  <dgm:constr type="l" for="ch" forName="desTx" refType="w" fact="0.2"/>
+                  <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx" fact="0.8"/>
+                  <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx" fact="1.125"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst>
+              <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+            <dgm:layoutNode name="parTx">
+              <dgm:varLst>
+                <dgm:chMax val="0"/>
+                <dgm:chPref val="0"/>
+                <dgm:bulletEnabled val="1"/>
+              </dgm:varLst>
+              <dgm:alg type="tx"/>
+              <dgm:choose name="Name10">
+                <dgm:if name="Name11" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="chevron" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:if>
+                <dgm:else name="Name12">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="180" type="chevron" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:presOf axis="self" ptType="node"/>
+              <dgm:choose name="Name13">
+                <dgm:if name="Name14" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:constrLst>
+                    <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+                    <dgm:constr type="h"/>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.315"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.105"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name15">
+                  <dgm:constrLst>
+                    <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+                    <dgm:constr type="h"/>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.105"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.315"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:ruleLst>
+                <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="desTx" styleLbl="revTx">
+              <dgm:varLst>
+                <dgm:bulletEnabled val="1"/>
+              </dgm:varLst>
+              <dgm:alg type="tx">
+                <dgm:param type="stBulletLvl" val="1"/>
+              </dgm:alg>
+              <dgm:choose name="Name16">
+                <dgm:if name="Name17" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:if>
+                <dgm:else name="Name18">
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                </dgm:else>
+              </dgm:choose>
+              <dgm:presOf axis="des" ptType="node"/>
+              <dgm:constrLst>
+                <dgm:constr type="secFontSz" val="65"/>
+                <dgm:constr type="primFontSz" refType="secFontSz"/>
+                <dgm:constr type="h"/>
+                <dgm:constr type="tMarg"/>
+                <dgm:constr type="bMarg"/>
+                <dgm:constr type="rMarg"/>
+                <dgm:constr type="lMarg"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:forEach name="Name19" axis="followSib" ptType="sibTrans" cnt="1">
+            <dgm:layoutNode name="space">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:if>
+      <dgm:else name="Name20">
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" forName="parTxOnly" refType="w"/>
+          <dgm:constr type="h" for="des" forName="parTxOnly" op="equ"/>
+          <dgm:constr type="primFontSz" for="des" forName="parTxOnly" op="equ" val="65"/>
+          <dgm:constr type="w" for="ch" forName="parTxOnlySpace" refType="w" refFor="ch" refForName="parTxOnly" fact="-0.1"/>
+        </dgm:constrLst>
+        <dgm:ruleLst/>
+        <dgm:forEach name="Name21" axis="ch" ptType="node">
+          <dgm:layoutNode name="parTxOnly">
+            <dgm:varLst>
+              <dgm:chMax val="0"/>
+              <dgm:chPref val="0"/>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:choose name="Name22">
+              <dgm:if name="Name23" func="var" arg="dir" op="equ" val="norm">
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="chevron" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:if>
+              <dgm:else name="Name24">
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="180" type="chevron" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:presOf axis="self" ptType="node"/>
+            <dgm:choose name="Name25">
+              <dgm:if name="Name26" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w" op="equ" fact="0.4"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.315"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.105"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name27">
+                <dgm:constrLst>
+                  <dgm:constr type="h" refType="w" op="equ" fact="0.4"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.105"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.315"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:forEach name="Name28" axis="followSib" ptType="sibTrans" cnt="1">
+            <dgm:layoutNode name="parTxOnlySpace">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:else>
+    </dgm:choose>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple4">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10400"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2649,6 +8864,41 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2979,11 +9229,11 @@
   <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3018,13 +9268,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="17">
+    <row r="4" spans="2:13" ht="16">
       <c r="C4" s="2" t="s">
         <v>264</v>
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="2:13" ht="17">
+    <row r="5" spans="2:13" ht="16">
       <c r="C5" s="2" t="s">
         <v>265</v>
       </c>
@@ -3200,7 +9450,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="32">
+    <row r="19" spans="1:13" ht="30">
       <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
@@ -3479,7 +9729,9 @@
       <c r="I29" s="9"/>
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="L29" s="62" t="s">
+        <v>350</v>
+      </c>
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13">
@@ -4508,123 +10760,123 @@
   </sheetData>
   <autoFilter ref="B15:M86"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N41:Q41 B48:B52 C49:C52 B53:M119 I21:M21 K39:M39 B15:M16 B18:B23 D48:M48 B39:I39 B40:M47 B24:K24 C19:H19 G21 G22:H23 G20:M20 C20:F23 C18:G18 B17:G17 I17:M18 J22:M23 J19:M19 B38:M38 B37:G37 I37:M37 B27:M27 B25:J26 L25:M26 B28:K28 M28 M24 D49:J49 M52 M49:M50 L51:M51 K50 B29:M36 J52:K52 D50:I52 J50:J51">
-    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
+  <conditionalFormatting sqref="N41:Q41 B48:B52 C49:C52 B53:M119 I21:M21 K39:M39 B15:M16 B18:B23 D48:M48 B39:I39 B40:M47 B24:K24 C19:H19 G21 G22:H23 G20:M20 C20:F23 C18:G18 B17:G17 I17:M18 J22:M23 J19:M19 B38:M38 B37:G37 I37:M37 B27:M27 B25:J26 L25:M26 B28:K28 M28 M24 D49:J49 M52 M49:M50 L51:M51 K50 J52:K52 D50:I52 J50:J51 B29:M36">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E33 E35:E64">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="37" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="46" priority="32" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I23">
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4642,8 +10894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F38" sqref="E11:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -5611,7 +11863,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="32">
+    <row r="17" spans="1:13" ht="30">
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
@@ -5673,7 +11925,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="32">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="30">
       <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
@@ -5766,7 +12018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="32">
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>64</v>
@@ -5866,7 +12118,7 @@
       <c r="L25" s="40"/>
       <c r="M25" s="41"/>
     </row>
-    <row r="27" spans="1:13" ht="32">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -6056,7 +12308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="45" customFormat="1" ht="48">
+    <row r="33" spans="1:17" s="45" customFormat="1" ht="45">
       <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
@@ -6088,7 +12340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="45" customFormat="1" ht="48">
+    <row r="34" spans="1:17" s="45" customFormat="1" ht="45">
       <c r="B34" s="14" t="s">
         <v>95</v>
       </c>
@@ -6926,7 +13178,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" ht="32">
+    <row r="65" spans="1:13" ht="30">
       <c r="A65" s="2" t="s">
         <v>181</v>
       </c>
@@ -7728,113 +13980,113 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H39 H36:L38 H29:I30 B20:M20 I28:L28 I31:I32 M29:M39 K39:L41 H40:J40 J21:M22 J39 J19:L19 J29:K29 J31:K35 L29:L31 I22 H27:M27 B19:H19 B21:H22 B46:Q52 B41:J41 B23:M25 B27:G40 B42:M45 B53:M138 B13:M18">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E52">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7845,4 +14097,28 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.7109375" style="63"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="260" windowWidth="24340" windowHeight="19100" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$M$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$M$88</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="374">
   <si>
     <t>Demo目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,10 +1057,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容项</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>功能项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1440,10 +1436,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>具体关卡设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础AI跟关卡设计一起出（考虑是否可以用简单的脚本实现，让策划自己编辑）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1468,19 +1460,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>功能项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备接口预留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>村落基础（角色移动，副本入口）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>游戏基础流程架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>功能项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>内容项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡设计配置接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA测试</t>
+  </si>
+  <si>
     <t>QA测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备接口预留</t>
+    <t>策划配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1488,7 +1519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1577,6 +1608,13 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1634,7 +1672,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="166">
+  <cellStyleXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1803,8 +1841,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1987,10 +2043,103 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="166">
+  <cellStyles count="184">
     <cellStyle name="常规 2" xfId="7"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2073,97 +2222,18 @@
     <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -2610,6 +2680,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3627,7 +3732,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -3667,7 +3772,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -3707,7 +3812,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -3747,7 +3852,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -3787,7 +3892,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -3827,7 +3932,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -3867,7 +3972,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -3907,14 +4012,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>属性</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -3952,14 +4057,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>具体宠物设计</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -3997,14 +4102,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>技能</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4042,14 +4147,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>AI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4087,14 +4192,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>数值</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4132,14 +4237,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>形象</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4177,7 +4282,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4217,7 +4322,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4257,7 +4362,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4297,7 +4402,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4305,7 +4410,7 @@
             <a:t>对局表现（需要等待</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4313,7 +4418,7 @@
             <a:t>xw</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4353,7 +4458,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4393,7 +4498,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4433,7 +4538,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4441,14 +4546,14 @@
             <a:t>基础</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>UI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4486,7 +4591,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4526,7 +4631,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4566,7 +4671,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4606,7 +4711,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4646,7 +4751,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -4686,14 +4791,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>AI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4731,14 +4836,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>玩法设计</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4776,14 +4881,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>怪物</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4821,14 +4926,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>技能</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4866,14 +4971,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>AI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4911,14 +5016,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>数值</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -4956,14 +5061,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>形象</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5001,14 +5106,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>对局</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5046,14 +5151,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>战斗场景</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5091,14 +5196,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>进程刷怪</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5136,14 +5241,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>结束条件</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5181,14 +5286,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>副本</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5226,14 +5331,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>美术资源</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5271,7 +5376,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -5279,14 +5384,14 @@
             <a:t>3D</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>角色</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5324,7 +5429,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -5332,14 +5437,14 @@
             <a:t>3D</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>场景</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5377,14 +5482,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>动作，特效</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -5760,8 +5865,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="755" y="607365"/>
-          <a:ext cx="2320067" cy="928027"/>
+          <a:off x="1975" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -5846,8 +5951,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="464769" y="607365"/>
-        <a:ext cx="1392040" cy="928027"/>
+        <a:off x="464676" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}">
@@ -5857,8 +5962,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="755" y="1651395"/>
-          <a:ext cx="1856054" cy="3811838"/>
+          <a:off x="1975" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5887,7 +5992,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5900,7 +6005,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -5909,7 +6014,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5922,7 +6027,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -5931,7 +6036,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5944,7 +6049,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -5953,7 +6058,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5966,7 +6071,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -5976,8 +6081,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="755" y="1651395"/>
-        <a:ext cx="1856054" cy="3811838"/>
+        <a:off x="1975" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7C1B4582-0BDC-2843-AB16-5B8D68C36170}">
@@ -5987,8 +6092,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2104823" y="607365"/>
-          <a:ext cx="2320067" cy="928027"/>
+          <a:off x="2099481" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6073,8 +6178,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2568837" y="607365"/>
-        <a:ext cx="1392040" cy="928027"/>
+        <a:off x="2562182" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}">
@@ -6084,8 +6189,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2104823" y="1651395"/>
-          <a:ext cx="1856054" cy="3811838"/>
+          <a:off x="2099481" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6114,7 +6219,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6127,7 +6232,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6136,7 +6241,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6149,7 +6254,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6158,7 +6263,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6171,7 +6276,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6181,8 +6286,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2104823" y="1651395"/>
-        <a:ext cx="1856054" cy="3811838"/>
+        <a:off x="2099481" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ACE6A4F1-B196-7849-9682-3583839A5888}">
@@ -6192,8 +6297,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4208891" y="607365"/>
-          <a:ext cx="2320067" cy="928027"/>
+          <a:off x="4196987" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6278,8 +6383,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4672905" y="607365"/>
-        <a:ext cx="1392040" cy="928027"/>
+        <a:off x="4659688" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F190ED85-3748-ED49-BAF9-06793D9C2452}">
@@ -6289,8 +6394,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4208891" y="1651395"/>
-          <a:ext cx="1856054" cy="3811838"/>
+          <a:off x="4196987" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6319,7 +6424,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6332,21 +6437,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>属性</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6359,21 +6464,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>具体宠物设计</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6386,21 +6491,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>技能</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6413,21 +6518,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>AI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6440,21 +6545,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>数值</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6467,14 +6572,14 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>形象</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -6482,8 +6587,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4208891" y="1651395"/>
-        <a:ext cx="1856054" cy="3811838"/>
+        <a:off x="4196987" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{499707EF-AEF3-D049-929E-A6C1AD4B2E97}">
@@ -6493,8 +6598,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6312958" y="607365"/>
-          <a:ext cx="2320067" cy="928027"/>
+          <a:off x="6294493" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -6579,8 +6684,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6776972" y="607365"/>
-        <a:ext cx="1392040" cy="928027"/>
+        <a:off x="6757194" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}">
@@ -6590,8 +6695,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6312958" y="1651395"/>
-          <a:ext cx="1856054" cy="3811838"/>
+          <a:off x="6294493" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6620,7 +6725,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6633,7 +6738,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6642,7 +6747,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6655,7 +6760,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6664,7 +6769,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6677,7 +6782,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6686,7 +6791,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6699,7 +6804,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6707,7 +6812,7 @@
             <a:t>对局表现（需要等待</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6715,7 +6820,7 @@
             <a:t>xw</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6724,7 +6829,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6737,7 +6842,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6746,7 +6851,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6759,7 +6864,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6768,7 +6873,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6781,7 +6886,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6789,21 +6894,21 @@
             <a:t>基础</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>UI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6816,7 +6921,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6825,7 +6930,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6838,7 +6943,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6847,7 +6952,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6860,7 +6965,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6869,7 +6974,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6882,7 +6987,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6891,7 +6996,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6904,7 +7009,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -6913,7 +7018,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6926,14 +7031,14 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>AI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -6941,8 +7046,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6312958" y="1651395"/>
-        <a:ext cx="1856054" cy="3811838"/>
+        <a:off x="6294493" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{977D602D-F673-7E49-B164-FAB3DC03A678}">
@@ -6952,8 +7057,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8417026" y="607365"/>
-          <a:ext cx="2320067" cy="928027"/>
+          <a:off x="8391999" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
           <a:avLst/>
@@ -7038,8 +7143,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8881040" y="607365"/>
-        <a:ext cx="1392040" cy="928027"/>
+        <a:off x="8854700" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C6F93011-D594-7449-AAF3-CE818BCA503B}">
@@ -7049,8 +7154,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8417026" y="1651395"/>
-          <a:ext cx="1856054" cy="3811838"/>
+          <a:off x="8391999" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7079,7 +7184,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7092,21 +7197,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>玩法设计</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7119,21 +7224,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>怪物</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7146,21 +7251,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>技能</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7173,21 +7278,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>AI</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7200,21 +7305,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>数值</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7227,21 +7332,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>形象</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7254,21 +7359,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>对局</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7281,21 +7386,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>战斗场景</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7308,21 +7413,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>进程刷怪</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7335,21 +7440,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>结束条件</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7362,21 +7467,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>副本</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7389,21 +7494,21 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>美术资源</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7416,7 +7521,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -7424,21 +7529,21 @@
             <a:t>3D</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>角色</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7451,7 +7556,7 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
@@ -7459,21 +7564,21 @@
             <a:t>3D</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>场景</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="342900" lvl="2" indent="-171450" algn="l" defTabSz="711200">
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7486,14 +7591,14 @@
             <a:buChar char="••"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" kern="1200">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
               <a:latin typeface="微软雅黑"/>
               <a:ea typeface="微软雅黑"/>
               <a:cs typeface="微软雅黑"/>
             </a:rPr>
             <a:t>动作，特效</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
             <a:latin typeface="微软雅黑"/>
             <a:ea typeface="微软雅黑"/>
             <a:cs typeface="微软雅黑"/>
@@ -7501,8 +7606,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8417026" y="1651395"/>
-        <a:ext cx="1856054" cy="3811838"/>
+        <a:off x="8391999" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9226,14 +9331,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9255,39 +9360,39 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="C2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="C3" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="16">
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:13" ht="16">
       <c r="C5" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:13">
       <c r="C6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="C7" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -9397,26 +9502,26 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -9429,20 +9534,20 @@
         <v>33</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -9455,23 +9560,23 @@
         <v>33</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>104</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="60"/>
@@ -9483,22 +9588,22 @@
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="60"/>
       <c r="I20" s="9"/>
       <c r="J20" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
@@ -9509,18 +9614,18 @@
         <v>33</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G21" s="11"/>
       <c r="I21" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
@@ -9532,21 +9637,21 @@
         <v>33</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
@@ -9555,17 +9660,17 @@
     </row>
     <row r="23" spans="1:13">
       <c r="B23" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>362</v>
-      </c>
       <c r="D23" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="60"/>
@@ -9573,7 +9678,7 @@
       <c r="J23" s="60"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M23" s="14"/>
     </row>
@@ -9596,10 +9701,10 @@
       <c r="I24" s="9"/>
       <c r="J24" s="60"/>
       <c r="K24" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M24" s="14"/>
     </row>
@@ -9608,23 +9713,23 @@
         <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L25" s="60"/>
       <c r="M25" s="14"/>
@@ -9641,16 +9746,16 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L26" s="60"/>
       <c r="M26" s="14"/>
@@ -9667,17 +9772,17 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="K27" s="60"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="60" t="s">
+        <v>343</v>
+      </c>
       <c r="L27" s="60"/>
       <c r="M27" s="14"/>
     </row>
@@ -9686,86 +9791,91 @@
         <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D28" s="12">
         <v>2</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="60"/>
       <c r="K28" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>259</v>
+        <v>368</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D29" s="33">
         <v>2</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="H29" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>104</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
-      <c r="L29" s="62" t="s">
-        <v>350</v>
+      <c r="L29" s="60" t="s">
+        <v>343</v>
       </c>
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="B30" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="12">
-        <v>3</v>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="33">
+        <v>2</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="H30" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="60"/>
       <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1">
-      <c r="B31" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>280</v>
+      <c r="L30" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D31" s="12">
         <v>3</v>
@@ -9774,23 +9884,24 @@
       <c r="F31" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="60" t="s">
-        <v>358</v>
-      </c>
+      <c r="G31" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="60"/>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>256</v>
+      <c r="M31" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1">
+      <c r="B32" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
@@ -9799,10 +9910,10 @@
       <c r="F32" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="H32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="60" t="s">
+        <v>356</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="60"/>
       <c r="K32" s="60"/>
@@ -9810,11 +9921,12 @@
       <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="B33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>234</v>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="D33" s="12">
         <v>3</v>
@@ -9823,9 +9935,8 @@
       <c r="F33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="9"/>
       <c r="H33" s="60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="60"/>
@@ -9834,12 +9945,11 @@
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>279</v>
+      <c r="B34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>234</v>
       </c>
       <c r="D34" s="12">
         <v>3</v>
@@ -9849,32 +9959,43 @@
         <v>104</v>
       </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60" t="s">
-        <v>358</v>
-      </c>
+      <c r="H34" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" s="9"/>
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
       <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="B35" s="11"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="12">
+        <v>3</v>
+      </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="15"/>
+      <c r="F35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="1:17">
       <c r="B36" s="11"/>
-      <c r="C36" s="16"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="27"/>
       <c r="E36" s="5"/>
       <c r="F36" s="28"/>
@@ -9887,28 +10008,13 @@
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D37" s="27">
-        <v>1</v>
-      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>353</v>
-      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="28"/>
@@ -9916,22 +10022,27 @@
       <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B38" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D38" s="27">
         <v>1</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28" t="s">
-        <v>347</v>
+        <v>352</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -9940,115 +10051,115 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="30"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="27">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="B40" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D40" s="27">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="30"/>
+      <c r="B41" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="D39" s="33">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="30"/>
-      <c r="B40" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="33">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="B41" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>281</v>
       </c>
       <c r="D41" s="33">
         <v>1</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="13" t="s">
-        <v>257</v>
+      <c r="F41" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="5"/>
       <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="L41" s="11" t="s">
+        <v>344</v>
+      </c>
       <c r="M41" s="15"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="41"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="B42" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D42" s="27">
-        <v>2</v>
+      <c r="A42" s="30"/>
+      <c r="B42" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="33">
+        <v>1</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="11" t="s">
-        <v>257</v>
+      <c r="F42" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="5"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="L42" s="62" t="s">
+        <v>349</v>
+      </c>
       <c r="M42" s="15"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="B43" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" s="27">
-        <v>2</v>
+      <c r="B43" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="33">
+        <v>1</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="28" t="s">
-        <v>272</v>
+      <c r="F43" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="11"/>
@@ -10057,20 +10168,24 @@
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
       <c r="M43" s="15"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="41"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="B44" s="11" t="s">
-        <v>245</v>
+      <c r="B44" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="D44" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="28" t="s">
-        <v>272</v>
+      <c r="F44" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="11"/>
@@ -10081,19 +10196,18 @@
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="30"/>
-      <c r="B45" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D45" s="33">
-        <v>3</v>
+      <c r="B45" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="27">
+        <v>2</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="50" t="s">
-        <v>235</v>
+      <c r="F45" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="11"/>
@@ -10103,19 +10217,19 @@
       <c r="L45" s="28"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:17" s="42" customFormat="1">
-      <c r="B46" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D46" s="51">
+    <row r="46" spans="1:17">
+      <c r="B46" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="27">
         <v>3</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="13" t="s">
-        <v>272</v>
+      <c r="F46" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="11"/>
@@ -10126,11 +10240,20 @@
       <c r="M46" s="15"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="B47" s="15"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="33"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="33">
+        <v>3</v>
+      </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="13"/>
+      <c r="F47" s="50" t="s">
+        <v>235</v>
+      </c>
       <c r="G47" s="28"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -10139,24 +10262,21 @@
       <c r="L47" s="28"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" s="27">
-        <v>1</v>
+    <row r="48" spans="1:17" s="42" customFormat="1">
+      <c r="B48" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="51">
+        <v>3</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="28" t="s">
-        <v>360</v>
-      </c>
+      <c r="F48" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" s="28"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="5"/>
@@ -10165,59 +10285,50 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="B49" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="D49" s="27">
-        <v>1</v>
-      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="5"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="11" t="s">
-        <v>274</v>
-      </c>
+      <c r="G49" s="28"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="11" t="s">
-        <v>361</v>
-      </c>
+      <c r="I49" s="11"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
       <c r="M49" s="15"/>
     </row>
     <row r="50" spans="1:13">
+      <c r="A50" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="B50" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="33">
+        <v>272</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="27">
         <v>1</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="11" t="s">
-        <v>274</v>
+      <c r="G50" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="H50" s="11"/>
-      <c r="I50" s="11" t="s">
-        <v>361</v>
-      </c>
+      <c r="I50" s="11"/>
       <c r="J50" s="5"/>
       <c r="K50" s="28"/>
-      <c r="L50" s="11"/>
+      <c r="L50" s="28"/>
       <c r="M50" s="15"/>
     </row>
     <row r="51" spans="1:13">
       <c r="B51" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D51" s="27">
         <v>1</v>
@@ -10225,35 +10336,35 @@
       <c r="E51" s="5"/>
       <c r="F51" s="13"/>
       <c r="G51" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="11"/>
-      <c r="L51" s="28"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="15"/>
     </row>
     <row r="52" spans="1:13">
       <c r="B52" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="27">
+        <v>248</v>
+      </c>
+      <c r="D52" s="33">
         <v>1</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="13"/>
       <c r="G52" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="28"/>
@@ -10261,42 +10372,59 @@
       <c r="M52" s="15"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="B53" s="15"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="33"/>
+      <c r="B53" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="27">
+        <v>1</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="28"/>
+      <c r="G53" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="I53" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="J53" s="5"/>
-      <c r="K53" s="28"/>
+      <c r="K53" s="11"/>
       <c r="L53" s="28"/>
       <c r="M53" s="15"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="27">
+        <v>1</v>
+      </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="H54" s="11"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="11"/>
+      <c r="I54" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="28"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" s="42" customFormat="1">
-      <c r="B55" s="11"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="12"/>
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="B55" s="15"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="28"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="28"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -10306,25 +10434,28 @@
       <c r="M55" s="15"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="B56" s="15"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="33"/>
+      <c r="A56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="28"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="15"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="B57" s="15"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="33"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" s="42" customFormat="1">
+      <c r="B57" s="11"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="13"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="28"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -10334,14 +10465,11 @@
       <c r="M57" s="15"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="12"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="11"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="28"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -10351,35 +10479,35 @@
       <c r="M58" s="15"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="B59" s="11"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="12"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="28"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="14"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="15"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="55"/>
       <c r="D60" s="12"/>
       <c r="E60" s="5"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="14"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="15"/>
     </row>
     <row r="61" spans="1:13">
       <c r="B61" s="11"/>
@@ -10396,12 +10524,15 @@
       <c r="M61" s="14"/>
     </row>
     <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="26"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="12"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
@@ -10416,7 +10547,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -10431,8 +10562,8 @@
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="14"/>
@@ -10441,10 +10572,10 @@
       <c r="B65" s="11"/>
       <c r="C65" s="26"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
@@ -10453,21 +10584,21 @@
     </row>
     <row r="66" spans="2:13">
       <c r="B66" s="11"/>
-      <c r="C66" s="57"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="12"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="14"/>
     </row>
     <row r="67" spans="2:13">
       <c r="B67" s="11"/>
-      <c r="C67" s="55"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="12"/>
       <c r="E67" s="11"/>
       <c r="F67" s="19"/>
@@ -10481,11 +10612,11 @@
     </row>
     <row r="68" spans="2:13">
       <c r="B68" s="11"/>
-      <c r="C68" s="55"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="12"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
@@ -10498,8 +10629,8 @@
       <c r="C69" s="55"/>
       <c r="D69" s="12"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
@@ -10536,9 +10667,9 @@
       <c r="M71" s="14"/>
     </row>
     <row r="72" spans="2:13">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="46"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="12"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
@@ -10547,7 +10678,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
-      <c r="M72" s="58"/>
+      <c r="M72" s="14"/>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="11"/>
@@ -10565,25 +10696,25 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="14"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="12"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
-      <c r="M74" s="14"/>
+      <c r="M74" s="58"/>
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="11"/>
-      <c r="C75" s="26"/>
+      <c r="C75" s="55"/>
       <c r="D75" s="12"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -10592,12 +10723,12 @@
       <c r="M75" s="14"/>
     </row>
     <row r="76" spans="2:13">
-      <c r="B76" s="11"/>
-      <c r="C76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="12"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
@@ -10607,11 +10738,11 @@
     </row>
     <row r="77" spans="2:13">
       <c r="B77" s="11"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -10620,12 +10751,12 @@
       <c r="M77" s="14"/>
     </row>
     <row r="78" spans="2:13">
-      <c r="B78" s="14"/>
-      <c r="C78" s="26"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="12"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -10635,7 +10766,7 @@
     </row>
     <row r="79" spans="2:13">
       <c r="B79" s="11"/>
-      <c r="C79" s="55"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="12"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -10648,12 +10779,12 @@
       <c r="M79" s="14"/>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="11"/>
-      <c r="C80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="12"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -10663,11 +10794,11 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="11"/>
-      <c r="C81" s="26"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="12"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
@@ -10677,11 +10808,11 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="11"/>
-      <c r="C82" s="26"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="12"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
@@ -10691,11 +10822,11 @@
     </row>
     <row r="83" spans="2:13">
       <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="12"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
@@ -10705,11 +10836,11 @@
     </row>
     <row r="84" spans="2:13">
       <c r="B84" s="11"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="12"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
@@ -10719,7 +10850,7 @@
     </row>
     <row r="85" spans="2:13">
       <c r="B85" s="11"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="12"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
@@ -10746,137 +10877,165 @@
       <c r="M86" s="14"/>
     </row>
     <row r="87" spans="2:13">
-      <c r="C87" s="1"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="14"/>
     </row>
     <row r="88" spans="2:13">
-      <c r="C88" s="1"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="14"/>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="2:13">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:13">
-      <c r="C91" s="1"/>
+    <row r="92" spans="2:13">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="C93" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B15:M86"/>
+  <autoFilter ref="B15:M88"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N41:Q41 B48:B52 C49:C52 B53:M119 I21:M21 K39:M39 B15:M16 B18:B23 D48:M48 B39:I39 B40:M47 B24:K24 C19:H19 G21 G22:H23 G20:M20 C20:F23 C18:G18 B17:G17 I17:M18 J22:M23 J19:M19 B38:M38 B37:G37 I37:M37 B27:M27 B25:J26 L25:M26 B28:K28 M28 M24 D49:J49 M52 M49:M50 L51:M51 K50 J52:K52 D50:I52 J50:J51 B29:M36">
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
+  <conditionalFormatting sqref="N43:Q43 B50:B54 C51:C54 B55:M121 K41:M41 B15:M16 B18:B23 D50:M50 B41:I41 B42:M49 B24:K24 C19:H19 G22:H23 G20:G21 C20:F23 C18:G18 B17:G17 I17:M18 J22:M23 J19:M19 B38:G38 I38:M38 B25:J26 L25:M26 B28:K28 M28 M24 D51:J51 M54 M51:M52 L53:M53 K52 J54:K54 D52:I54 J52:J53 B31:M32 I20:M21 B34:M37 B33:F33 H33:M33 I29:M30 B27:M27 B39:M40 B29:F30">
+    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31 E33 E35:E64">
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+  <conditionalFormatting sqref="E32 E34 E36:E66">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="49" priority="37" operator="equal">
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="32" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E60)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I23">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+  <conditionalFormatting sqref="L51">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+  <conditionalFormatting sqref="K53">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10913,12 +11072,12 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10926,181 +11085,181 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" t="s">
         <v>289</v>
-      </c>
-      <c r="D7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" t="s">
         <v>292</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>293</v>
-      </c>
-      <c r="F11" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="E12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" t="s">
         <v>295</v>
-      </c>
-      <c r="F12" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="E13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" t="s">
         <v>297</v>
-      </c>
-      <c r="F13" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="E15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" t="s">
         <v>299</v>
-      </c>
-      <c r="F15" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="E16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" t="s">
         <v>301</v>
-      </c>
-      <c r="F16" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="E17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" t="s">
         <v>303</v>
-      </c>
-      <c r="F17" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" t="s">
         <v>305</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>306</v>
-      </c>
-      <c r="F19" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="E20" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" t="s">
         <v>308</v>
-      </c>
-      <c r="F20" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="D22" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" t="s">
         <v>310</v>
-      </c>
-      <c r="E22" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" t="s">
         <v>312</v>
-      </c>
-      <c r="E24" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="E28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="D30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" t="s">
         <v>317</v>
-      </c>
-      <c r="E30" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="D32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" t="s">
         <v>319</v>
-      </c>
-      <c r="E32" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="E33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="D35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E35" t="s">
         <v>322</v>
-      </c>
-      <c r="E35" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="E36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="E37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="E38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11108,73 +11267,73 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="C41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="C42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="C43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="C45" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45" t="s">
         <v>331</v>
-      </c>
-      <c r="D45" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="D47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="D48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="D49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="D50" t="s">
+        <v>321</v>
+      </c>
+      <c r="E50" t="s">
         <v>322</v>
-      </c>
-      <c r="E50" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="E51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="E52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="E53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -11215,17 +11374,17 @@
     </row>
     <row r="62" spans="1:5">
       <c r="C62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="C63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="C64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -11233,7 +11392,7 @@
     </row>
     <row r="66" spans="2:3">
       <c r="C66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -11241,7 +11400,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -13980,113 +14139,113 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H39 H36:L38 H29:I30 B20:M20 I28:L28 I31:I32 M29:M39 K39:L41 H40:J40 J21:M22 J39 J19:L19 J29:K29 J31:K35 L29:L31 I22 H27:M27 B19:H19 B21:H22 B46:Q52 B41:J41 B23:M25 B27:G40 B42:M45 B53:M138 B13:M18">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E52">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14103,8 +14262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13240" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="32140" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="2" r:id="rId1"/>
@@ -1377,10 +1377,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>动画表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源加载管理模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1408,10 +1404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据结构和协议定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主角属性，账号基础数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1512,6 +1504,14 @@
   </si>
   <si>
     <t>策划配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据结构和协议定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局，技能动画表现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1672,7 +1672,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="184">
+  <cellStyleXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1683,6 +1683,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2047,8 +2053,103 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="184">
+  <cellStyles count="190">
     <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2140,100 +2241,39 @@
     <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2577,13 +2617,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2680,41 +2713,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9334,11 +9332,11 @@
   <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9518,10 +9516,10 @@
         <v>271</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -9534,7 +9532,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
@@ -9544,10 +9542,10 @@
         <v>270</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -9572,13 +9570,12 @@
       <c r="G19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="J19" s="60"/>
+      <c r="I19" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="14"/>
@@ -9588,7 +9585,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -9603,7 +9600,7 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="62" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
@@ -9614,7 +9611,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
@@ -9624,8 +9621,9 @@
         <v>270</v>
       </c>
       <c r="G21" s="11"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
@@ -9637,7 +9635,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
@@ -9647,30 +9645,30 @@
         <v>270</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="J22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
       <c r="B23" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D23" s="17">
         <v>3</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="60"/>
@@ -9678,7 +9676,7 @@
       <c r="J23" s="60"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M23" s="14"/>
     </row>
@@ -9701,10 +9699,10 @@
       <c r="I24" s="9"/>
       <c r="J24" s="60"/>
       <c r="K24" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M24" s="14"/>
     </row>
@@ -9726,10 +9724,10 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L25" s="60"/>
       <c r="M25" s="14"/>
@@ -9752,10 +9750,10 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L26" s="60"/>
       <c r="M26" s="14"/>
@@ -9775,13 +9773,13 @@
         <v>271</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L27" s="60"/>
       <c r="M27" s="14"/>
@@ -9791,7 +9789,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D28" s="12">
         <v>2</v>
@@ -9805,20 +9803,20 @@
       <c r="I28" s="9"/>
       <c r="J28" s="60"/>
       <c r="K28" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D29" s="33">
         <v>2</v>
@@ -9828,7 +9826,7 @@
         <v>271</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H29" s="64" t="s">
         <v>104</v>
@@ -9837,27 +9835,27 @@
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D30" s="33">
         <v>2</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H30" s="64" t="s">
         <v>104</v>
@@ -9866,7 +9864,7 @@
       <c r="J30" s="60"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M30" s="14"/>
     </row>
@@ -9893,7 +9891,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1">
@@ -9912,7 +9910,7 @@
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="60" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="60"/>
@@ -9936,7 +9934,7 @@
         <v>104</v>
       </c>
       <c r="H33" s="60" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="60"/>
@@ -9960,7 +9958,7 @@
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="60" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="60"/>
@@ -9986,7 +9984,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J35" s="60"/>
       <c r="K35" s="60"/>
@@ -10026,23 +10024,23 @@
         <v>116</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" s="27">
         <v>1</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -10052,21 +10050,21 @@
     </row>
     <row r="39" spans="1:17">
       <c r="B39" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="D39" s="27">
         <v>1</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -10076,21 +10074,21 @@
     </row>
     <row r="40" spans="1:17">
       <c r="B40" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D40" s="27">
         <v>1</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="40"/>
@@ -10118,7 +10116,7 @@
       <c r="I41" s="11"/>
       <c r="K41" s="28"/>
       <c r="L41" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M41" s="15"/>
     </row>
@@ -10143,7 +10141,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="28"/>
       <c r="L42" s="62" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M42" s="15"/>
     </row>
@@ -10314,7 +10312,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="13"/>
       <c r="G50" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -10340,7 +10338,7 @@
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="11"/>
@@ -10364,7 +10362,7 @@
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="28"/>
@@ -10388,7 +10386,7 @@
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="11"/>
@@ -10412,7 +10410,7 @@
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="28"/>
@@ -10919,123 +10917,128 @@
   </sheetData>
   <autoFilter ref="B15:M88"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N43:Q43 B50:B54 C51:C54 B55:M121 K41:M41 B15:M16 B18:B23 D50:M50 B41:I41 B42:M49 B24:K24 C19:H19 G22:H23 G20:G21 C20:F23 C18:G18 B17:G17 I17:M18 J22:M23 J19:M19 B38:G38 I38:M38 B25:J26 L25:M26 B28:K28 M28 M24 D51:J51 M54 M51:M52 L53:M53 K52 J54:K54 D52:I54 J52:J53 B31:M32 I20:M21 B34:M37 B33:F33 H33:M33 I29:M30 B27:M27 B39:M40 B29:F30">
-    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
+  <conditionalFormatting sqref="N43:Q43 B50:B54 C51:C54 B55:M121 K41:M41 B15:M16 B18:B23 D50:M50 B41:I41 B42:M49 B24:K24 C20:F23 B17:G17 I17:M18 K19:M19 B38:G38 I38:M38 B25:J26 L25:M26 B28:K28 M28 M24 D51:J51 M54 M51:M52 L53:M53 K52 J54:K54 D52:I54 J52:J53 B31:M32 B34:M37 B33:F33 H33:M33 I29:M30 B27:M27 B39:M40 B29:F30 C18:G19 I19 G20:G22 G23:M23 I20:M22">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32 E34 E36:E66">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="43" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="53" priority="44" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="50" priority="40" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I23">
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11138,7 +11141,7 @@
         <v>277</v>
       </c>
       <c r="F14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11392,7 +11395,7 @@
     </row>
     <row r="66" spans="2:3">
       <c r="C66" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -14139,113 +14142,113 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H39 H36:L38 H29:I30 B20:M20 I28:L28 I31:I32 M29:M39 K39:L41 H40:J40 J21:M22 J39 J19:L19 J29:K29 J31:K35 L29:L31 I22 H27:M27 B19:H19 B21:H22 B46:Q52 B41:J41 B23:M25 B27:G40 B42:M45 B53:M138 B13:M18">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E52">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\手游1\项目管理\进度计划\Demo-里程碑1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="32140" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33255" windowHeight="19680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$M$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$N$89</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="380">
   <si>
     <t>Demo目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1061,10 +1066,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1488,30 +1489,58 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Demo关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA测试</t>
+  </si>
+  <si>
+    <t>QA测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据结构和协议定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局，技能动画表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统（服务器计算？对局内操作？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-大招操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>关卡设计配置接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Demo关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA测试</t>
-  </si>
-  <si>
-    <t>QA测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据结构和协议定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局，技能动画表现</t>
+    <t>程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1W7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1672,7 +1701,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="190">
+  <cellStyleXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1683,6 +1712,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2053,103 +2146,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="190">
+  <cellStyles count="254">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="7"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2244,22 +2243,166 @@
     <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="56">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2617,6 +2760,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2728,6 +2885,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5856,1758 +6016,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{F3987FD7-0363-8349-8E23-CADABABBCC9F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1975" y="913354"/>
-          <a:ext cx="2313506" cy="925402"/>
-        </a:xfrm>
-        <a:prstGeom prst="chevron">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="0"/>
-                <a:satOff val="0"/>
-                <a:lumOff val="0"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>辅助项</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="464676" y="913354"/>
-        <a:ext cx="1388104" cy="925402"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1975" y="1954432"/>
-          <a:ext cx="1850804" cy="3341960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>服务器网络调通</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>数据结构和协议定义</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>导表工具</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>美术资源需求模板</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1975" y="1954432"/>
-        <a:ext cx="1850804" cy="3341960"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{7C1B4582-0BDC-2843-AB16-5B8D68C36170}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2099481" y="913354"/>
-          <a:ext cx="2313506" cy="925402"/>
-        </a:xfrm>
-        <a:prstGeom prst="chevron">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="2812566"/>
-                <a:satOff val="-4220"/>
-                <a:lumOff val="-686"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="2812566"/>
-                <a:satOff val="-4220"/>
-                <a:lumOff val="-686"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>主角属性</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2562182" y="913354"/>
-        <a:ext cx="1388104" cy="925402"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2099481" y="1954432"/>
-          <a:ext cx="1850804" cy="3341960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>账号基础数据存储</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>角色携带宠物</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>主角形象</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2099481" y="1954432"/>
-        <a:ext cx="1850804" cy="3341960"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{ACE6A4F1-B196-7849-9682-3583839A5888}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4196987" y="913354"/>
-          <a:ext cx="2313506" cy="925402"/>
-        </a:xfrm>
-        <a:prstGeom prst="chevron">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="5625133"/>
-                <a:satOff val="-8440"/>
-                <a:lumOff val="-1373"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="5625133"/>
-                <a:satOff val="-8440"/>
-                <a:lumOff val="-1373"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>宠物</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="4659688" y="913354"/>
-        <a:ext cx="1388104" cy="925402"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F190ED85-3748-ED49-BAF9-06793D9C2452}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4196987" y="1954432"/>
-          <a:ext cx="1850804" cy="3341960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>属性</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>具体宠物设计</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>技能</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>AI</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>数值</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>形象</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="4196987" y="1954432"/>
-        <a:ext cx="1850804" cy="3341960"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{499707EF-AEF3-D049-929E-A6C1AD4B2E97}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6294493" y="913354"/>
-          <a:ext cx="2313506" cy="925402"/>
-        </a:xfrm>
-        <a:prstGeom prst="chevron">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="8437700"/>
-                <a:satOff val="-12660"/>
-                <a:lumOff val="-2059"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="8437700"/>
-                <a:satOff val="-12660"/>
-                <a:lumOff val="-2059"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>核心战斗</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6757194" y="913354"/>
-        <a:ext cx="1388104" cy="925402"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6294493" y="1954432"/>
-          <a:ext cx="1850804" cy="3341960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>资源加载管理模块</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>伤害公式</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>技能</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>对局表现（需要等待</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>xw</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>测试，时间未知）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>怪物站位</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>镜头</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>基础</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>UI</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>换宠</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>照妖镜</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>战斗流程</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>进程</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>战斗</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>AI</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6294493" y="1954432"/>
-        <a:ext cx="1850804" cy="3341960"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{977D602D-F673-7E49-B164-FAB3DC03A678}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8391999" y="913354"/>
-          <a:ext cx="2313506" cy="925402"/>
-        </a:xfrm>
-        <a:prstGeom prst="chevron">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="0">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="11250266"/>
-                <a:satOff val="-16880"/>
-                <a:lumOff val="-2745"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="11250266"/>
-                <a:satOff val="-16880"/>
-                <a:lumOff val="-2745"/>
-                <a:alphaOff val="0"/>
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>具体关卡</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8854700" y="913354"/>
-        <a:ext cx="1388104" cy="925402"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{C6F93011-D594-7449-AAF3-CE818BCA503B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="8391999" y="1954432"/>
-          <a:ext cx="1850804" cy="3341960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>玩法设计</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>怪物</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>技能</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>AI</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>数值</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>形象</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>对局</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>战斗场景</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>进程刷怪</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>结束条件</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>副本</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>美术资源</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>3D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>角色</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>3D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>场景</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="15000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
-              <a:latin typeface="微软雅黑"/>
-              <a:ea typeface="微软雅黑"/>
-              <a:cs typeface="微软雅黑"/>
-            </a:rPr>
-            <a:t>动作，特效</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
-            <a:latin typeface="微软雅黑"/>
-            <a:ea typeface="微软雅黑"/>
-            <a:cs typeface="微软雅黑"/>
-          </a:endParaRPr>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8391999" y="1954432"/>
-        <a:ext cx="1850804" cy="3341960"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -9329,77 +7737,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="11.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="36" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="7.5703125" style="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="7.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="2" spans="2:13">
-      <c r="C2" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="C3" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="16">
-      <c r="C4" s="2" t="s">
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="2:13" ht="16">
-      <c r="C5" s="2" t="s">
+      <c r="H5" s="59"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="C7" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -9407,7 +7815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -9415,7 +7823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
@@ -9423,7 +7831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -9431,10 +7839,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -9468,11 +7876,14 @@
       <c r="L15" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -9496,98 +7907,107 @@
       <c r="L16" s="8">
         <v>42130</v>
       </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="8">
+        <v>42137</v>
+      </c>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F17" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="9"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F18" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="30">
+      <c r="M18" s="9"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="33" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>104</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="K19" s="60"/>
+        <v>344</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>349</v>
+      </c>
       <c r="L19" s="60"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="M19" s="60"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="12">
         <v>1</v>
       </c>
       <c r="E20" s="5"/>
@@ -9595,144 +8015,150 @@
         <v>270</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="K20" s="60"/>
+      <c r="H20" s="9"/>
+      <c r="J20" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>349</v>
+      </c>
       <c r="L20" s="60"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1</v>
+      <c r="M20" s="60"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="15" t="s">
-        <v>33</v>
+      <c r="K21" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="60"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="L22" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="M22" s="60"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>358</v>
+        <v>33</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D23" s="17">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F23" s="11" t="s">
-        <v>359</v>
+        <v>269</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="60" t="s">
+        <v>339</v>
+      </c>
       <c r="J23" s="60"/>
       <c r="K23" s="60"/>
-      <c r="L23" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="17">
         <v>1</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="11" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="H24" s="60"/>
+      <c r="I24" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="11" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="L25" s="60"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="J25" s="60"/>
+      <c r="K25" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
@@ -9744,21 +8170,21 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="L26" s="60"/>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="K26" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
@@ -9770,63 +8196,64 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="14"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D28" s="12">
-        <v>2</v>
+      <c r="L27" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="64" t="s">
+        <v>104</v>
+      </c>
       <c r="I28" s="9"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="K28" s="60"/>
+      <c r="M28" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>366</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="D29" s="33">
         <v>2</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="11" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H29" s="64" t="s">
         <v>104</v>
@@ -9835,27 +8262,28 @@
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:13">
+        <v>369</v>
+      </c>
+      <c r="M29" s="60"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>365</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D30" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="11" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H30" s="64" t="s">
         <v>104</v>
@@ -9863,100 +8291,107 @@
       <c r="I30" s="9"/>
       <c r="J30" s="60"/>
       <c r="K30" s="60"/>
-      <c r="L30" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="L30" s="60"/>
+      <c r="M30" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="17">
         <v>3</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+        <v>358</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="60"/>
       <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="60" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1">
-      <c r="B32" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>279</v>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="F32" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="60" t="s">
-        <v>354</v>
-      </c>
+      <c r="G32" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="60"/>
       <c r="K32" s="60"/>
       <c r="L32" s="60"/>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>256</v>
+      <c r="M32" s="60"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="D33" s="12">
         <v>3</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="F33" s="11" t="s">
         <v>104</v>
       </c>
+      <c r="G33" s="9"/>
       <c r="H33" s="60" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="60"/>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="B34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>234</v>
+      <c r="M33" s="60"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="D34" s="12">
         <v>3</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F34" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="9"/>
       <c r="H34" s="60" t="s">
         <v>354</v>
       </c>
@@ -9964,50 +8399,65 @@
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>278</v>
+      <c r="M34" s="60"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>234</v>
       </c>
       <c r="D35" s="12">
         <v>3</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F35" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60" t="s">
-        <v>354</v>
-      </c>
+      <c r="H35" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35" s="60"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="B36" s="11"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="12">
+        <v>3</v>
+      </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="15"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="F36" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B37" s="11"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="27"/>
       <c r="E37" s="5"/>
       <c r="F37" s="28"/>
@@ -10017,116 +8467,117 @@
       <c r="J37" s="11"/>
       <c r="K37" s="28"/>
       <c r="L37" s="28"/>
-      <c r="M37" s="15"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="D38" s="27">
-        <v>1</v>
-      </c>
+      <c r="M37" s="28"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B38" s="11"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>350</v>
-      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
-      <c r="M38" s="15"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="M38" s="28"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B39" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D39" s="27">
         <v>1</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F39" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28" t="s">
-        <v>345</v>
+        <v>349</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="28"/>
       <c r="L39" s="28"/>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="M39" s="28"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="11" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D40" s="27">
         <v>1</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F40" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="I40" s="11"/>
-      <c r="J40" s="40"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="28"/>
       <c r="L40" s="28"/>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="30"/>
-      <c r="B41" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="33">
+      <c r="M40" s="28"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B41" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="27">
         <v>1</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="50" t="s">
-        <v>235</v>
+      <c r="E41" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="28" t="s">
+        <v>362</v>
+      </c>
       <c r="I41" s="11"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="28"/>
-      <c r="L41" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="30"/>
       <c r="B42" s="20" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="D42" s="33">
         <v>1</v>
@@ -10138,51 +8589,53 @@
       <c r="G42" s="28"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
       <c r="K42" s="28"/>
-      <c r="L42" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="M42" s="15"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="B43" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>280</v>
+      <c r="L42" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>274</v>
       </c>
       <c r="D43" s="33">
         <v>1</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="13" t="s">
-        <v>257</v>
+      <c r="F43" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="5"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="41"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="B44" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" s="27">
-        <v>2</v>
+      <c r="L43" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" s="33">
+        <v>1</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="13" t="s">
         <v>257</v>
       </c>
       <c r="G44" s="28"/>
@@ -10191,21 +8644,26 @@
       <c r="J44" s="5"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
-      <c r="M44" s="15"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="B45" s="11" t="s">
-        <v>238</v>
+      <c r="M44" s="28"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="41"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B45" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="D45" s="27">
         <v>2</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="28" t="s">
-        <v>271</v>
+      <c r="F45" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="11"/>
@@ -10213,21 +8671,22 @@
       <c r="J45" s="5"/>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
-      <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="M45" s="28"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B46" s="11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D46" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="11"/>
@@ -10235,22 +8694,22 @@
       <c r="J46" s="5"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="30"/>
-      <c r="B47" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="33">
+      <c r="M46" s="28"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B47" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="27">
         <v>3</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="50" t="s">
-        <v>235</v>
+      <c r="F47" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="11"/>
@@ -10258,21 +8717,23 @@
       <c r="J47" s="5"/>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="15"/>
-    </row>
-    <row r="48" spans="1:17" s="42" customFormat="1">
+      <c r="M47" s="28"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
       <c r="B48" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="51">
+      <c r="C48" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="33">
         <v>3</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="13" t="s">
-        <v>271</v>
+      <c r="F48" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="11"/>
@@ -10280,125 +8741,129 @@
       <c r="J48" s="5"/>
       <c r="K48" s="28"/>
       <c r="L48" s="28"/>
-      <c r="M48" s="15"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="B49" s="15"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="33"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="51">
+        <v>3</v>
+      </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="G49" s="28"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="5"/>
       <c r="K49" s="28"/>
       <c r="L49" s="28"/>
-      <c r="M49" s="15"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" s="27">
-        <v>1</v>
-      </c>
+      <c r="M49" s="28"/>
+      <c r="N49" s="15"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B50" s="15"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="5"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="28" t="s">
-        <v>356</v>
-      </c>
+      <c r="G50" s="28"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="5"/>
       <c r="K50" s="28"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="15"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="M50" s="28"/>
+      <c r="N50" s="15"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="B51" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>251</v>
+        <v>271</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="D51" s="27">
         <v>1</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="11" t="s">
-        <v>273</v>
+      <c r="G51" s="28" t="s">
+        <v>355</v>
       </c>
       <c r="H51" s="11"/>
-      <c r="I51" s="11" t="s">
-        <v>357</v>
-      </c>
+      <c r="I51" s="11"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="15"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="15"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D52" s="33">
+        <v>251</v>
+      </c>
+      <c r="D52" s="27">
         <v>1</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="13"/>
       <c r="G52" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J52" s="5"/>
-      <c r="K52" s="28"/>
+      <c r="K52" s="11"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="15"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="M52" s="11"/>
+      <c r="N52" s="15"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D53" s="27">
+        <v>248</v>
+      </c>
+      <c r="D53" s="33">
         <v>1</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="13"/>
       <c r="G53" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="15"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="K53" s="28"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="15"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D54" s="27">
         <v>1</v>
@@ -10406,77 +8871,92 @@
       <c r="E54" s="5"/>
       <c r="F54" s="13"/>
       <c r="G54" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="15"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="B55" s="15"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="33"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="15"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="27">
+        <v>1</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="I55" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="15"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="2" t="s">
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="15"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B56" s="15"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="1:13" s="42" customFormat="1">
-      <c r="B57" s="11"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="12"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="15"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="B58" s="15"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="33"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="11"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="13"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="28"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="5"/>
       <c r="K58" s="28"/>
       <c r="L58" s="28"/>
-      <c r="M58" s="15"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="M58" s="28"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B59" s="15"/>
       <c r="C59" s="53"/>
       <c r="D59" s="33"/>
@@ -10488,71 +8968,76 @@
       <c r="J59" s="5"/>
       <c r="K59" s="28"/>
       <c r="L59" s="28"/>
-      <c r="M59" s="15"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="12"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="15"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B60" s="15"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="11"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="28"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="5"/>
       <c r="K60" s="28"/>
       <c r="L60" s="28"/>
-      <c r="M60" s="15"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="M60" s="28"/>
+      <c r="N60" s="15"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="26"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="12"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="28"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="15"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B62" s="11"/>
-      <c r="C62" s="55"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="12"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
-      <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="M62" s="11"/>
+      <c r="N62" s="14"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="26"/>
+      <c r="C63" s="55"/>
       <c r="D63" s="12"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
-      <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="M63" s="11"/>
+      <c r="N63" s="14"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B64" s="11"/>
       <c r="C64" s="26"/>
       <c r="D64" s="12"/>
@@ -10564,53 +9049,57 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
-      <c r="M64" s="14"/>
-    </row>
-    <row r="65" spans="2:13">
+      <c r="M64" s="11"/>
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B65" s="11"/>
       <c r="C65" s="26"/>
       <c r="D65" s="12"/>
       <c r="E65" s="5"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
+      <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="2:13">
+      <c r="M65" s="11"/>
+      <c r="N65" s="14"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
       <c r="D66" s="12"/>
       <c r="E66" s="5"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
-      <c r="M66" s="14"/>
-    </row>
-    <row r="67" spans="2:13">
+      <c r="M66" s="11"/>
+      <c r="N66" s="14"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
       <c r="D67" s="12"/>
-      <c r="E67" s="11"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
-      <c r="M67" s="14"/>
-    </row>
-    <row r="68" spans="2:13">
+      <c r="M67" s="11"/>
+      <c r="N67" s="14"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B68" s="11"/>
-      <c r="C68" s="57"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="12"/>
       <c r="E68" s="11"/>
       <c r="F68" s="19"/>
@@ -10620,11 +9109,12 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
-      <c r="M68" s="14"/>
-    </row>
-    <row r="69" spans="2:13">
+      <c r="M68" s="11"/>
+      <c r="N68" s="14"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B69" s="11"/>
-      <c r="C69" s="55"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="12"/>
       <c r="E69" s="11"/>
       <c r="F69" s="19"/>
@@ -10634,23 +9124,25 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
-      <c r="M69" s="14"/>
-    </row>
-    <row r="70" spans="2:13">
+      <c r="M69" s="11"/>
+      <c r="N69" s="14"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B70" s="11"/>
       <c r="C70" s="55"/>
       <c r="D70" s="12"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
-      <c r="M70" s="14"/>
-    </row>
-    <row r="71" spans="2:13">
+      <c r="M70" s="11"/>
+      <c r="N70" s="14"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B71" s="11"/>
       <c r="C71" s="55"/>
       <c r="D71" s="12"/>
@@ -10662,9 +9154,10 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
-      <c r="M71" s="14"/>
-    </row>
-    <row r="72" spans="2:13">
+      <c r="M71" s="11"/>
+      <c r="N71" s="14"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B72" s="11"/>
       <c r="C72" s="55"/>
       <c r="D72" s="12"/>
@@ -10676,9 +9169,10 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
-      <c r="M72" s="14"/>
-    </row>
-    <row r="73" spans="2:13">
+      <c r="M72" s="11"/>
+      <c r="N72" s="14"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B73" s="11"/>
       <c r="C73" s="55"/>
       <c r="D73" s="12"/>
@@ -10690,12 +9184,13 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
-      <c r="M73" s="14"/>
-    </row>
-    <row r="74" spans="2:13">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="46"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="14"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B74" s="11"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
@@ -10704,12 +9199,13 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
-      <c r="M74" s="58"/>
-    </row>
-    <row r="75" spans="2:13">
-      <c r="B75" s="11"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="12"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="14"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="46"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
@@ -10718,24 +9214,26 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
-      <c r="M75" s="14"/>
-    </row>
-    <row r="76" spans="2:13">
-      <c r="B76" s="14"/>
-      <c r="C76" s="26"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="58"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B76" s="11"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="12"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
-      <c r="M76" s="14"/>
-    </row>
-    <row r="77" spans="2:13">
-      <c r="B77" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="14"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B77" s="14"/>
       <c r="C77" s="26"/>
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
@@ -10746,23 +9244,25 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="14"/>
-    </row>
-    <row r="78" spans="2:13">
+      <c r="M77" s="11"/>
+      <c r="N77" s="14"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="12"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
-      <c r="M78" s="14"/>
-    </row>
-    <row r="79" spans="2:13">
+      <c r="M78" s="11"/>
+      <c r="N78" s="14"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="11"/>
       <c r="C79" s="14"/>
       <c r="D79" s="12"/>
@@ -10774,39 +9274,42 @@
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
-      <c r="M79" s="14"/>
-    </row>
-    <row r="80" spans="2:13">
-      <c r="B80" s="14"/>
-      <c r="C80" s="26"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="14"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="11"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="12"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="2:13">
-      <c r="B81" s="11"/>
-      <c r="C81" s="55"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="14"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B81" s="14"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="12"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
-      <c r="M81" s="14"/>
-    </row>
-    <row r="82" spans="2:13">
+      <c r="M81" s="11"/>
+      <c r="N81" s="14"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B82" s="11"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="12"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -10816,23 +9319,25 @@
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
-      <c r="M82" s="14"/>
-    </row>
-    <row r="83" spans="2:13">
+      <c r="M82" s="11"/>
+      <c r="N82" s="14"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
-      <c r="C83" s="26"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="12"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
-      <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="2:13">
+      <c r="M83" s="11"/>
+      <c r="N83" s="14"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="12"/>
@@ -10844,25 +9349,27 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
-      <c r="M84" s="14"/>
-    </row>
-    <row r="85" spans="2:13">
+      <c r="M84" s="11"/>
+      <c r="N84" s="14"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="12"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
-      <c r="M85" s="14"/>
-    </row>
-    <row r="86" spans="2:13">
+      <c r="M85" s="11"/>
+      <c r="N85" s="14"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="12"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -10872,9 +9379,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
-      <c r="M86" s="14"/>
-    </row>
-    <row r="87" spans="2:13">
+      <c r="M86" s="11"/>
+      <c r="N86" s="14"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="11"/>
       <c r="C87" s="14"/>
       <c r="D87" s="12"/>
@@ -10886,9 +9394,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="14"/>
-    </row>
-    <row r="88" spans="2:13">
+      <c r="M87" s="11"/>
+      <c r="N87" s="14"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="11"/>
       <c r="C88" s="14"/>
       <c r="D88" s="12"/>
@@ -10900,144 +9409,165 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
-      <c r="M88" s="14"/>
-    </row>
-    <row r="89" spans="2:13">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="2:13">
+      <c r="M88" s="11"/>
+      <c r="N88" s="14"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="11"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="14"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C90" s="1"/>
     </row>
-    <row r="92" spans="2:13">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="2:13">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C93" s="1"/>
     </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C94" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B15:M88"/>
+  <autoFilter ref="B15:N89"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N43:Q43 B50:B54 C51:C54 B55:M121 K41:M41 B15:M16 B18:B23 D50:M50 B41:I41 B42:M49 B24:K24 C20:F23 B17:G17 I17:M18 K19:M19 B38:G38 I38:M38 B25:J26 L25:M26 B28:K28 M28 M24 D51:J51 M54 M51:M52 L53:M53 K52 J54:K54 D52:I54 J52:J53 B31:M32 B34:M37 B33:F33 H33:M33 I29:M30 B27:M27 B39:M40 B29:F30 C18:G19 I19 G20:G22 G23:M23 I20:M22">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+  <conditionalFormatting sqref="O44:R44 B51:B55 C52:C55 B56:N122 K42:L42 D51:N51 B42:I42 B25:K25 I17:N18 B39:G39 I39:N39 D52:J52 N55 N52:N53 L54:N54 K53 J55:K55 D53:I55 J53:J54 B35:N38 B34:F34 H34:N34 B40:N41 B17:G19 I19 L19:N20 B21:J21 I22 B26:I26 K26 N25:N27 B27:J27 B28:G28 I28 B15:N16 K28 M28:N28 L27 I29:N30 B32:N33 I24:N24 J23:N23 H23 B20:H20 J20 B29:F31 G31:K31 M31:N31 B22:G24 B43:N50 M21:N22 K21:K22 N42">
+    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32 E34 E36:E66">
-    <cfRule type="cellIs" dxfId="54" priority="43" operator="equal">
+  <conditionalFormatting sqref="E33 E35 E37:E67">
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="44" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E32)))</formula>
+    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="40" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="34" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E62)))</formula>
+    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
+  <conditionalFormatting sqref="C51">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+  <conditionalFormatting sqref="K19 J22">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+  <conditionalFormatting sqref="L26:M26">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+  <conditionalFormatting sqref="L25:M25">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+  <conditionalFormatting sqref="K52">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+  <conditionalFormatting sqref="L52:M52">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+  <conditionalFormatting sqref="L55:M55">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+  <conditionalFormatting sqref="L53:M53">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+  <conditionalFormatting sqref="K54">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="M27">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M42">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -11060,14 +9590,14 @@
       <selection activeCell="F38" sqref="E11:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11075,271 +9605,271 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="C4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>288</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="D8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>291</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>292</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>294</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>296</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>298</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>300</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>302</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>304</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>305</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>307</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>309</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>311</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
-      <c r="C26" t="s">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
         <v>314</v>
       </c>
-      <c r="E27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="E28" t="s">
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>316</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>318</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="E33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>321</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="E36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="E37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="E38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="C41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="C42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="C43" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>330</v>
       </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="D46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="D47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="D48" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="D49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50" t="s">
         <v>321</v>
       </c>
-      <c r="E50" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="E51" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="E52" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="E53" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -11350,63 +9880,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C65" s="61"/>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>7</v>
       </c>
@@ -11414,7 +9944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -11439,9 +9969,9 @@
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
@@ -11452,7 +9982,7 @@
       <c r="I68" s="59"/>
       <c r="J68" s="59"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -11463,7 +9993,7 @@
       <c r="I69" s="59"/>
       <c r="J69" s="59"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
@@ -11474,7 +10004,7 @@
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
@@ -11485,7 +10015,7 @@
       <c r="I71" s="59"/>
       <c r="J71" s="59"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
@@ -11496,7 +10026,7 @@
       <c r="I72" s="59"/>
       <c r="J72" s="59"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -11507,7 +10037,7 @@
       <c r="I73" s="59"/>
       <c r="J73" s="59"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
@@ -11518,7 +10048,7 @@
       <c r="I74" s="59"/>
       <c r="J74" s="59"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
@@ -11529,7 +10059,7 @@
       <c r="I75" s="59"/>
       <c r="J75" s="59"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
@@ -11540,7 +10070,7 @@
       <c r="I76" s="59"/>
       <c r="J76" s="59"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -11551,7 +10081,7 @@
       <c r="I77" s="59"/>
       <c r="J77" s="59"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -11562,7 +10092,7 @@
       <c r="I78" s="59"/>
       <c r="J78" s="59"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -11573,7 +10103,7 @@
       <c r="I79" s="59"/>
       <c r="J79" s="59"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -11584,7 +10114,7 @@
       <c r="I80" s="59"/>
       <c r="J80" s="59"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -11595,7 +10125,7 @@
       <c r="I81" s="59"/>
       <c r="J81" s="59"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
@@ -11606,7 +10136,7 @@
       <c r="I82" s="59"/>
       <c r="J82" s="59"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
@@ -11617,7 +10147,7 @@
       <c r="I83" s="59"/>
       <c r="J83" s="59"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
@@ -11628,7 +10158,7 @@
       <c r="I84" s="59"/>
       <c r="J84" s="59"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -11639,7 +10169,7 @@
       <c r="I85" s="59"/>
       <c r="J85" s="59"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
@@ -11650,7 +10180,7 @@
       <c r="I86" s="59"/>
       <c r="J86" s="59"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
@@ -11661,7 +10191,7 @@
       <c r="I87" s="59"/>
       <c r="J87" s="59"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
@@ -11672,7 +10202,7 @@
       <c r="I88" s="59"/>
       <c r="J88" s="59"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
@@ -11683,7 +10213,7 @@
       <c r="I89" s="59"/>
       <c r="J89" s="59"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
@@ -11694,7 +10224,7 @@
       <c r="I90" s="59"/>
       <c r="J90" s="59"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
@@ -11705,7 +10235,7 @@
       <c r="I91" s="59"/>
       <c r="J91" s="59"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
@@ -11716,7 +10246,7 @@
       <c r="I92" s="59"/>
       <c r="J92" s="59"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
@@ -11727,7 +10257,7 @@
       <c r="I93" s="59"/>
       <c r="J93" s="59"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
@@ -11738,7 +10268,7 @@
       <c r="I94" s="59"/>
       <c r="J94" s="59"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
@@ -11749,7 +10279,7 @@
       <c r="I95" s="59"/>
       <c r="J95" s="59"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
@@ -11760,7 +10290,7 @@
       <c r="I96" s="59"/>
       <c r="J96" s="59"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
@@ -11771,7 +10301,7 @@
       <c r="I97" s="59"/>
       <c r="J97" s="59"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
@@ -11782,7 +10312,7 @@
       <c r="I98" s="59"/>
       <c r="J98" s="59"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
       <c r="D99" s="59"/>
@@ -11793,7 +10323,7 @@
       <c r="I99" s="59"/>
       <c r="J99" s="59"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
       <c r="D100" s="59"/>
@@ -11804,7 +10334,7 @@
       <c r="I100" s="59"/>
       <c r="J100" s="59"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
@@ -11815,7 +10345,7 @@
       <c r="I101" s="59"/>
       <c r="J101" s="59"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
       <c r="D102" s="59"/>
@@ -11826,7 +10356,7 @@
       <c r="I102" s="59"/>
       <c r="J102" s="59"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
       <c r="D103" s="59"/>
@@ -11858,21 +10388,21 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="12" width="11.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="36" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="7.5703125" style="1"/>
+    <col min="14" max="16384" width="7.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -11880,13 +10410,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
@@ -11894,7 +10424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -11902,7 +10432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
@@ -11910,7 +10440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
@@ -11918,10 +10448,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -11959,7 +10489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -11985,7 +10515,7 @@
       </c>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -11999,7 +10529,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -12025,7 +10555,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="30">
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
@@ -12055,7 +10585,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
@@ -12087,7 +10617,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="30">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
@@ -12115,7 +10645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
@@ -12145,7 +10675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>56</v>
@@ -12180,7 +10710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30">
+    <row r="22" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>64</v>
@@ -12205,7 +10735,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
         <v>51</v>
@@ -12234,7 +10764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>70</v>
@@ -12265,7 +10795,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -12280,7 +10810,7 @@
       <c r="L25" s="40"/>
       <c r="M25" s="41"/>
     </row>
-    <row r="27" spans="1:13" ht="30">
+    <row r="27" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -12313,7 +10843,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="s">
         <v>82</v>
       </c>
@@ -12345,7 +10875,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B29" s="31" t="s">
         <v>51</v>
       </c>
@@ -12375,7 +10905,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" s="42" customFormat="1">
+    <row r="30" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
@@ -12403,7 +10933,7 @@
       </c>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1">
+    <row r="31" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>95</v>
       </c>
@@ -12437,7 +10967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1">
+    <row r="32" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
         <v>95</v>
       </c>
@@ -12470,7 +11000,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="45" customFormat="1" ht="45">
+    <row r="33" spans="1:17" s="45" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
@@ -12502,7 +11032,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="45" customFormat="1" ht="45">
+    <row r="34" spans="1:17" s="45" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>95</v>
       </c>
@@ -12534,7 +11064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="45" customFormat="1">
+    <row r="35" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>95</v>
       </c>
@@ -12566,7 +11096,7 @@
       <c r="L35" s="48"/>
       <c r="M35" s="49"/>
     </row>
-    <row r="36" spans="1:17" s="42" customFormat="1">
+    <row r="36" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="11"/>
       <c r="C36" s="43"/>
       <c r="D36" s="12"/>
@@ -12580,7 +11110,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
@@ -12613,7 +11143,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B38" s="11" t="s">
         <v>51</v>
       </c>
@@ -12643,7 +11173,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="20" t="s">
         <v>33</v>
@@ -12680,7 +11210,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="20" t="s">
         <v>127</v>
@@ -12713,7 +11243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="42" customFormat="1">
+    <row r="41" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="50" t="s">
         <v>51</v>
       </c>
@@ -12743,7 +11273,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="52"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B42" s="31" t="s">
         <v>51</v>
       </c>
@@ -12771,7 +11301,7 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>33</v>
       </c>
@@ -12799,7 +11329,7 @@
       <c r="L43" s="28"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
         <v>33</v>
       </c>
@@ -12827,7 +11357,7 @@
       </c>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="15" t="s">
         <v>51</v>
       </c>
@@ -12855,7 +11385,7 @@
       </c>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="50" t="s">
         <v>51</v>
       </c>
@@ -12883,7 +11413,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="20"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="50" t="s">
         <v>51</v>
       </c>
@@ -12911,7 +11441,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="20"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="50" t="s">
         <v>51</v>
       </c>
@@ -12939,7 +11469,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="20"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B49" s="50" t="s">
         <v>154</v>
       </c>
@@ -12967,7 +11497,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="20"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B50" s="50" t="s">
         <v>51</v>
       </c>
@@ -12995,7 +11525,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="20"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B51" s="50" t="s">
         <v>51</v>
       </c>
@@ -13023,7 +11553,7 @@
       <c r="P51" s="39"/>
       <c r="Q51" s="41"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="50" t="s">
         <v>51</v>
       </c>
@@ -13051,7 +11581,7 @@
       <c r="P52" s="39"/>
       <c r="Q52" s="41"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -13065,7 +11595,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -13094,7 +11624,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B55" s="11" t="s">
         <v>166</v>
       </c>
@@ -13120,7 +11650,7 @@
       <c r="L55" s="11"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B56" s="11" t="s">
         <v>168</v>
       </c>
@@ -13146,7 +11676,7 @@
       <c r="L56" s="11"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B57" s="11" t="s">
         <v>168</v>
       </c>
@@ -13172,7 +11702,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B58" s="11" t="s">
         <v>168</v>
       </c>
@@ -13198,7 +11728,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B59" s="11" t="s">
         <v>168</v>
       </c>
@@ -13224,7 +11754,7 @@
       <c r="L59" s="11"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B60" s="11" t="s">
         <v>168</v>
       </c>
@@ -13250,7 +11780,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B61" s="11" t="s">
         <v>168</v>
       </c>
@@ -13276,7 +11806,7 @@
       <c r="L61" s="11"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B62" s="11"/>
       <c r="C62" s="55"/>
       <c r="D62" s="12"/>
@@ -13290,7 +11820,7 @@
       <c r="L62" s="11"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>176</v>
       </c>
@@ -13315,7 +11845,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>179</v>
       </c>
@@ -13340,7 +11870,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" ht="30">
+    <row r="65" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>181</v>
       </c>
@@ -13371,7 +11901,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -13402,7 +11932,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -13433,7 +11963,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -13464,7 +11994,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>196</v>
       </c>
@@ -13495,7 +12025,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" s="2" customFormat="1">
+    <row r="70" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>198</v>
       </c>
@@ -13528,7 +12058,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1">
+    <row r="71" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>200</v>
       </c>
@@ -13561,7 +12091,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1">
+    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>202</v>
       </c>
@@ -13592,7 +12122,7 @@
       <c r="L72" s="11"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
@@ -13606,7 +12136,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>204</v>
       </c>
@@ -13634,7 +12164,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
       <c r="C75" s="43" t="s">
         <v>210</v>
@@ -13658,7 +12188,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B76" s="11"/>
       <c r="C76" s="43"/>
       <c r="D76" s="12"/>
@@ -13672,7 +12202,7 @@
       <c r="L76" s="11"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B77" s="11" t="s">
         <v>213</v>
       </c>
@@ -13702,7 +12232,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
       <c r="C78" s="26"/>
       <c r="D78" s="12"/>
@@ -13716,7 +12246,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>216</v>
       </c>
@@ -13743,7 +12273,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B80" s="11"/>
       <c r="C80" s="26"/>
       <c r="D80" s="12"/>
@@ -13757,7 +12287,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
         <v>219</v>
@@ -13777,7 +12307,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B82" s="11"/>
       <c r="C82" s="26" t="s">
         <v>222</v>
@@ -13797,7 +12327,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B83" s="11"/>
       <c r="C83" s="26" t="s">
         <v>224</v>
@@ -13819,7 +12349,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="12"/>
@@ -13833,7 +12363,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B85" s="11"/>
       <c r="C85" s="57"/>
       <c r="D85" s="12"/>
@@ -13847,7 +12377,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B86" s="11"/>
       <c r="C86" s="55"/>
       <c r="D86" s="12"/>
@@ -13861,7 +12391,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B87" s="11"/>
       <c r="C87" s="55"/>
       <c r="D87" s="12"/>
@@ -13875,7 +12405,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B88" s="11"/>
       <c r="C88" s="55"/>
       <c r="D88" s="12"/>
@@ -13889,7 +12419,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B89" s="11"/>
       <c r="C89" s="55"/>
       <c r="D89" s="12"/>
@@ -13903,7 +12433,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B90" s="11"/>
       <c r="C90" s="55"/>
       <c r="D90" s="12"/>
@@ -13917,7 +12447,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="46"/>
@@ -13931,7 +12461,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="58"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B92" s="11"/>
       <c r="C92" s="55"/>
       <c r="D92" s="12"/>
@@ -13945,7 +12475,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
       <c r="C93" s="26"/>
       <c r="D93" s="12"/>
@@ -13959,7 +12489,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B94" s="11"/>
       <c r="C94" s="26"/>
       <c r="D94" s="12"/>
@@ -13973,7 +12503,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="11"/>
       <c r="C95" s="14"/>
       <c r="D95" s="12"/>
@@ -13987,7 +12517,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="11"/>
       <c r="C96" s="14"/>
       <c r="D96" s="12"/>
@@ -14001,7 +12531,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B97" s="14"/>
       <c r="C97" s="26"/>
       <c r="D97" s="12"/>
@@ -14015,7 +12545,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B98" s="11"/>
       <c r="C98" s="55"/>
       <c r="D98" s="12"/>
@@ -14029,7 +12559,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
       <c r="C99" s="14"/>
       <c r="D99" s="12"/>
@@ -14043,7 +12573,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B100" s="11"/>
       <c r="C100" s="26"/>
       <c r="D100" s="12"/>
@@ -14057,7 +12587,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B101" s="11"/>
       <c r="C101" s="26"/>
       <c r="D101" s="12"/>
@@ -14071,7 +12601,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="12"/>
@@ -14085,7 +12615,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="11"/>
       <c r="C103" s="14"/>
       <c r="D103" s="12"/>
@@ -14099,7 +12629,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="11"/>
       <c r="C104" s="14"/>
       <c r="D104" s="12"/>
@@ -14113,7 +12643,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="11"/>
       <c r="C105" s="14"/>
       <c r="D105" s="12"/>
@@ -14127,128 +12657,128 @@
       <c r="L105" s="11"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H39 H36:L38 H29:I30 B20:M20 I28:L28 I31:I32 M29:M39 K39:L41 H40:J40 J21:M22 J39 J19:L19 J29:K29 J31:K35 L29:L31 I22 H27:M27 B19:H19 B21:H22 B46:Q52 B41:J41 B23:M25 B27:G40 B42:M45 B53:M138 B13:M18">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E52">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14269,9 +12799,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="63"/>
+    <col min="1" max="16384" width="10.6640625" style="63"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\手游1\项目管理\进度计划\Demo-里程碑1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33255" windowHeight="19680" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="32760" windowHeight="17900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$N$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$N$90</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="383">
   <si>
     <t>Demo目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1541,6 +1536,18 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1708,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="254">
+  <cellStyleXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1712,6 +1719,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2146,9 +2163,140 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="254">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="264">
     <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2275,148 +2423,13 @@
     <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="56">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2870,6 +2883,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6016,6 +6043,1758 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
+    <dsp:sp modelId="{F3987FD7-0363-8349-8E23-CADABABBCC9F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1975" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>辅助项</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="464676" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EAD0EA24-9B46-AC4D-94DC-31F5238E5B97}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1975" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>服务器网络调通</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数据结构和协议定义</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>导表工具</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>美术资源需求模板</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1975" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7C1B4582-0BDC-2843-AB16-5B8D68C36170}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2099481" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="2812566"/>
+                <a:satOff val="-4220"/>
+                <a:lumOff val="-686"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="2812566"/>
+                <a:satOff val="-4220"/>
+                <a:lumOff val="-686"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>主角属性</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2562182" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{50213BFD-8B9F-F247-A1B0-33ED00A8624E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2099481" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>账号基础数据存储</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>角色携带宠物</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>主角形象</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2099481" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{ACE6A4F1-B196-7849-9682-3583839A5888}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4196987" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="5625133"/>
+                <a:satOff val="-8440"/>
+                <a:lumOff val="-1373"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="5625133"/>
+                <a:satOff val="-8440"/>
+                <a:lumOff val="-1373"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>宠物</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4659688" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F190ED85-3748-ED49-BAF9-06793D9C2452}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4196987" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>具体宠物设计</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数值</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>形象</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4196987" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{499707EF-AEF3-D049-929E-A6C1AD4B2E97}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6294493" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="8437700"/>
+                <a:satOff val="-12660"/>
+                <a:lumOff val="-2059"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="8437700"/>
+                <a:satOff val="-12660"/>
+                <a:lumOff val="-2059"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>核心战斗</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6757194" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4489A390-AB3F-8544-96BF-3F86715AFBEB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6294493" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>资源加载管理模块</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>伤害公式</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>对局表现（需要等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>xw</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>测试，时间未知）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>怪物站位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>镜头</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>基础</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>换宠</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>照妖镜</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗流程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>进程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6294493" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{977D602D-F673-7E49-B164-FAB3DC03A678}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8391999" y="913354"/>
+          <a:ext cx="2313506" cy="925402"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="11250266"/>
+                <a:satOff val="-16880"/>
+                <a:lumOff val="-2745"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="11250266"/>
+                <a:satOff val="-16880"/>
+                <a:lumOff val="-2745"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="96012" tIns="32004" rIns="32004" bIns="32004" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>具体关卡</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8854700" y="913354"/>
+        <a:ext cx="1388104" cy="925402"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C6F93011-D594-7449-AAF3-CE818BCA503B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8391999" y="1954432"/>
+          <a:ext cx="1850804" cy="3341960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>玩法设计</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>怪物</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>数值</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>形象</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>对局</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>战斗场景</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>进程刷怪</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>结束条件</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>副本</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>美术资源</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>3D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>角色</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>3D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>场景</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" lvl="2" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" kern="1200">
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+              <a:cs typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>动作，特效</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" kern="1200">
+            <a:latin typeface="微软雅黑"/>
+            <a:ea typeface="微软雅黑"/>
+            <a:cs typeface="微软雅黑"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8391999" y="1954432"/>
+        <a:ext cx="1850804" cy="3341960"/>
+      </dsp:txXfrm>
+    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -7737,31 +9516,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
-    <col min="8" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="13" width="11.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="36" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="7.5546875" style="1"/>
+    <col min="15" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -7769,45 +9548,45 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14">
       <c r="C2" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14">
       <c r="C3" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="16">
       <c r="C4" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="16">
       <c r="C5" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H5" s="59"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14">
       <c r="C6" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="C7" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -7815,7 +9594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14">
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -7823,7 +9602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
@@ -7831,7 +9610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -7839,10 +9618,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14">
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -7883,7 +9662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -7912,7 +9691,7 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>260</v>
       </c>
@@ -7944,7 +9723,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14">
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
@@ -7973,7 +9752,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="30">
       <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
@@ -7990,7 +9769,8 @@
       <c r="G19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="60" t="s">
         <v>344</v>
       </c>
       <c r="K19" s="11" t="s">
@@ -8000,7 +9780,7 @@
       <c r="M19" s="60"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="B20" s="11" t="s">
         <v>29</v>
       </c>
@@ -8026,7 +9806,7 @@
       <c r="M20" s="60"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="B21" s="11" t="s">
         <v>29</v>
       </c>
@@ -8052,7 +9832,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14">
       <c r="B22" s="11" t="s">
         <v>29</v>
       </c>
@@ -8078,7 +9858,7 @@
       <c r="M22" s="60"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14">
       <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
@@ -8104,7 +9884,7 @@
       <c r="M23" s="60"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14">
       <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
@@ -8131,7 +9911,7 @@
       <c r="M24" s="60"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
@@ -8158,7 +9938,7 @@
       <c r="M25" s="11"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
@@ -8184,7 +9964,7 @@
       <c r="M26" s="11"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
@@ -8212,7 +9992,7 @@
       </c>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14">
       <c r="B28" s="15" t="s">
         <v>33</v>
       </c>
@@ -8237,7 +10017,7 @@
       </c>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>364</v>
@@ -8267,7 +10047,7 @@
       <c r="M29" s="60"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>365</v>
@@ -8297,7 +10077,7 @@
       </c>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14">
       <c r="B31" s="15" t="s">
         <v>357</v>
       </c>
@@ -8321,7 +10101,7 @@
       </c>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="B32" s="11" t="s">
         <v>259</v>
       </c>
@@ -8348,7 +10128,7 @@
       <c r="M32" s="60"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="2" customFormat="1">
       <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
@@ -8375,7 +10155,7 @@
       <c r="M33" s="60"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34" s="30"/>
       <c r="B34" s="31" t="s">
         <v>56</v>
@@ -8402,7 +10182,7 @@
       <c r="M34" s="60"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18">
       <c r="B35" s="11" t="s">
         <v>51</v>
       </c>
@@ -8429,7 +10209,7 @@
       <c r="M35" s="60"/>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36" s="30"/>
       <c r="B36" s="31" t="s">
         <v>70</v>
@@ -8440,7 +10220,9 @@
       <c r="D36" s="12">
         <v>3</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F36" s="11" t="s">
         <v>104</v>
       </c>
@@ -8455,24 +10237,35 @@
       <c r="M36" s="60"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B37" s="11"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
+    <row r="37" spans="1:18">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="12">
+        <v>3</v>
+      </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F37" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="B38" s="11"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="27"/>
       <c r="E38" s="5"/>
       <c r="F38" s="28"/>
@@ -8485,31 +10278,14 @@
       <c r="M38" s="28"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="D39" s="27">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>349</v>
-      </c>
+    <row r="39" spans="1:18">
+      <c r="B39" s="11"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="28"/>
@@ -8517,12 +10293,15 @@
       <c r="M39" s="28"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18">
+      <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B40" s="11" t="s">
         <v>348</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="D40" s="27">
         <v>1</v>
@@ -8533,9 +10312,11 @@
       <c r="F40" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28" t="s">
+      <c r="G40" s="28" t="s">
         <v>344</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -8544,12 +10325,12 @@
       <c r="M40" s="28"/>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18">
       <c r="B41" s="11" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D41" s="27">
         <v>1</v>
@@ -8562,49 +10343,49 @@
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="40"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" s="33">
+    <row r="42" spans="1:18">
+      <c r="B42" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="27">
         <v>1</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="50" t="s">
-        <v>235</v>
+      <c r="E42" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="28" t="s">
+        <v>362</v>
+      </c>
       <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="28"/>
-      <c r="L42" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>269</v>
-      </c>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
       <c r="N42" s="15"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43" s="30"/>
       <c r="B43" s="20" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="D43" s="33">
         <v>1</v>
@@ -8618,51 +10399,52 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="28"/>
-      <c r="L43" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="M43" s="11"/>
+      <c r="L43" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>279</v>
+    <row r="44" spans="1:18">
+      <c r="A44" s="30"/>
+      <c r="B44" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>274</v>
       </c>
       <c r="D44" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="13" t="s">
-        <v>257</v>
+      <c r="F44" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="5"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
+      <c r="L44" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="M44" s="11"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="41"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B45" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="D45" s="27">
-        <v>2</v>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="B45" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="33">
+        <v>1</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="13" t="s">
         <v>257</v>
       </c>
       <c r="G45" s="28"/>
@@ -8673,20 +10455,24 @@
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
       <c r="N45" s="15"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B46" s="11" t="s">
-        <v>238</v>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="41"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="B46" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="D46" s="27">
         <v>2</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="28" t="s">
-        <v>270</v>
+      <c r="F46" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="11"/>
@@ -8697,15 +10483,15 @@
       <c r="M46" s="28"/>
       <c r="N46" s="15"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18">
       <c r="B47" s="11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D47" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="28" t="s">
@@ -8720,20 +10506,19 @@
       <c r="M47" s="28"/>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D48" s="33">
+    <row r="48" spans="1:18">
+      <c r="B48" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="27">
         <v>3</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="50" t="s">
-        <v>235</v>
+      <c r="F48" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="11"/>
@@ -8744,19 +10529,20 @@
       <c r="M48" s="28"/>
       <c r="N48" s="15"/>
     </row>
-    <row r="49" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
+      <c r="A49" s="30"/>
       <c r="B49" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="51">
+      <c r="C49" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="33">
         <v>3</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="13" t="s">
-        <v>270</v>
+      <c r="F49" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="11"/>
@@ -8767,12 +10553,20 @@
       <c r="M49" s="28"/>
       <c r="N49" s="15"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B50" s="15"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="33"/>
+    <row r="50" spans="1:14" s="42" customFormat="1">
+      <c r="B50" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="51">
+        <v>3</v>
+      </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
+      <c r="F50" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="G50" s="28"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -8782,24 +10576,13 @@
       <c r="M50" s="28"/>
       <c r="N50" s="15"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" s="27">
-        <v>1</v>
-      </c>
+    <row r="51" spans="1:14">
+      <c r="B51" s="15"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="5"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="28" t="s">
-        <v>355</v>
-      </c>
+      <c r="G51" s="28"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="5"/>
@@ -8808,39 +10591,40 @@
       <c r="M51" s="28"/>
       <c r="N51" s="15"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="B52" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C52" s="53" t="s">
-        <v>251</v>
+      <c r="C52" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="D52" s="27">
         <v>1</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="11" t="s">
-        <v>272</v>
+      <c r="G52" s="28" t="s">
+        <v>355</v>
       </c>
       <c r="H52" s="11"/>
-      <c r="I52" s="11" t="s">
-        <v>356</v>
-      </c>
+      <c r="I52" s="11"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
       <c r="N52" s="15"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14">
       <c r="B53" s="15" t="s">
         <v>271</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="33">
+        <v>251</v>
+      </c>
+      <c r="D53" s="27">
         <v>1</v>
       </c>
       <c r="E53" s="5"/>
@@ -8849,23 +10633,23 @@
         <v>272</v>
       </c>
       <c r="H53" s="11"/>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="11"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="28"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="15"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14">
       <c r="B54" s="15" t="s">
         <v>271</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="27">
+        <v>248</v>
+      </c>
+      <c r="D54" s="33">
         <v>1</v>
       </c>
       <c r="E54" s="5"/>
@@ -8874,21 +10658,21 @@
         <v>272</v>
       </c>
       <c r="H54" s="11"/>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="11"/>
+      <c r="J54" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
       <c r="N54" s="15"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14">
       <c r="B55" s="15" t="s">
         <v>271</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D55" s="27">
         <v>1</v>
@@ -8899,69 +10683,79 @@
         <v>272</v>
       </c>
       <c r="H55" s="11"/>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="11"/>
+      <c r="J55" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
       <c r="N55" s="15"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="33"/>
+    <row r="56" spans="1:14">
+      <c r="B56" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="27">
+        <v>1</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="28"/>
+      <c r="G56" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="5"/>
+      <c r="J56" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:14">
+      <c r="B57" s="15"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="15"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="14"/>
-    </row>
-    <row r="58" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="11"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="12"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="15"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B59" s="15"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="33"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="14"/>
+    </row>
+    <row r="59" spans="1:14" s="42" customFormat="1">
+      <c r="B59" s="11"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="13"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -8971,7 +10765,7 @@
       <c r="M59" s="28"/>
       <c r="N59" s="15"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14">
       <c r="B60" s="15"/>
       <c r="C60" s="53"/>
       <c r="D60" s="33"/>
@@ -8986,15 +10780,12 @@
       <c r="M60" s="28"/>
       <c r="N60" s="15"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="12"/>
+    <row r="61" spans="1:14">
+      <c r="B61" s="15"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="11"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="28"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -9004,31 +10795,31 @@
       <c r="M61" s="28"/>
       <c r="N61" s="15"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14">
+      <c r="A62" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="26"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="12"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="14"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="15"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="B63" s="11"/>
-      <c r="C63" s="55"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="12"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -9037,13 +10828,16 @@
       <c r="M63" s="11"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14">
+      <c r="A64" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B64" s="11"/>
-      <c r="C64" s="26"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="12"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
@@ -9052,7 +10846,7 @@
       <c r="M64" s="11"/>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14">
       <c r="B65" s="11"/>
       <c r="C65" s="26"/>
       <c r="D65" s="12"/>
@@ -9067,14 +10861,14 @@
       <c r="M65" s="11"/>
       <c r="N65" s="14"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14">
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
       <c r="D66" s="12"/>
       <c r="E66" s="5"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
+      <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
@@ -9082,39 +10876,39 @@
       <c r="M66" s="11"/>
       <c r="N66" s="14"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14">
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
       <c r="D67" s="12"/>
       <c r="E67" s="5"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="14"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14">
       <c r="B68" s="11"/>
       <c r="C68" s="26"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="11"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14">
       <c r="B69" s="11"/>
-      <c r="C69" s="57"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="12"/>
       <c r="E69" s="11"/>
       <c r="F69" s="19"/>
@@ -9127,9 +10921,9 @@
       <c r="M69" s="11"/>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14">
       <c r="B70" s="11"/>
-      <c r="C70" s="55"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="12"/>
       <c r="E70" s="11"/>
       <c r="F70" s="19"/>
@@ -9142,13 +10936,13 @@
       <c r="M70" s="11"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:14">
       <c r="B71" s="11"/>
       <c r="C71" s="55"/>
       <c r="D71" s="12"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
@@ -9157,7 +10951,7 @@
       <c r="M71" s="11"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14">
       <c r="B72" s="11"/>
       <c r="C72" s="55"/>
       <c r="D72" s="12"/>
@@ -9172,7 +10966,7 @@
       <c r="M72" s="11"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14">
       <c r="B73" s="11"/>
       <c r="C73" s="55"/>
       <c r="D73" s="12"/>
@@ -9187,7 +10981,7 @@
       <c r="M73" s="11"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:14">
       <c r="B74" s="11"/>
       <c r="C74" s="55"/>
       <c r="D74" s="12"/>
@@ -9202,10 +10996,10 @@
       <c r="M74" s="11"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="46"/>
+    <row r="75" spans="2:14">
+      <c r="B75" s="11"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
@@ -9215,12 +11009,12 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-      <c r="N75" s="58"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B76" s="11"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="12"/>
+      <c r="N75" s="14"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="46"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -9230,15 +11024,15 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
-      <c r="N76" s="14"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B77" s="14"/>
-      <c r="C77" s="26"/>
+      <c r="N76" s="58"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="11"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -9247,8 +11041,8 @@
       <c r="M77" s="11"/>
       <c r="N77" s="14"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B78" s="11"/>
+    <row r="78" spans="2:14">
+      <c r="B78" s="14"/>
       <c r="C78" s="26"/>
       <c r="D78" s="12"/>
       <c r="E78" s="11"/>
@@ -9262,13 +11056,13 @@
       <c r="M78" s="11"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14">
       <c r="B79" s="11"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="12"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -9277,7 +11071,7 @@
       <c r="M79" s="11"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14">
       <c r="B80" s="11"/>
       <c r="C80" s="14"/>
       <c r="D80" s="12"/>
@@ -9292,13 +11086,13 @@
       <c r="M80" s="11"/>
       <c r="N80" s="14"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B81" s="14"/>
-      <c r="C81" s="26"/>
+    <row r="81" spans="2:14">
+      <c r="B81" s="11"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="12"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
@@ -9307,13 +11101,13 @@
       <c r="M81" s="11"/>
       <c r="N81" s="14"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B82" s="11"/>
-      <c r="C82" s="55"/>
+    <row r="82" spans="2:14">
+      <c r="B82" s="14"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="12"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
@@ -9322,9 +11116,9 @@
       <c r="M82" s="11"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14">
       <c r="B83" s="11"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="55"/>
       <c r="D83" s="12"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -9337,13 +11131,13 @@
       <c r="M83" s="11"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:14">
       <c r="B84" s="11"/>
-      <c r="C84" s="26"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="12"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
@@ -9352,7 +11146,7 @@
       <c r="M84" s="11"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:14">
       <c r="B85" s="11"/>
       <c r="C85" s="26"/>
       <c r="D85" s="12"/>
@@ -9367,13 +11161,13 @@
       <c r="M85" s="11"/>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14">
       <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="12"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
@@ -9382,9 +11176,9 @@
       <c r="M86" s="11"/>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14">
       <c r="B87" s="11"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="12"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
@@ -9397,7 +11191,7 @@
       <c r="M87" s="11"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14">
       <c r="B88" s="11"/>
       <c r="C88" s="14"/>
       <c r="D88" s="12"/>
@@ -9412,7 +11206,7 @@
       <c r="M88" s="11"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14">
       <c r="B89" s="11"/>
       <c r="C89" s="14"/>
       <c r="D89" s="12"/>
@@ -9427,148 +11221,158 @@
       <c r="M89" s="11"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14">
+      <c r="B90" s="11"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="14"/>
+    </row>
+    <row r="91" spans="2:14">
       <c r="C91" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="94" spans="2:14">
       <c r="C94" s="1"/>
     </row>
+    <row r="95" spans="2:14">
+      <c r="C95" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B15:N89"/>
+  <autoFilter ref="B15:N90"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O44:R44 B51:B55 C52:C55 B56:N122 K42:L42 D51:N51 B42:I42 B25:K25 I17:N18 B39:G39 I39:N39 D52:J52 N55 N52:N53 L54:N54 K53 J55:K55 D53:I55 J53:J54 B35:N38 B34:F34 H34:N34 B40:N41 B17:G19 I19 L19:N20 B21:J21 I22 B26:I26 K26 N25:N27 B27:J27 B28:G28 I28 B15:N16 K28 M28:N28 L27 I29:N30 B32:N33 I24:N24 J23:N23 H23 B20:H20 J20 B29:F31 G31:K31 M31:N31 B22:G24 B43:N50 M21:N22 K21:K22 N42">
-    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
+  <conditionalFormatting sqref="O45:R45 B52:B56 B57:N123 K43:L43 D52:N52 B25:K25 I17:N18 B40:G40 I40:N40 N56 N53:N54 L55:N55 K54 K56 B34:F34 H34:N34 B41:N41 B17:G19 L19:N20 B21:J21 I22 B26:I26 K26 N25:N27 B27:J27 B28:G28 I28 B15:N16 K28 M28:N28 L27 I29:N30 B32:N33 I24:N24 J23:N23 H23 B20:H20 J19:J20 B29:F31 G31:K31 M31:N31 B22:G24 B44:N51 M21:N22 K21:K22 N43 I19 J54:J56 C53:I56 B35:N39 K42:N42 B42:J43 J53:K53">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33 E35 E37:E67">
-    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+  <conditionalFormatting sqref="E33 E35 E38:E68">
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="48" priority="43" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="47" priority="36" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E63)))</formula>
+    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19 J22">
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:M26">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:M25">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52:M52">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55:M55">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:M53">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+  <conditionalFormatting sqref="L56:M56">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54:M54">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M42">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="M43">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9586,18 +11390,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F38" sqref="E11:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9608,12 +11412,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9621,7 +11425,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="C7" t="s">
         <v>287</v>
       </c>
@@ -9629,17 +11433,17 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="D8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="C10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="D11" t="s">
         <v>290</v>
       </c>
@@ -9650,7 +11454,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="E12" t="s">
         <v>293</v>
       </c>
@@ -9658,7 +11462,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="E13" t="s">
         <v>295</v>
       </c>
@@ -9666,7 +11470,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="E14" t="s">
         <v>276</v>
       </c>
@@ -9674,7 +11478,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="E15" t="s">
         <v>297</v>
       </c>
@@ -9682,7 +11486,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="E16" t="s">
         <v>299</v>
       </c>
@@ -9690,7 +11494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6">
       <c r="E17" t="s">
         <v>301</v>
       </c>
@@ -9698,7 +11502,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6">
       <c r="D19" t="s">
         <v>303</v>
       </c>
@@ -9709,7 +11513,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6">
       <c r="E20" t="s">
         <v>306</v>
       </c>
@@ -9717,7 +11521,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6">
       <c r="D22" t="s">
         <v>308</v>
       </c>
@@ -9725,7 +11529,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6">
       <c r="D24" t="s">
         <v>310</v>
       </c>
@@ -9733,12 +11537,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6">
       <c r="C26" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6">
       <c r="D27" t="s">
         <v>313</v>
       </c>
@@ -9746,12 +11550,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6">
       <c r="E28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6">
       <c r="D30" t="s">
         <v>315</v>
       </c>
@@ -9759,7 +11563,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6">
       <c r="D32" t="s">
         <v>317</v>
       </c>
@@ -9767,12 +11571,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="E33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="D35" t="s">
         <v>320</v>
       </c>
@@ -9780,22 +11584,22 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="E36" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="E37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="E38" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>3</v>
       </c>
@@ -9803,22 +11607,22 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="C41" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="C42" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="C43" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="C45" t="s">
         <v>329</v>
       </c>
@@ -9826,27 +11630,27 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="D46" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="D47" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="D48" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="D49" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="D50" t="s">
         <v>320</v>
       </c>
@@ -9854,22 +11658,22 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="E51" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="E52" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="E53" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>4</v>
       </c>
@@ -9880,55 +11684,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="C56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="C57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="C59" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="C60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="C61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="C62" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="C63" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="C64" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3">
       <c r="C65" s="61"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3">
       <c r="C66" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3">
       <c r="B73" t="s">
         <v>6</v>
       </c>
@@ -9936,7 +11740,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3">
       <c r="B76" t="s">
         <v>7</v>
       </c>
@@ -9944,7 +11748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -9965,13 +11769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B68:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
@@ -9982,7 +11786,7 @@
       <c r="I68" s="59"/>
       <c r="J68" s="59"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -9993,7 +11797,7 @@
       <c r="I69" s="59"/>
       <c r="J69" s="59"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
@@ -10004,7 +11808,7 @@
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
@@ -10015,7 +11819,7 @@
       <c r="I71" s="59"/>
       <c r="J71" s="59"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
@@ -10026,7 +11830,7 @@
       <c r="I72" s="59"/>
       <c r="J72" s="59"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -10037,7 +11841,7 @@
       <c r="I73" s="59"/>
       <c r="J73" s="59"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
@@ -10048,7 +11852,7 @@
       <c r="I74" s="59"/>
       <c r="J74" s="59"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
@@ -10059,7 +11863,7 @@
       <c r="I75" s="59"/>
       <c r="J75" s="59"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
@@ -10070,7 +11874,7 @@
       <c r="I76" s="59"/>
       <c r="J76" s="59"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
@@ -10081,7 +11885,7 @@
       <c r="I77" s="59"/>
       <c r="J77" s="59"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -10092,7 +11896,7 @@
       <c r="I78" s="59"/>
       <c r="J78" s="59"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -10103,7 +11907,7 @@
       <c r="I79" s="59"/>
       <c r="J79" s="59"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -10114,7 +11918,7 @@
       <c r="I80" s="59"/>
       <c r="J80" s="59"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -10125,7 +11929,7 @@
       <c r="I81" s="59"/>
       <c r="J81" s="59"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
@@ -10136,7 +11940,7 @@
       <c r="I82" s="59"/>
       <c r="J82" s="59"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
@@ -10147,7 +11951,7 @@
       <c r="I83" s="59"/>
       <c r="J83" s="59"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
@@ -10158,7 +11962,7 @@
       <c r="I84" s="59"/>
       <c r="J84" s="59"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -10169,7 +11973,7 @@
       <c r="I85" s="59"/>
       <c r="J85" s="59"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
@@ -10180,7 +11984,7 @@
       <c r="I86" s="59"/>
       <c r="J86" s="59"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
@@ -10191,7 +11995,7 @@
       <c r="I87" s="59"/>
       <c r="J87" s="59"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
@@ -10202,7 +12006,7 @@
       <c r="I88" s="59"/>
       <c r="J88" s="59"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
@@ -10213,7 +12017,7 @@
       <c r="I89" s="59"/>
       <c r="J89" s="59"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
@@ -10224,7 +12028,7 @@
       <c r="I90" s="59"/>
       <c r="J90" s="59"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
@@ -10235,7 +12039,7 @@
       <c r="I91" s="59"/>
       <c r="J91" s="59"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
@@ -10246,7 +12050,7 @@
       <c r="I92" s="59"/>
       <c r="J92" s="59"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
@@ -10257,7 +12061,7 @@
       <c r="I93" s="59"/>
       <c r="J93" s="59"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
@@ -10268,7 +12072,7 @@
       <c r="I94" s="59"/>
       <c r="J94" s="59"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
@@ -10279,7 +12083,7 @@
       <c r="I95" s="59"/>
       <c r="J95" s="59"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
@@ -10290,7 +12094,7 @@
       <c r="I96" s="59"/>
       <c r="J96" s="59"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10">
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
@@ -10301,7 +12105,7 @@
       <c r="I97" s="59"/>
       <c r="J97" s="59"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10">
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
@@ -10312,7 +12116,7 @@
       <c r="I98" s="59"/>
       <c r="J98" s="59"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10">
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
       <c r="D99" s="59"/>
@@ -10323,7 +12127,7 @@
       <c r="I99" s="59"/>
       <c r="J99" s="59"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10">
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
       <c r="D100" s="59"/>
@@ -10334,7 +12138,7 @@
       <c r="I100" s="59"/>
       <c r="J100" s="59"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10">
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
@@ -10345,7 +12149,7 @@
       <c r="I101" s="59"/>
       <c r="J101" s="59"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10">
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
       <c r="D102" s="59"/>
@@ -10356,7 +12160,7 @@
       <c r="I102" s="59"/>
       <c r="J102" s="59"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10">
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
       <c r="D103" s="59"/>
@@ -10384,25 +12188,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
-    <col min="8" max="12" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="36" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="7.5546875" style="1"/>
+    <col min="14" max="16384" width="7.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -10410,13 +12214,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
@@ -10424,7 +12228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -10432,7 +12236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
@@ -10440,7 +12244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
@@ -10448,10 +12252,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
@@ -10489,7 +12293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -10515,7 +12319,7 @@
       </c>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -10529,7 +12333,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -10555,7 +12359,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="30">
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
@@ -10585,7 +12389,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
@@ -10617,7 +12421,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="30">
       <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
@@ -10645,7 +12449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
@@ -10675,7 +12479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>56</v>
@@ -10710,7 +12514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>64</v>
@@ -10735,7 +12539,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
         <v>51</v>
@@ -10764,7 +12568,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>70</v>
@@ -10795,7 +12599,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="30"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -10810,7 +12614,7 @@
       <c r="L25" s="40"/>
       <c r="M25" s="41"/>
     </row>
-    <row r="27" spans="1:13" ht="33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -10843,7 +12647,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="B28" s="31" t="s">
         <v>82</v>
       </c>
@@ -10875,7 +12679,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13">
       <c r="B29" s="31" t="s">
         <v>51</v>
       </c>
@@ -10905,7 +12709,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="42" customFormat="1">
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
@@ -10933,7 +12737,7 @@
       </c>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="45" customFormat="1">
       <c r="B31" s="31" t="s">
         <v>95</v>
       </c>
@@ -10967,7 +12771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="45" customFormat="1">
       <c r="B32" s="14" t="s">
         <v>95</v>
       </c>
@@ -11000,7 +12804,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="45" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="45" customFormat="1" ht="45">
       <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
@@ -11032,7 +12836,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="45" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="45" customFormat="1" ht="45">
       <c r="B34" s="14" t="s">
         <v>95</v>
       </c>
@@ -11064,7 +12868,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="45" customFormat="1">
       <c r="B35" s="14" t="s">
         <v>95</v>
       </c>
@@ -11096,7 +12900,7 @@
       <c r="L35" s="48"/>
       <c r="M35" s="49"/>
     </row>
-    <row r="36" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="42" customFormat="1">
       <c r="B36" s="11"/>
       <c r="C36" s="43"/>
       <c r="D36" s="12"/>
@@ -11110,7 +12914,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
@@ -11143,7 +12947,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17">
       <c r="B38" s="11" t="s">
         <v>51</v>
       </c>
@@ -11173,7 +12977,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="30"/>
       <c r="B39" s="20" t="s">
         <v>33</v>
@@ -11210,7 +13014,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" s="30"/>
       <c r="B40" s="20" t="s">
         <v>127</v>
@@ -11243,7 +13047,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="42" customFormat="1">
       <c r="B41" s="50" t="s">
         <v>51</v>
       </c>
@@ -11273,7 +13077,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="52"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17">
       <c r="B42" s="31" t="s">
         <v>51</v>
       </c>
@@ -11301,7 +13105,7 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17">
       <c r="B43" s="15" t="s">
         <v>33</v>
       </c>
@@ -11329,7 +13133,7 @@
       <c r="L43" s="28"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="B44" s="15" t="s">
         <v>33</v>
       </c>
@@ -11357,7 +13161,7 @@
       </c>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="B45" s="15" t="s">
         <v>51</v>
       </c>
@@ -11385,7 +13189,7 @@
       </c>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="B46" s="50" t="s">
         <v>51</v>
       </c>
@@ -11413,7 +13217,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="20"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="50" t="s">
         <v>51</v>
       </c>
@@ -11441,7 +13245,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="20"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="B48" s="50" t="s">
         <v>51</v>
       </c>
@@ -11469,7 +13273,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="20"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="B49" s="50" t="s">
         <v>154</v>
       </c>
@@ -11497,7 +13301,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="20"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="B50" s="50" t="s">
         <v>51</v>
       </c>
@@ -11525,7 +13329,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="20"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="B51" s="50" t="s">
         <v>51</v>
       </c>
@@ -11553,7 +13357,7 @@
       <c r="P51" s="39"/>
       <c r="Q51" s="41"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="B52" s="50" t="s">
         <v>51</v>
       </c>
@@ -11581,7 +13385,7 @@
       <c r="P52" s="39"/>
       <c r="Q52" s="41"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="B53" s="11"/>
       <c r="C53" s="14"/>
       <c r="D53" s="12"/>
@@ -11595,7 +13399,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -11624,7 +13428,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17">
       <c r="B55" s="11" t="s">
         <v>166</v>
       </c>
@@ -11650,7 +13454,7 @@
       <c r="L55" s="11"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17">
       <c r="B56" s="11" t="s">
         <v>168</v>
       </c>
@@ -11676,7 +13480,7 @@
       <c r="L56" s="11"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17">
       <c r="B57" s="11" t="s">
         <v>168</v>
       </c>
@@ -11702,7 +13506,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17">
       <c r="B58" s="11" t="s">
         <v>168</v>
       </c>
@@ -11728,7 +13532,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17">
       <c r="B59" s="11" t="s">
         <v>168</v>
       </c>
@@ -11754,7 +13558,7 @@
       <c r="L59" s="11"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17">
       <c r="B60" s="11" t="s">
         <v>168</v>
       </c>
@@ -11780,7 +13584,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17">
       <c r="B61" s="11" t="s">
         <v>168</v>
       </c>
@@ -11806,7 +13610,7 @@
       <c r="L61" s="11"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17">
       <c r="B62" s="11"/>
       <c r="C62" s="55"/>
       <c r="D62" s="12"/>
@@ -11820,7 +13624,7 @@
       <c r="L62" s="11"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>176</v>
       </c>
@@ -11845,7 +13649,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>179</v>
       </c>
@@ -11870,7 +13674,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" ht="33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="30">
       <c r="A65" s="2" t="s">
         <v>181</v>
       </c>
@@ -11901,7 +13705,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
@@ -11932,7 +13736,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
@@ -11963,7 +13767,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -11994,7 +13798,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
         <v>196</v>
       </c>
@@ -12025,7 +13829,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" s="2" customFormat="1">
       <c r="A70" s="2" t="s">
         <v>198</v>
       </c>
@@ -12058,7 +13862,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" s="2" customFormat="1">
       <c r="A71" s="2" t="s">
         <v>200</v>
       </c>
@@ -12091,7 +13895,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" s="2" customFormat="1">
       <c r="A72" s="2" t="s">
         <v>202</v>
       </c>
@@ -12122,7 +13926,7 @@
       <c r="L72" s="11"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
@@ -12136,7 +13940,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="B74" s="11" t="s">
         <v>204</v>
       </c>
@@ -12164,7 +13968,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13">
       <c r="B75" s="11"/>
       <c r="C75" s="43" t="s">
         <v>210</v>
@@ -12188,7 +13992,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13">
       <c r="B76" s="11"/>
       <c r="C76" s="43"/>
       <c r="D76" s="12"/>
@@ -12202,7 +14006,7 @@
       <c r="L76" s="11"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13">
       <c r="B77" s="11" t="s">
         <v>213</v>
       </c>
@@ -12232,7 +14036,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13">
       <c r="B78" s="11"/>
       <c r="C78" s="26"/>
       <c r="D78" s="12"/>
@@ -12246,7 +14050,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>216</v>
       </c>
@@ -12273,7 +14077,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13">
       <c r="B80" s="11"/>
       <c r="C80" s="26"/>
       <c r="D80" s="12"/>
@@ -12287,7 +14091,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13">
       <c r="B81" s="11"/>
       <c r="C81" s="26" t="s">
         <v>219</v>
@@ -12307,7 +14111,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13">
       <c r="B82" s="11"/>
       <c r="C82" s="26" t="s">
         <v>222</v>
@@ -12327,7 +14131,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13">
       <c r="B83" s="11"/>
       <c r="C83" s="26" t="s">
         <v>224</v>
@@ -12349,7 +14153,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13">
       <c r="B84" s="11"/>
       <c r="C84" s="26"/>
       <c r="D84" s="12"/>
@@ -12363,7 +14167,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13">
       <c r="B85" s="11"/>
       <c r="C85" s="57"/>
       <c r="D85" s="12"/>
@@ -12377,7 +14181,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13">
       <c r="B86" s="11"/>
       <c r="C86" s="55"/>
       <c r="D86" s="12"/>
@@ -12391,7 +14195,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13">
       <c r="B87" s="11"/>
       <c r="C87" s="55"/>
       <c r="D87" s="12"/>
@@ -12405,7 +14209,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13">
       <c r="B88" s="11"/>
       <c r="C88" s="55"/>
       <c r="D88" s="12"/>
@@ -12419,7 +14223,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13">
       <c r="B89" s="11"/>
       <c r="C89" s="55"/>
       <c r="D89" s="12"/>
@@ -12433,7 +14237,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13">
       <c r="B90" s="11"/>
       <c r="C90" s="55"/>
       <c r="D90" s="12"/>
@@ -12447,7 +14251,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="46"/>
@@ -12461,7 +14265,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="58"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13">
       <c r="B92" s="11"/>
       <c r="C92" s="55"/>
       <c r="D92" s="12"/>
@@ -12475,7 +14279,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13">
       <c r="B93" s="14"/>
       <c r="C93" s="26"/>
       <c r="D93" s="12"/>
@@ -12489,7 +14293,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13">
       <c r="B94" s="11"/>
       <c r="C94" s="26"/>
       <c r="D94" s="12"/>
@@ -12503,7 +14307,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13">
       <c r="B95" s="11"/>
       <c r="C95" s="14"/>
       <c r="D95" s="12"/>
@@ -12517,7 +14321,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13">
       <c r="B96" s="11"/>
       <c r="C96" s="14"/>
       <c r="D96" s="12"/>
@@ -12531,7 +14335,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13">
       <c r="B97" s="14"/>
       <c r="C97" s="26"/>
       <c r="D97" s="12"/>
@@ -12545,7 +14349,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13">
       <c r="B98" s="11"/>
       <c r="C98" s="55"/>
       <c r="D98" s="12"/>
@@ -12559,7 +14363,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13">
       <c r="B99" s="11"/>
       <c r="C99" s="14"/>
       <c r="D99" s="12"/>
@@ -12573,7 +14377,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13">
       <c r="B100" s="11"/>
       <c r="C100" s="26"/>
       <c r="D100" s="12"/>
@@ -12587,7 +14391,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13">
       <c r="B101" s="11"/>
       <c r="C101" s="26"/>
       <c r="D101" s="12"/>
@@ -12601,7 +14405,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="12"/>
@@ -12615,7 +14419,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13">
       <c r="B103" s="11"/>
       <c r="C103" s="14"/>
       <c r="D103" s="12"/>
@@ -12629,7 +14433,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13">
       <c r="B104" s="11"/>
       <c r="C104" s="14"/>
       <c r="D104" s="12"/>
@@ -12643,7 +14447,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13">
       <c r="B105" s="11"/>
       <c r="C105" s="14"/>
       <c r="D105" s="12"/>
@@ -12657,128 +14461,128 @@
       <c r="L105" s="11"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13">
       <c r="C107" s="1"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13">
       <c r="C110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H39 H36:L38 H29:I30 B20:M20 I28:L28 I31:I32 M29:M39 K39:L41 H40:J40 J21:M22 J39 J19:L19 J29:K29 J31:K35 L29:L31 I22 H27:M27 B19:H19 B21:H22 B46:Q52 B41:J41 B23:M25 B27:G40 B42:M45 B53:M138 B13:M18">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E52">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12795,13 +14599,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="63"/>
+    <col min="1" max="16384" width="10.7109375" style="63"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑1/Demo-里程碑1计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="32760" windowHeight="17900" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="31800" windowHeight="18120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$N$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$B$15:$N$91</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="388">
   <si>
     <t>Demo目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1021,10 +1021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Demo需要美术资源-动作、特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Demo需要美术资源-UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1548,6 +1544,30 @@
   </si>
   <si>
     <t>封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo需要美术资源-特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo需要美术资源-动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1708,7 +1728,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="264">
+  <cellStyleXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1975,8 +1995,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2162,8 +2210,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="264">
+  <cellStyles count="292">
     <cellStyle name="常规 2" xfId="7"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -2297,6 +2351,20 @@
     <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2428,8 +2496,43 @@
     <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2787,6 +2890,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -2883,6 +3007,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9516,14 +9647,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9545,39 +9676,39 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="2:14">
       <c r="C2" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="C3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="16">
       <c r="C4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:14" ht="16">
       <c r="C5" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:14">
       <c r="C6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="2:14">
       <c r="C7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:14">
@@ -9656,7 +9787,7 @@
         <v>233</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>27</v>
@@ -9693,28 +9824,28 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -9728,22 +9859,22 @@
         <v>33</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -9757,24 +9888,24 @@
         <v>33</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>104</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
@@ -9785,22 +9916,22 @@
         <v>29</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
       <c r="J20" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -9811,23 +9942,23 @@
         <v>29</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D21" s="12">
         <v>2</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="9"/>
       <c r="I21" s="60"/>
-      <c r="J21" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>349</v>
+      <c r="K21" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="14"/>
@@ -9837,46 +9968,45 @@
         <v>29</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G22" s="11"/>
       <c r="I22" s="60"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="M22" s="60"/>
-      <c r="N22" s="14"/>
+      <c r="K22" s="60"/>
+      <c r="M22" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J23" s="60"/>
       <c r="K23" s="60"/>
@@ -9889,22 +10019,22 @@
         <v>33</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="60"/>
       <c r="I24" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
@@ -9916,7 +10046,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -9929,66 +10059,65 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="60"/>
-      <c r="K25" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="14"/>
+      <c r="K25" s="60"/>
+      <c r="M25" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="K26" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="14"/>
+        <v>348</v>
+      </c>
+      <c r="M26" s="60"/>
     </row>
     <row r="27" spans="1:14">
       <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
+      <c r="K27" s="60"/>
       <c r="L27" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N27" s="14"/>
     </row>
@@ -9997,43 +10126,43 @@
         <v>33</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="64" t="s">
         <v>104</v>
       </c>
       <c r="I28" s="9"/>
-      <c r="K28" s="60"/>
-      <c r="M28" s="60" t="s">
-        <v>375</v>
-      </c>
+      <c r="K28" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="L28" s="60"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D29" s="33">
         <v>2</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H29" s="64" t="s">
         <v>104</v>
@@ -10042,7 +10171,7 @@
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M29" s="60"/>
       <c r="N29" s="14"/>
@@ -10050,20 +10179,20 @@
     <row r="30" spans="1:14">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D30" s="33">
         <v>3</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H30" s="64" t="s">
         <v>104</v>
@@ -10073,23 +10202,23 @@
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
       <c r="M30" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D31" s="17">
         <v>3</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="60"/>
@@ -10097,28 +10226,28 @@
       <c r="J31" s="60"/>
       <c r="K31" s="60"/>
       <c r="M31" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14">
       <c r="B32" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -10133,20 +10262,20 @@
         <v>33</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" s="12">
         <v>3</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="60"/>
@@ -10161,19 +10290,19 @@
         <v>56</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D34" s="12">
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>104</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="60"/>
@@ -10193,14 +10322,14 @@
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="60"/>
@@ -10215,13 +10344,13 @@
         <v>70</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D36" s="12">
         <v>3</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>104</v>
@@ -10229,7 +10358,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="60"/>
       <c r="I36" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="60"/>
@@ -10240,23 +10369,25 @@
     <row r="37" spans="1:18">
       <c r="A37" s="30"/>
       <c r="B37" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>380</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>381</v>
       </c>
       <c r="D37" s="12">
         <v>3</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="F37" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="60"/>
       <c r="I37" s="60"/>
       <c r="J37" s="60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
@@ -10298,25 +10429,25 @@
         <v>116</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D40" s="27">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -10327,23 +10458,23 @@
     </row>
     <row r="41" spans="1:18">
       <c r="B41" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D41" s="27">
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -10354,23 +10485,23 @@
     </row>
     <row r="42" spans="1:18">
       <c r="B42" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D42" s="27">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -10398,22 +10529,24 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="28"/>
+      <c r="K43" s="28" t="s">
+        <v>387</v>
+      </c>
       <c r="L43" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="30"/>
       <c r="B44" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D44" s="33">
         <v>2</v>
@@ -10428,7 +10561,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="28"/>
       <c r="L44" s="62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M44" s="11"/>
       <c r="N44" s="15"/>
@@ -10438,14 +10571,14 @@
         <v>246</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D45" s="33">
         <v>1</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="11"/>
@@ -10465,14 +10598,14 @@
         <v>243</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" s="27">
         <v>2</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="11"/>
@@ -10495,7 +10628,7 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="11"/>
@@ -10518,7 +10651,7 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="11"/>
@@ -10565,7 +10698,7 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="11"/>
@@ -10596,10 +10729,10 @@
         <v>247</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D52" s="27">
         <v>1</v>
@@ -10607,7 +10740,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="13"/>
       <c r="G52" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -10619,10 +10752,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="B53" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D53" s="27">
         <v>1</v>
@@ -10630,13 +10763,13 @@
       <c r="E53" s="5"/>
       <c r="F53" s="13"/>
       <c r="G53" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="5"/>
       <c r="K53" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -10644,7 +10777,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C54" s="53" t="s">
         <v>248</v>
@@ -10655,12 +10788,12 @@
       <c r="E54" s="5"/>
       <c r="F54" s="13"/>
       <c r="G54" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K54" s="28"/>
       <c r="L54" s="11"/>
@@ -10669,7 +10802,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="B55" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C55" s="53" t="s">
         <v>249</v>
@@ -10680,12 +10813,12 @@
       <c r="E55" s="5"/>
       <c r="F55" s="13"/>
       <c r="G55" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K55" s="11"/>
       <c r="L55" s="28"/>
@@ -10694,10 +10827,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="B56" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="D56" s="27">
         <v>1</v>
@@ -10705,12 +10838,12 @@
       <c r="E56" s="5"/>
       <c r="F56" s="13"/>
       <c r="G56" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K56" s="28"/>
       <c r="L56" s="11"/>
@@ -10718,59 +10851,67 @@
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="B57" s="15"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="33"/>
+      <c r="B57" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" s="66">
+        <v>2</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="28"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
       <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="15"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="14"/>
-    </row>
-    <row r="59" spans="1:14" s="42" customFormat="1">
-      <c r="B59" s="11"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="12"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="15"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="15"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="33"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60" spans="1:14" s="42" customFormat="1">
+      <c r="B60" s="11"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="13"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="28"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -10796,14 +10937,11 @@
       <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="12"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="11"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="28"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -10814,30 +10952,30 @@
       <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14">
+      <c r="A63" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="26"/>
+      <c r="C63" s="55"/>
       <c r="D63" s="12"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="14"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="B64" s="11"/>
-      <c r="C64" s="55"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="12"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
@@ -10846,13 +10984,16 @@
       <c r="M64" s="11"/>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="1:14">
+      <c r="A65" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B65" s="11"/>
-      <c r="C65" s="26"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="12"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
@@ -10861,7 +11002,7 @@
       <c r="M65" s="11"/>
       <c r="N65" s="14"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="1:14">
       <c r="B66" s="11"/>
       <c r="C66" s="26"/>
       <c r="D66" s="12"/>
@@ -10876,14 +11017,14 @@
       <c r="M66" s="11"/>
       <c r="N66" s="14"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="1:14">
       <c r="B67" s="11"/>
       <c r="C67" s="26"/>
       <c r="D67" s="12"/>
       <c r="E67" s="5"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
@@ -10891,39 +11032,39 @@
       <c r="M67" s="11"/>
       <c r="N67" s="14"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="1:14">
       <c r="B68" s="11"/>
       <c r="C68" s="26"/>
       <c r="D68" s="12"/>
       <c r="E68" s="5"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="1:14">
       <c r="B69" s="11"/>
       <c r="C69" s="26"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="11"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="1:14">
       <c r="B70" s="11"/>
-      <c r="C70" s="57"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="12"/>
       <c r="E70" s="11"/>
       <c r="F70" s="19"/>
@@ -10936,9 +11077,9 @@
       <c r="M70" s="11"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="1:14">
       <c r="B71" s="11"/>
-      <c r="C71" s="55"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="12"/>
       <c r="E71" s="11"/>
       <c r="F71" s="19"/>
@@ -10951,13 +11092,13 @@
       <c r="M71" s="11"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="1:14">
       <c r="B72" s="11"/>
       <c r="C72" s="55"/>
       <c r="D72" s="12"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
@@ -10966,7 +11107,7 @@
       <c r="M72" s="11"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="1:14">
       <c r="B73" s="11"/>
       <c r="C73" s="55"/>
       <c r="D73" s="12"/>
@@ -10981,7 +11122,7 @@
       <c r="M73" s="11"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="1:14">
       <c r="B74" s="11"/>
       <c r="C74" s="55"/>
       <c r="D74" s="12"/>
@@ -10996,7 +11137,7 @@
       <c r="M74" s="11"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="1:14">
       <c r="B75" s="11"/>
       <c r="C75" s="55"/>
       <c r="D75" s="12"/>
@@ -11011,10 +11152,10 @@
       <c r="M75" s="11"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="2:14">
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="46"/>
+    <row r="76" spans="1:14">
+      <c r="B76" s="11"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="12"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -11024,12 +11165,12 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
-      <c r="N76" s="58"/>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="B77" s="11"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="12"/>
+      <c r="N76" s="14"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="46"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
@@ -11039,15 +11180,15 @@
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
-      <c r="N77" s="14"/>
-    </row>
-    <row r="78" spans="2:14">
-      <c r="B78" s="14"/>
-      <c r="C78" s="26"/>
+      <c r="N77" s="58"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="B78" s="11"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="12"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -11056,8 +11197,8 @@
       <c r="M78" s="11"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="2:14">
-      <c r="B79" s="11"/>
+    <row r="79" spans="1:14">
+      <c r="B79" s="14"/>
       <c r="C79" s="26"/>
       <c r="D79" s="12"/>
       <c r="E79" s="11"/>
@@ -11071,13 +11212,13 @@
       <c r="M79" s="11"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="1:14">
       <c r="B80" s="11"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="12"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -11102,12 +11243,12 @@
       <c r="N81" s="14"/>
     </row>
     <row r="82" spans="2:14">
-      <c r="B82" s="14"/>
-      <c r="C82" s="26"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="12"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
@@ -11117,12 +11258,12 @@
       <c r="N82" s="14"/>
     </row>
     <row r="83" spans="2:14">
-      <c r="B83" s="11"/>
-      <c r="C83" s="55"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="12"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
@@ -11133,7 +11274,7 @@
     </row>
     <row r="84" spans="2:14">
       <c r="B84" s="11"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="12"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -11148,11 +11289,11 @@
     </row>
     <row r="85" spans="2:14">
       <c r="B85" s="11"/>
-      <c r="C85" s="26"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="12"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
@@ -11178,11 +11319,11 @@
     </row>
     <row r="87" spans="2:14">
       <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="12"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
@@ -11193,7 +11334,7 @@
     </row>
     <row r="88" spans="2:14">
       <c r="B88" s="11"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="12"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -11237,142 +11378,177 @@
       <c r="N90" s="14"/>
     </row>
     <row r="91" spans="2:14">
-      <c r="C91" s="1"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="14"/>
     </row>
     <row r="92" spans="2:14">
       <c r="C92" s="1"/>
     </row>
-    <row r="94" spans="2:14">
-      <c r="C94" s="1"/>
+    <row r="93" spans="2:14">
+      <c r="C93" s="1"/>
     </row>
     <row r="95" spans="2:14">
       <c r="C95" s="1"/>
     </row>
+    <row r="96" spans="2:14">
+      <c r="C96" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B15:N90"/>
+  <autoFilter ref="B15:N91"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O45:R45 B52:B56 B57:N123 K43:L43 D52:N52 B25:K25 I17:N18 B40:G40 I40:N40 N56 N53:N54 L55:N55 K54 K56 B34:F34 H34:N34 B41:N41 B17:G19 L19:N20 B21:J21 I22 B26:I26 K26 N25:N27 B27:J27 B28:G28 I28 B15:N16 K28 M28:N28 L27 I29:N30 B32:N33 I24:N24 J23:N23 H23 B20:H20 J19:J20 B29:F31 G31:K31 M31:N31 B22:G24 B44:N51 M21:N22 K21:K22 N43 I19 J54:J56 C53:I56 B35:N39 K42:N42 B42:J43 J53:K53">
-    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
+  <conditionalFormatting sqref="O45:R45 B52:B57 B58:N124 K43:L43 D52:N52 I17:N18 B40:G40 I40:N40 N56:N57 N53:N54 L55:N55 K54 K56:K57 B34:F34 H34:N34 B41:N41 B17:G19 L19:N20 I22 B26:I26 K26 B27:J27 B28:G28 I28 B15:N16 L27 I29:N30 B32:N33 I24:N24 J23:N23 H23 B20:H20 J19:J20 B29:F31 G31:K31 M31:N31 B22:G24 B44:N51 N43 I19 J54:J57 C53:I57 K42:N42 B42:J43 J53:K53 B21:I21 M22 K21:N21 B35:N39 K28 N27:N28 M25 B25:K25">
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33 E35 E38:E68">
-    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+  <conditionalFormatting sqref="E33 E35 E38:E69">
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="47" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="46" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="43" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="54" priority="47" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="47" priority="36" operator="equal">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E64)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="41" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="32" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="50" priority="33" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19 J22">
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:M26">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="42" priority="17" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:M25">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+  <conditionalFormatting sqref="N25">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:M53">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56:M56">
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+  <conditionalFormatting sqref="L56:M57">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:M54">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+  <conditionalFormatting sqref="N22">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11390,7 +11566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F77"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F38" sqref="E11:F38"/>
     </sheetView>
   </sheetViews>
@@ -11409,12 +11585,12 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11422,181 +11598,181 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" t="s">
         <v>287</v>
-      </c>
-      <c r="D7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" t="s">
         <v>290</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>291</v>
-      </c>
-      <c r="F11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="E12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" t="s">
         <v>293</v>
-      </c>
-      <c r="F12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="E13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" t="s">
         <v>295</v>
-      </c>
-      <c r="F13" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="E15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" t="s">
         <v>297</v>
-      </c>
-      <c r="F15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="E16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" t="s">
         <v>299</v>
-      </c>
-      <c r="F16" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="E17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" t="s">
         <v>301</v>
-      </c>
-      <c r="F17" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" t="s">
         <v>303</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>304</v>
-      </c>
-      <c r="F19" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="E20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" t="s">
         <v>306</v>
-      </c>
-      <c r="F20" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="D22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" t="s">
         <v>308</v>
-      </c>
-      <c r="E22" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" t="s">
         <v>310</v>
-      </c>
-      <c r="E24" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="E28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="D30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" t="s">
         <v>315</v>
-      </c>
-      <c r="E30" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="D32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" t="s">
         <v>317</v>
-      </c>
-      <c r="E32" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="E33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="D35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E35" t="s">
         <v>320</v>
-      </c>
-      <c r="E35" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="E36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="E37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="E38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11604,73 +11780,73 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="C41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="C42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="C43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="C45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D45" t="s">
         <v>329</v>
-      </c>
-      <c r="D45" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="D47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="D48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="D49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="D50" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" t="s">
         <v>320</v>
-      </c>
-      <c r="E50" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="E51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="E52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="E53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -11711,17 +11887,17 @@
     </row>
     <row r="62" spans="1:5">
       <c r="C62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="C63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="C64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -11729,7 +11905,7 @@
     </row>
     <row r="66" spans="2:3">
       <c r="C66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -11737,7 +11913,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -11769,7 +11945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B68:J103"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
@@ -12188,7 +12364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -14476,113 +14652,113 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H39 H36:L38 H29:I30 B20:M20 I28:L28 I31:I32 M29:M39 K39:L41 H40:J40 J21:M22 J39 J19:L19 J29:K29 J31:K35 L29:L31 I22 H27:M27 B19:H19 B21:H22 B46:Q52 B41:J41 B23:M25 B27:G40 B42:M45 B53:M138 B13:M18">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E52">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E20">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14599,7 +14775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
